--- a/BackTest/2020-01-13 BackTest ABT.xlsx
+++ b/BackTest/2020-01-13 BackTest ABT.xlsx
@@ -591,20 +591,14 @@
         <v>142.7716666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>143</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,20 +626,14 @@
         <v>143.0549999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>143</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -673,20 +661,14 @@
         <v>143.4033333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>142</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -714,20 +696,14 @@
         <v>143.7183333333332</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>142</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -762,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -801,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -840,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -879,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -918,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -961,7 +917,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -991,12 +947,14 @@
         <v>145.4799999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>140.1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1071,14 +1029,12 @@
         <v>145.8316666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>142</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1112,14 +1068,12 @@
         <v>146.0299999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>143.9</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1153,14 +1107,12 @@
         <v>146.1633333333332</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>142.9</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1194,14 +1146,12 @@
         <v>146.3116666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>143.9</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1235,14 +1185,12 @@
         <v>146.4949999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>144.9</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1276,14 +1224,12 @@
         <v>146.5949999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>144.9</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1434,12 +1380,14 @@
         <v>146.5299999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>144</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1674,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>140</v>
+        <v>136.3</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
@@ -1715,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
@@ -1756,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>137</v>
+        <v>139.9</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
@@ -1797,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
@@ -1879,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>138</v>
+        <v>138.8</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
@@ -2084,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
@@ -2125,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>140.9</v>
+        <v>140.1</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
@@ -2160,14 +2108,12 @@
         <v>142.9716666666665</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>141</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2201,14 +2147,12 @@
         <v>142.7066666666665</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>141</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2242,14 +2186,12 @@
         <v>142.6866666666665</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>143</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2283,14 +2225,12 @@
         <v>142.5083333333332</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>144</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2324,14 +2264,12 @@
         <v>142.4749999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>143</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2365,14 +2303,12 @@
         <v>142.3749999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>143</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2406,14 +2342,12 @@
         <v>142.2766666666665</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2447,14 +2381,12 @@
         <v>142.2099999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>143</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2488,14 +2420,12 @@
         <v>142.1933333333332</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>143</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2529,14 +2459,12 @@
         <v>142.2416666666665</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>143.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2570,14 +2498,12 @@
         <v>142.2716666666665</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -3547,14 +3473,12 @@
         <v>143.08</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>144.9</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3705,14 +3629,12 @@
         <v>142.8983333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>142</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3746,14 +3668,12 @@
         <v>142.8633333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>141.9</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3787,14 +3707,12 @@
         <v>142.83</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>144</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3828,14 +3746,12 @@
         <v>142.7933333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>141.8</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3869,14 +3785,12 @@
         <v>142.7266666666666</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>140</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3910,14 +3824,12 @@
         <v>142.6916666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>138.2</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3951,14 +3863,12 @@
         <v>142.6899999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>140</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3992,14 +3902,12 @@
         <v>142.6783333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>141</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -4033,14 +3941,12 @@
         <v>142.7433333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>140.2</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -4074,14 +3980,12 @@
         <v>142.7933333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>140.2</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -4115,14 +4019,12 @@
         <v>142.795</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>140</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -4156,14 +4058,12 @@
         <v>142.875</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>139.9</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -4197,14 +4097,12 @@
         <v>142.945</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>143</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -4238,14 +4136,12 @@
         <v>142.9983333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>142</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4279,14 +4175,12 @@
         <v>143.065</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>142</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4320,14 +4214,12 @@
         <v>143.115</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>141</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4361,14 +4253,12 @@
         <v>143.165</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>141</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4402,14 +4292,12 @@
         <v>143.2466666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>142.9</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4443,14 +4331,12 @@
         <v>143.33</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>142.9</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4484,14 +4370,12 @@
         <v>143.3783333333334</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>143</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4525,14 +4409,12 @@
         <v>143.4116666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>143</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4566,14 +4448,12 @@
         <v>143.4583333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>143.8</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4607,14 +4487,12 @@
         <v>143.4883333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>143.8</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4648,14 +4526,12 @@
         <v>143.425</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>143</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4728,14 +4604,12 @@
         <v>143.3933333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>143</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4769,14 +4643,12 @@
         <v>143.41</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>143.5</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4810,14 +4682,12 @@
         <v>143.425</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>144</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -5007,14 +4877,12 @@
         <v>143.32</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>142</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -5048,14 +4916,12 @@
         <v>143.3283333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>142</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -5089,14 +4955,12 @@
         <v>143.3616666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>144.5</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -5130,14 +4994,12 @@
         <v>143.3133333333334</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>146</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -5249,14 +5111,12 @@
         <v>143.13</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>143</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -5290,14 +5150,12 @@
         <v>143.0166666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>141.1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -5331,14 +5189,12 @@
         <v>142.9983333333334</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>143.9</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -5372,14 +5228,12 @@
         <v>142.905</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>142.1</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -5413,14 +5267,12 @@
         <v>142.8716666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>143.9</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5454,14 +5306,12 @@
         <v>142.855</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>144</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -6619,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6689,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6724,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6759,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6794,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6829,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6864,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6899,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6934,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest ABT.xlsx
+++ b/BackTest/2020-01-13 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:M274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>147.6</v>
+        <v>147.7</v>
       </c>
       <c r="C2" t="n">
-        <v>140.1</v>
+        <v>146.1</v>
       </c>
       <c r="D2" t="n">
-        <v>147.8</v>
+        <v>147.7</v>
       </c>
       <c r="E2" t="n">
-        <v>140.1</v>
+        <v>144.6</v>
       </c>
       <c r="F2" t="n">
-        <v>22394.9564</v>
+        <v>16628.9257</v>
       </c>
       <c r="G2" t="n">
-        <v>141.8016666666666</v>
+        <v>141.5999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>143</v>
+        <v>147.6</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>140.1</v>
       </c>
       <c r="D3" t="n">
-        <v>143</v>
+        <v>147.8</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>140.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3698.4179</v>
+        <v>22394.9564</v>
       </c>
       <c r="G3" t="n">
-        <v>142.0516666666666</v>
+        <v>141.8016666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n">
-        <v>140.3</v>
+        <v>143</v>
       </c>
       <c r="D4" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E4" t="n">
-        <v>140.3</v>
+        <v>143</v>
       </c>
       <c r="F4" t="n">
-        <v>5885.0471</v>
+        <v>3698.4179</v>
       </c>
       <c r="G4" t="n">
-        <v>142.2566666666666</v>
+        <v>142.0516666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="n">
-        <v>142.9</v>
+        <v>140.3</v>
       </c>
       <c r="D5" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="E5" t="n">
-        <v>140.5</v>
+        <v>140.3</v>
       </c>
       <c r="F5" t="n">
-        <v>11621.7326</v>
+        <v>5885.0471</v>
       </c>
       <c r="G5" t="n">
-        <v>142.5049999999999</v>
+        <v>142.2566666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n">
-        <v>142</v>
+        <v>142.9</v>
       </c>
       <c r="D6" t="n">
-        <v>143</v>
+        <v>142.9</v>
       </c>
       <c r="E6" t="n">
-        <v>141</v>
+        <v>140.5</v>
       </c>
       <c r="F6" t="n">
-        <v>2254</v>
+        <v>11621.7326</v>
       </c>
       <c r="G6" t="n">
-        <v>142.7716666666666</v>
+        <v>142.5049999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="n">
-        <v>146.3956</v>
+        <v>2254</v>
       </c>
       <c r="G7" t="n">
-        <v>143.0549999999999</v>
+        <v>142.7716666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>143</v>
+      </c>
+      <c r="C8" t="n">
         <v>142</v>
       </c>
-      <c r="C8" t="n">
-        <v>147.9</v>
-      </c>
       <c r="D8" t="n">
-        <v>147.9</v>
+        <v>143</v>
       </c>
       <c r="E8" t="n">
         <v>142</v>
       </c>
       <c r="F8" t="n">
-        <v>5080.8469</v>
+        <v>146.3956</v>
       </c>
       <c r="G8" t="n">
-        <v>143.4033333333333</v>
+        <v>143.0549999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>142</v>
       </c>
       <c r="C9" t="n">
-        <v>145.9</v>
+        <v>147.9</v>
       </c>
       <c r="D9" t="n">
-        <v>145.9</v>
+        <v>147.9</v>
       </c>
       <c r="E9" t="n">
         <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>1603.077528169979</v>
+        <v>5080.8469</v>
       </c>
       <c r="G9" t="n">
-        <v>143.7183333333332</v>
+        <v>143.4033333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>142</v>
+      </c>
+      <c r="C10" t="n">
         <v>145.9</v>
       </c>
-      <c r="C10" t="n">
-        <v>145</v>
-      </c>
       <c r="D10" t="n">
-        <v>148</v>
+        <v>145.9</v>
       </c>
       <c r="E10" t="n">
         <v>142</v>
       </c>
       <c r="F10" t="n">
-        <v>11559.1779</v>
+        <v>1603.077528169979</v>
       </c>
       <c r="G10" t="n">
-        <v>144.0683333333332</v>
+        <v>143.7183333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>144</v>
+        <v>145.9</v>
       </c>
       <c r="C11" t="n">
-        <v>144.8</v>
+        <v>145</v>
       </c>
       <c r="D11" t="n">
-        <v>144.8</v>
+        <v>148</v>
       </c>
       <c r="E11" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" t="n">
-        <v>2019.756773480663</v>
+        <v>11559.1779</v>
       </c>
       <c r="G11" t="n">
-        <v>144.3649999999999</v>
+        <v>144.0683333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>144</v>
+      </c>
+      <c r="C12" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="E12" t="n">
         <v>143</v>
       </c>
-      <c r="C12" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>143</v>
-      </c>
-      <c r="E12" t="n">
-        <v>140.1</v>
-      </c>
       <c r="F12" t="n">
-        <v>5769.6625</v>
+        <v>2019.756773480663</v>
       </c>
       <c r="G12" t="n">
-        <v>144.6299999999999</v>
+        <v>144.3649999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142.9</v>
+        <v>143</v>
       </c>
       <c r="C13" t="n">
         <v>142.9</v>
@@ -827,13 +827,13 @@
         <v>143</v>
       </c>
       <c r="E13" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="F13" t="n">
-        <v>6448.6729</v>
+        <v>5769.6625</v>
       </c>
       <c r="G13" t="n">
-        <v>144.8949999999999</v>
+        <v>144.6299999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>143</v>
+        <v>142.9</v>
       </c>
       <c r="C14" t="n">
         <v>142.9</v>
@@ -862,13 +862,13 @@
         <v>143</v>
       </c>
       <c r="E14" t="n">
-        <v>142.9</v>
+        <v>140</v>
       </c>
       <c r="F14" t="n">
-        <v>8345.9858</v>
+        <v>6448.6729</v>
       </c>
       <c r="G14" t="n">
-        <v>145.1599999999999</v>
+        <v>144.8949999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,38 +888,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>143</v>
+      </c>
+      <c r="C15" t="n">
         <v>142.9</v>
       </c>
-      <c r="C15" t="n">
-        <v>140.1</v>
-      </c>
       <c r="D15" t="n">
+        <v>143</v>
+      </c>
+      <c r="E15" t="n">
         <v>142.9</v>
       </c>
-      <c r="E15" t="n">
-        <v>140.1</v>
-      </c>
       <c r="F15" t="n">
-        <v>3243.3212</v>
+        <v>8345.9858</v>
       </c>
       <c r="G15" t="n">
-        <v>145.3283333333332</v>
+        <v>145.1599999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>142.9</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -929,38 +923,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>142</v>
+        <v>142.9</v>
       </c>
       <c r="C16" t="n">
-        <v>141</v>
+        <v>140.1</v>
       </c>
       <c r="D16" t="n">
-        <v>142</v>
+        <v>142.9</v>
       </c>
       <c r="E16" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="F16" t="n">
-        <v>2735.0457</v>
+        <v>3243.3212</v>
       </c>
       <c r="G16" t="n">
-        <v>145.4799999999999</v>
+        <v>145.3283333333332</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>140.1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -970,38 +958,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>142</v>
+      </c>
+      <c r="C17" t="n">
         <v>141</v>
-      </c>
-      <c r="C17" t="n">
-        <v>142</v>
       </c>
       <c r="D17" t="n">
         <v>142</v>
       </c>
       <c r="E17" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" t="n">
-        <v>3979.0508</v>
+        <v>2735.0457</v>
       </c>
       <c r="G17" t="n">
-        <v>145.6483333333332</v>
+        <v>145.4799999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>141</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1011,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>141</v>
+      </c>
+      <c r="C18" t="n">
         <v>142</v>
       </c>
-      <c r="C18" t="n">
-        <v>142.9</v>
-      </c>
       <c r="D18" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" t="n">
-        <v>9966.646000000001</v>
+        <v>3979.0508</v>
       </c>
       <c r="G18" t="n">
-        <v>145.8316666666666</v>
+        <v>145.6483333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1036,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>143.9</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n">
-        <v>143.9</v>
+        <v>142.9</v>
       </c>
       <c r="D19" t="n">
-        <v>143.9</v>
+        <v>143</v>
       </c>
       <c r="E19" t="n">
-        <v>141.1</v>
+        <v>142</v>
       </c>
       <c r="F19" t="n">
-        <v>15264.21015163308</v>
+        <v>9966.646000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>146.0299999999999</v>
+        <v>145.8316666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1089,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>142.9</v>
+        <v>143.9</v>
       </c>
       <c r="C20" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="D20" t="n">
         <v>143.9</v>
       </c>
       <c r="E20" t="n">
-        <v>140.2</v>
+        <v>141.1</v>
       </c>
       <c r="F20" t="n">
-        <v>2990.5973</v>
+        <v>15264.21015163308</v>
       </c>
       <c r="G20" t="n">
-        <v>146.1633333333332</v>
+        <v>146.0299999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1114,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1128,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>141</v>
+      </c>
+      <c r="D21" t="n">
         <v>143.9</v>
       </c>
-      <c r="C21" t="n">
-        <v>144</v>
-      </c>
-      <c r="D21" t="n">
-        <v>144</v>
-      </c>
       <c r="E21" t="n">
-        <v>141.1</v>
+        <v>140.2</v>
       </c>
       <c r="F21" t="n">
-        <v>11602.62424836692</v>
+        <v>2990.5973</v>
       </c>
       <c r="G21" t="n">
-        <v>146.3116666666666</v>
+        <v>146.1633333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1153,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1167,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>144.9</v>
+        <v>143.9</v>
       </c>
       <c r="C22" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" t="n">
-        <v>144.9</v>
+        <v>141.1</v>
       </c>
       <c r="F22" t="n">
-        <v>4102.9362</v>
+        <v>11602.62424836692</v>
       </c>
       <c r="G22" t="n">
-        <v>146.4949999999999</v>
+        <v>146.3116666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1192,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1215,13 +1177,13 @@
         <v>145</v>
       </c>
       <c r="E23" t="n">
-        <v>141.1</v>
+        <v>144.9</v>
       </c>
       <c r="F23" t="n">
-        <v>6047.952</v>
+        <v>4102.9362</v>
       </c>
       <c r="G23" t="n">
-        <v>146.5949999999999</v>
+        <v>146.4949999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1231,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1245,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>145</v>
+        <v>144.9</v>
       </c>
       <c r="C24" t="n">
         <v>145</v>
@@ -1254,13 +1212,13 @@
         <v>145</v>
       </c>
       <c r="E24" t="n">
-        <v>145</v>
+        <v>141.1</v>
       </c>
       <c r="F24" t="n">
-        <v>3.6088</v>
+        <v>6047.952</v>
       </c>
       <c r="G24" t="n">
-        <v>146.7449999999999</v>
+        <v>146.5949999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1270,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1287,19 +1241,19 @@
         <v>145</v>
       </c>
       <c r="C25" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" t="n">
         <v>145</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F25" t="n">
-        <v>1503.6105</v>
+        <v>3.6088</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8283333333332</v>
+        <v>146.7449999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1309,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1323,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C26" t="n">
         <v>144</v>
       </c>
       <c r="D26" t="n">
+        <v>145</v>
+      </c>
+      <c r="E26" t="n">
         <v>144</v>
       </c>
-      <c r="E26" t="n">
-        <v>143</v>
-      </c>
       <c r="F26" t="n">
-        <v>1440.1685</v>
+        <v>1503.6105</v>
       </c>
       <c r="G26" t="n">
-        <v>146.6783333333332</v>
+        <v>146.8283333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1348,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1362,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>142.2</v>
+        <v>143</v>
       </c>
       <c r="C27" t="n">
         <v>144</v>
@@ -1371,29 +1317,23 @@
         <v>144</v>
       </c>
       <c r="E27" t="n">
-        <v>142.2</v>
+        <v>143</v>
       </c>
       <c r="F27" t="n">
-        <v>15.2649</v>
+        <v>1440.1685</v>
       </c>
       <c r="G27" t="n">
-        <v>146.5299999999999</v>
+        <v>146.6783333333332</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>144</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>144</v>
+        <v>142.2</v>
       </c>
       <c r="C28" t="n">
         <v>144</v>
@@ -1412,13 +1352,13 @@
         <v>144</v>
       </c>
       <c r="E28" t="n">
-        <v>144</v>
+        <v>142.2</v>
       </c>
       <c r="F28" t="n">
-        <v>42</v>
+        <v>15.2649</v>
       </c>
       <c r="G28" t="n">
-        <v>146.3816666666666</v>
+        <v>146.5299999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1428,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1442,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="C29" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D29" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="E29" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F29" t="n">
-        <v>4608.6873</v>
+        <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>146.3766666666666</v>
+        <v>146.3816666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1467,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1481,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C30" t="n">
         <v>142</v>
       </c>
-      <c r="C30" t="n">
-        <v>140.1</v>
-      </c>
       <c r="D30" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E30" t="n">
         <v>142</v>
       </c>
-      <c r="E30" t="n">
-        <v>140.1</v>
-      </c>
       <c r="F30" t="n">
-        <v>14981.83575163308</v>
+        <v>4608.6873</v>
       </c>
       <c r="G30" t="n">
-        <v>146.2699999999999</v>
+        <v>146.3766666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1506,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1520,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>142</v>
+      </c>
+      <c r="C31" t="n">
         <v>140.1</v>
       </c>
-      <c r="C31" t="n">
-        <v>140.9</v>
-      </c>
       <c r="D31" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="F31" t="n">
-        <v>29313.1763</v>
+        <v>14981.83575163308</v>
       </c>
       <c r="G31" t="n">
-        <v>146.0899999999999</v>
+        <v>146.2699999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1545,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1559,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>141</v>
+      </c>
+      <c r="E32" t="n">
         <v>140</v>
       </c>
-      <c r="C32" t="n">
-        <v>136.3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>140</v>
-      </c>
-      <c r="E32" t="n">
-        <v>136.3</v>
-      </c>
       <c r="F32" t="n">
-        <v>8105.5516</v>
+        <v>29313.1763</v>
       </c>
       <c r="G32" t="n">
-        <v>145.8783333333332</v>
+        <v>146.0899999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1584,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1601,35 +1521,29 @@
         <v>140</v>
       </c>
       <c r="C33" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="D33" t="n">
         <v>140</v>
       </c>
       <c r="E33" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="F33" t="n">
-        <v>11304.7844</v>
+        <v>8105.5516</v>
       </c>
       <c r="G33" t="n">
-        <v>145.7216666666666</v>
+        <v>145.8783333333332</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>136.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1639,38 +1553,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" t="n">
-        <v>139.9</v>
+        <v>137</v>
       </c>
       <c r="D34" t="n">
         <v>140</v>
       </c>
       <c r="E34" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" t="n">
-        <v>9540.160099999999</v>
+        <v>11304.7844</v>
       </c>
       <c r="G34" t="n">
-        <v>145.5366666666665</v>
+        <v>145.7216666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>137</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1680,38 +1588,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C35" t="n">
-        <v>136.3</v>
+        <v>139.9</v>
       </c>
       <c r="D35" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E35" t="n">
-        <v>136.3</v>
+        <v>138</v>
       </c>
       <c r="F35" t="n">
-        <v>13948.9349</v>
+        <v>9540.160099999999</v>
       </c>
       <c r="G35" t="n">
-        <v>145.3749999999999</v>
+        <v>145.5366666666665</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>139.9</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1724,35 +1626,29 @@
         <v>137</v>
       </c>
       <c r="C36" t="n">
-        <v>138.8</v>
+        <v>136.3</v>
       </c>
       <c r="D36" t="n">
-        <v>139.8</v>
+        <v>137</v>
       </c>
       <c r="E36" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="F36" t="n">
-        <v>16745.4922</v>
+        <v>13948.9349</v>
       </c>
       <c r="G36" t="n">
-        <v>145.3383333333332</v>
+        <v>145.3749999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>136.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1762,38 +1658,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>138.8</v>
+        <v>137</v>
       </c>
       <c r="C37" t="n">
         <v>138.8</v>
       </c>
       <c r="D37" t="n">
-        <v>138.8</v>
+        <v>139.8</v>
       </c>
       <c r="E37" t="n">
-        <v>138.8</v>
+        <v>137</v>
       </c>
       <c r="F37" t="n">
-        <v>8945.4573</v>
+        <v>16745.4922</v>
       </c>
       <c r="G37" t="n">
-        <v>145.2349999999998</v>
+        <v>145.3383333333332</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>138.8</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1803,38 +1693,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>138</v>
+        <v>138.8</v>
       </c>
       <c r="C38" t="n">
-        <v>138</v>
+        <v>138.8</v>
       </c>
       <c r="D38" t="n">
-        <v>138</v>
+        <v>138.8</v>
       </c>
       <c r="E38" t="n">
-        <v>138</v>
+        <v>138.8</v>
       </c>
       <c r="F38" t="n">
-        <v>1340.9062</v>
+        <v>8945.4573</v>
       </c>
       <c r="G38" t="n">
-        <v>145.0516666666665</v>
+        <v>145.2349999999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>138.8</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1856,26 +1740,20 @@
         <v>138</v>
       </c>
       <c r="F39" t="n">
-        <v>1928.6782</v>
+        <v>1340.9062</v>
       </c>
       <c r="G39" t="n">
-        <v>144.7183333333332</v>
+        <v>145.0516666666665</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>138</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1891,32 +1769,26 @@
         <v>138</v>
       </c>
       <c r="D40" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" t="n">
         <v>138</v>
       </c>
       <c r="F40" t="n">
-        <v>12189.4992</v>
+        <v>1928.6782</v>
       </c>
       <c r="G40" t="n">
-        <v>144.3516666666665</v>
+        <v>144.7183333333332</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>138</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1932,32 +1804,26 @@
         <v>138</v>
       </c>
       <c r="D41" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E41" t="n">
         <v>138</v>
       </c>
       <c r="F41" t="n">
-        <v>830</v>
+        <v>12189.4992</v>
       </c>
       <c r="G41" t="n">
-        <v>144.1016666666665</v>
+        <v>144.3516666666665</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>138</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1979,26 +1845,20 @@
         <v>138</v>
       </c>
       <c r="F42" t="n">
-        <v>1418.3363</v>
+        <v>830</v>
       </c>
       <c r="G42" t="n">
-        <v>143.7533333333332</v>
+        <v>144.1016666666665</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>138</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2008,38 +1868,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" t="n">
-        <v>140.1</v>
+        <v>138</v>
       </c>
       <c r="D43" t="n">
-        <v>140.1</v>
+        <v>138</v>
       </c>
       <c r="E43" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F43" t="n">
-        <v>1070.4032</v>
+        <v>1418.3363</v>
       </c>
       <c r="G43" t="n">
-        <v>143.4383333333332</v>
+        <v>143.7533333333332</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>138</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2049,38 +1903,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>140.9</v>
+        <v>140</v>
       </c>
       <c r="C44" t="n">
-        <v>141</v>
+        <v>140.1</v>
       </c>
       <c r="D44" t="n">
-        <v>141</v>
+        <v>140.1</v>
       </c>
       <c r="E44" t="n">
-        <v>140.1</v>
+        <v>140</v>
       </c>
       <c r="F44" t="n">
-        <v>2735.068</v>
+        <v>1070.4032</v>
       </c>
       <c r="G44" t="n">
-        <v>143.1733333333332</v>
+        <v>143.4383333333332</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>140.1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2090,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="C45" t="n">
         <v>141</v>
       </c>
       <c r="D45" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" t="n">
         <v>140.1</v>
       </c>
       <c r="F45" t="n">
-        <v>5100.625</v>
+        <v>2735.068</v>
       </c>
       <c r="G45" t="n">
-        <v>142.9716666666665</v>
+        <v>143.1733333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2115,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2132,19 +1976,19 @@
         <v>141</v>
       </c>
       <c r="C46" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" t="n">
         <v>142</v>
       </c>
       <c r="E46" t="n">
-        <v>141</v>
+        <v>140.1</v>
       </c>
       <c r="F46" t="n">
-        <v>581.0743</v>
+        <v>5100.625</v>
       </c>
       <c r="G46" t="n">
-        <v>142.7066666666665</v>
+        <v>142.9716666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2154,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2168,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47" t="n">
-        <v>146.8</v>
+        <v>142</v>
       </c>
       <c r="D47" t="n">
-        <v>146.8</v>
+        <v>142</v>
       </c>
       <c r="E47" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F47" t="n">
-        <v>2996.713</v>
+        <v>581.0743</v>
       </c>
       <c r="G47" t="n">
-        <v>142.6866666666665</v>
+        <v>142.7066666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2193,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2207,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" t="n">
-        <v>144.9</v>
+        <v>146.8</v>
       </c>
       <c r="D48" t="n">
-        <v>145.7</v>
+        <v>146.8</v>
       </c>
       <c r="E48" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F48" t="n">
-        <v>5102.245141180508</v>
+        <v>2996.713</v>
       </c>
       <c r="G48" t="n">
-        <v>142.5083333333332</v>
+        <v>142.6866666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2232,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2246,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" t="n">
-        <v>143</v>
+        <v>144.9</v>
       </c>
       <c r="D49" t="n">
-        <v>143</v>
+        <v>145.7</v>
       </c>
       <c r="E49" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F49" t="n">
-        <v>1098.9508</v>
+        <v>5102.245141180508</v>
       </c>
       <c r="G49" t="n">
-        <v>142.4749999999999</v>
+        <v>142.5083333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2271,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2297,10 +2125,10 @@
         <v>143</v>
       </c>
       <c r="F50" t="n">
-        <v>208.6545</v>
+        <v>1098.9508</v>
       </c>
       <c r="G50" t="n">
-        <v>142.3749999999999</v>
+        <v>142.4749999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2310,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2324,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>143.1</v>
+        <v>143</v>
       </c>
       <c r="C51" t="n">
-        <v>143.1</v>
+        <v>143</v>
       </c>
       <c r="D51" t="n">
-        <v>143.1</v>
+        <v>143</v>
       </c>
       <c r="E51" t="n">
-        <v>143.1</v>
+        <v>143</v>
       </c>
       <c r="F51" t="n">
-        <v>1084.4192</v>
+        <v>208.6545</v>
       </c>
       <c r="G51" t="n">
-        <v>142.2766666666665</v>
+        <v>142.3749999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2349,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2363,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="C52" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="D52" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="E52" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="F52" t="n">
-        <v>2936.8788</v>
+        <v>1084.4192</v>
       </c>
       <c r="G52" t="n">
-        <v>142.2099999999999</v>
+        <v>142.2766666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2388,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2414,10 +2230,10 @@
         <v>143</v>
       </c>
       <c r="F53" t="n">
-        <v>80.94</v>
+        <v>2936.8788</v>
       </c>
       <c r="G53" t="n">
-        <v>142.1933333333332</v>
+        <v>142.2099999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2427,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2441,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="C54" t="n">
-        <v>145.9</v>
+        <v>143</v>
       </c>
       <c r="D54" t="n">
-        <v>145.9</v>
+        <v>143</v>
       </c>
       <c r="E54" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="F54" t="n">
-        <v>7245.681</v>
+        <v>80.94</v>
       </c>
       <c r="G54" t="n">
-        <v>142.2416666666665</v>
+        <v>142.1933333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2466,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2480,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="C55" t="n">
         <v>145.9</v>
-      </c>
-      <c r="C55" t="n">
-        <v>144</v>
       </c>
       <c r="D55" t="n">
         <v>145.9</v>
       </c>
       <c r="E55" t="n">
-        <v>144</v>
+        <v>143.8</v>
       </c>
       <c r="F55" t="n">
-        <v>2094.68</v>
+        <v>7245.681</v>
       </c>
       <c r="G55" t="n">
-        <v>142.2716666666665</v>
+        <v>142.2416666666665</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2505,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2519,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="C56" t="n">
         <v>144</v>
       </c>
-      <c r="C56" t="n">
-        <v>143</v>
-      </c>
       <c r="D56" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="E56" t="n">
         <v>144</v>
       </c>
-      <c r="E56" t="n">
-        <v>143</v>
-      </c>
       <c r="F56" t="n">
-        <v>2756.483</v>
+        <v>2094.68</v>
       </c>
       <c r="G56" t="n">
-        <v>142.2866666666665</v>
+        <v>142.2716666666665</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2544,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2558,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>145.9</v>
+        <v>144</v>
       </c>
       <c r="C57" t="n">
+        <v>143</v>
+      </c>
+      <c r="D57" t="n">
         <v>144</v>
-      </c>
-      <c r="D57" t="n">
-        <v>145.9</v>
       </c>
       <c r="E57" t="n">
         <v>143</v>
       </c>
       <c r="F57" t="n">
-        <v>6394.4897</v>
+        <v>2756.483</v>
       </c>
       <c r="G57" t="n">
-        <v>142.3049999999998</v>
+        <v>142.2866666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2583,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2597,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>144</v>
+        <v>145.9</v>
       </c>
       <c r="C58" t="n">
         <v>144</v>
       </c>
       <c r="D58" t="n">
-        <v>144</v>
+        <v>145.9</v>
       </c>
       <c r="E58" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F58" t="n">
-        <v>36.1325</v>
+        <v>6394.4897</v>
       </c>
       <c r="G58" t="n">
-        <v>142.2749999999998</v>
+        <v>142.3049999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2622,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2639,19 +2431,19 @@
         <v>144</v>
       </c>
       <c r="C59" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="n">
-        <v>148.8</v>
+        <v>144</v>
       </c>
       <c r="E59" t="n">
         <v>144</v>
       </c>
       <c r="F59" t="n">
-        <v>2097.7033</v>
+        <v>36.1325</v>
       </c>
       <c r="G59" t="n">
-        <v>142.2833333333332</v>
+        <v>142.2749999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2661,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2675,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" t="n">
         <v>145</v>
       </c>
       <c r="D60" t="n">
-        <v>145</v>
+        <v>148.8</v>
       </c>
       <c r="E60" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" t="n">
-        <v>723.1676</v>
+        <v>2097.7033</v>
       </c>
       <c r="G60" t="n">
-        <v>142.2749999999998</v>
+        <v>142.2833333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2700,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2717,19 +2501,19 @@
         <v>145</v>
       </c>
       <c r="C61" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D61" t="n">
         <v>145</v>
       </c>
       <c r="E61" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F61" t="n">
-        <v>2500</v>
+        <v>723.1676</v>
       </c>
       <c r="G61" t="n">
-        <v>142.2233333333332</v>
+        <v>142.2749999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2739,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2753,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>147.9</v>
+        <v>145</v>
       </c>
       <c r="C62" t="n">
-        <v>148.2</v>
+        <v>143</v>
       </c>
       <c r="D62" t="n">
-        <v>148.7</v>
+        <v>145</v>
       </c>
       <c r="E62" t="n">
-        <v>147.9</v>
+        <v>143</v>
       </c>
       <c r="F62" t="n">
-        <v>13361.7751</v>
+        <v>2500</v>
       </c>
       <c r="G62" t="n">
-        <v>142.3583333333332</v>
+        <v>142.2233333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2778,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2792,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>144.1</v>
+        <v>147.9</v>
       </c>
       <c r="C63" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E63" t="n">
         <v>147.9</v>
       </c>
-      <c r="D63" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>143.1</v>
-      </c>
       <c r="F63" t="n">
-        <v>4987.3719</v>
+        <v>13361.7751</v>
       </c>
       <c r="G63" t="n">
-        <v>142.4399999999999</v>
+        <v>142.3583333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2817,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2831,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>145</v>
+        <v>144.1</v>
       </c>
       <c r="C64" t="n">
-        <v>145</v>
+        <v>147.9</v>
       </c>
       <c r="D64" t="n">
-        <v>145</v>
+        <v>147.9</v>
       </c>
       <c r="E64" t="n">
-        <v>145</v>
+        <v>143.1</v>
       </c>
       <c r="F64" t="n">
-        <v>656.4378</v>
+        <v>4987.3719</v>
       </c>
       <c r="G64" t="n">
-        <v>142.5183333333332</v>
+        <v>142.4399999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2856,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2870,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>147.7</v>
+        <v>145</v>
       </c>
       <c r="C65" t="n">
-        <v>147.7</v>
+        <v>145</v>
       </c>
       <c r="D65" t="n">
-        <v>147.7</v>
+        <v>145</v>
       </c>
       <c r="E65" t="n">
-        <v>147.7</v>
+        <v>145</v>
       </c>
       <c r="F65" t="n">
-        <v>82.7367</v>
+        <v>656.4378</v>
       </c>
       <c r="G65" t="n">
-        <v>142.5983333333332</v>
+        <v>142.5183333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2895,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2909,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>146</v>
+        <v>147.7</v>
       </c>
       <c r="C66" t="n">
-        <v>146</v>
+        <v>147.7</v>
       </c>
       <c r="D66" t="n">
-        <v>146</v>
+        <v>147.7</v>
       </c>
       <c r="E66" t="n">
-        <v>145</v>
+        <v>147.7</v>
       </c>
       <c r="F66" t="n">
-        <v>4264.4398</v>
+        <v>82.7367</v>
       </c>
       <c r="G66" t="n">
-        <v>142.6649999999999</v>
+        <v>142.5983333333332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2934,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2954,16 +2714,16 @@
         <v>146</v>
       </c>
       <c r="D67" t="n">
-        <v>147.9</v>
+        <v>146</v>
       </c>
       <c r="E67" t="n">
-        <v>145.9</v>
+        <v>145</v>
       </c>
       <c r="F67" t="n">
-        <v>5714.5624</v>
+        <v>4264.4398</v>
       </c>
       <c r="G67" t="n">
-        <v>142.7316666666665</v>
+        <v>142.6649999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2973,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2987,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" t="n">
-        <v>146.1</v>
+        <v>146</v>
       </c>
       <c r="D68" t="n">
-        <v>147.8</v>
+        <v>147.9</v>
       </c>
       <c r="E68" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="F68" t="n">
-        <v>3409.113879025711</v>
+        <v>5714.5624</v>
       </c>
       <c r="G68" t="n">
-        <v>142.7016666666665</v>
+        <v>142.7316666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3012,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3026,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>147</v>
+      </c>
+      <c r="C69" t="n">
         <v>146.1</v>
       </c>
-      <c r="C69" t="n">
-        <v>147.6</v>
-      </c>
       <c r="D69" t="n">
-        <v>147.6</v>
+        <v>147.8</v>
       </c>
       <c r="E69" t="n">
-        <v>145.9</v>
+        <v>146</v>
       </c>
       <c r="F69" t="n">
-        <v>2169.447</v>
+        <v>3409.113879025711</v>
       </c>
       <c r="G69" t="n">
-        <v>142.7299999999999</v>
+        <v>142.7016666666665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3051,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3065,19 +2813,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>147.5</v>
+        <v>146.1</v>
       </c>
       <c r="C70" t="n">
-        <v>145</v>
+        <v>147.6</v>
       </c>
       <c r="D70" t="n">
         <v>147.6</v>
       </c>
       <c r="E70" t="n">
-        <v>145</v>
+        <v>145.9</v>
       </c>
       <c r="F70" t="n">
-        <v>8785.9494</v>
+        <v>2169.447</v>
       </c>
       <c r="G70" t="n">
         <v>142.7299999999999</v>
@@ -3090,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3104,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>146.9</v>
+        <v>147.5</v>
       </c>
       <c r="C71" t="n">
-        <v>146.9</v>
+        <v>145</v>
       </c>
       <c r="D71" t="n">
-        <v>146.9</v>
+        <v>147.6</v>
       </c>
       <c r="E71" t="n">
-        <v>146.9</v>
+        <v>145</v>
       </c>
       <c r="F71" t="n">
-        <v>1616.3442</v>
+        <v>8785.9494</v>
       </c>
       <c r="G71" t="n">
-        <v>142.7649999999999</v>
+        <v>142.7299999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3129,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3143,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>147</v>
+        <v>146.9</v>
       </c>
       <c r="C72" t="n">
-        <v>147</v>
+        <v>146.9</v>
       </c>
       <c r="D72" t="n">
-        <v>147</v>
+        <v>146.9</v>
       </c>
       <c r="E72" t="n">
-        <v>147</v>
+        <v>146.9</v>
       </c>
       <c r="F72" t="n">
-        <v>18.1278</v>
+        <v>1616.3442</v>
       </c>
       <c r="G72" t="n">
-        <v>142.8333333333332</v>
+        <v>142.7649999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3168,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3182,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>145.2</v>
+        <v>147</v>
       </c>
       <c r="C73" t="n">
-        <v>145.2</v>
+        <v>147</v>
       </c>
       <c r="D73" t="n">
-        <v>145.2</v>
+        <v>147</v>
       </c>
       <c r="E73" t="n">
-        <v>145.2</v>
+        <v>147</v>
       </c>
       <c r="F73" t="n">
-        <v>404.222</v>
+        <v>18.1278</v>
       </c>
       <c r="G73" t="n">
-        <v>142.8716666666666</v>
+        <v>142.8333333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3207,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3221,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>146</v>
+        <v>145.2</v>
       </c>
       <c r="C74" t="n">
-        <v>145.1</v>
+        <v>145.2</v>
       </c>
       <c r="D74" t="n">
-        <v>146</v>
+        <v>145.2</v>
       </c>
       <c r="E74" t="n">
-        <v>145.1</v>
+        <v>145.2</v>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>404.222</v>
       </c>
       <c r="G74" t="n">
-        <v>142.9083333333333</v>
+        <v>142.8716666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3246,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3260,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>145.2</v>
+        <v>146</v>
       </c>
       <c r="C75" t="n">
-        <v>145.2</v>
+        <v>145.1</v>
       </c>
       <c r="D75" t="n">
-        <v>145.2</v>
+        <v>146</v>
       </c>
       <c r="E75" t="n">
-        <v>145.2</v>
+        <v>145.1</v>
       </c>
       <c r="F75" t="n">
-        <v>991.735</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="n">
-        <v>142.9933333333333</v>
+        <v>142.9083333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3285,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3299,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>145.1</v>
+        <v>145.2</v>
       </c>
       <c r="C76" t="n">
-        <v>144</v>
+        <v>145.2</v>
       </c>
       <c r="D76" t="n">
-        <v>145.1</v>
+        <v>145.2</v>
       </c>
       <c r="E76" t="n">
-        <v>144</v>
+        <v>145.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1542.8826</v>
+        <v>991.735</v>
       </c>
       <c r="G76" t="n">
-        <v>143.0433333333333</v>
+        <v>142.9933333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3324,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="C77" t="n">
         <v>144</v>
       </c>
-      <c r="C77" t="n">
-        <v>145</v>
-      </c>
       <c r="D77" t="n">
-        <v>145</v>
+        <v>145.1</v>
       </c>
       <c r="E77" t="n">
-        <v>136.3</v>
+        <v>144</v>
       </c>
       <c r="F77" t="n">
-        <v>18460.2403</v>
+        <v>1542.8826</v>
       </c>
       <c r="G77" t="n">
-        <v>143.0933333333333</v>
+        <v>143.0433333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3363,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3377,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>138.1</v>
+        <v>144</v>
       </c>
       <c r="C78" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D78" t="n">
-        <v>138.1</v>
+        <v>145</v>
       </c>
       <c r="E78" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="F78" t="n">
-        <v>66.7093</v>
+        <v>18460.2403</v>
       </c>
       <c r="G78" t="n">
-        <v>142.9949999999999</v>
+        <v>143.0933333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3402,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3416,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>144</v>
+        <v>138.1</v>
       </c>
       <c r="C79" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D79" t="n">
-        <v>145</v>
+        <v>138.1</v>
       </c>
       <c r="E79" t="n">
-        <v>143.9</v>
+        <v>137</v>
       </c>
       <c r="F79" t="n">
-        <v>2584.2955</v>
+        <v>66.7093</v>
       </c>
       <c r="G79" t="n">
-        <v>143.0133333333333</v>
+        <v>142.9949999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3441,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3455,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>144.9</v>
+        <v>144</v>
       </c>
       <c r="C80" t="n">
         <v>145</v>
@@ -3464,13 +3172,13 @@
         <v>145</v>
       </c>
       <c r="E80" t="n">
-        <v>144.9</v>
+        <v>143.9</v>
       </c>
       <c r="F80" t="n">
-        <v>8977.004199999999</v>
+        <v>2584.2955</v>
       </c>
       <c r="G80" t="n">
-        <v>143.08</v>
+        <v>143.0133333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3480,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3494,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>143</v>
+        <v>144.9</v>
       </c>
       <c r="C81" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D81" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E81" t="n">
-        <v>143</v>
+        <v>144.9</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>8977.004199999999</v>
       </c>
       <c r="G81" t="n">
-        <v>143.0633333333333</v>
+        <v>143.08</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3519,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3533,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>138.2</v>
+        <v>143</v>
       </c>
       <c r="C82" t="n">
-        <v>138.2</v>
+        <v>143</v>
       </c>
       <c r="D82" t="n">
-        <v>138.2</v>
+        <v>143</v>
       </c>
       <c r="E82" t="n">
-        <v>138.2</v>
+        <v>143</v>
       </c>
       <c r="F82" t="n">
-        <v>1052.821</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>142.95</v>
+        <v>143.0633333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3558,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3575,16 +3271,16 @@
         <v>138.2</v>
       </c>
       <c r="C83" t="n">
-        <v>145</v>
+        <v>138.2</v>
       </c>
       <c r="D83" t="n">
-        <v>145</v>
+        <v>138.2</v>
       </c>
       <c r="E83" t="n">
         <v>138.2</v>
       </c>
       <c r="F83" t="n">
-        <v>11567.6164</v>
+        <v>1052.821</v>
       </c>
       <c r="G83" t="n">
         <v>142.95</v>
@@ -3597,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3611,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>142</v>
+        <v>138.2</v>
       </c>
       <c r="C84" t="n">
-        <v>141.9</v>
+        <v>145</v>
       </c>
       <c r="D84" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E84" t="n">
-        <v>141.9</v>
+        <v>138.2</v>
       </c>
       <c r="F84" t="n">
-        <v>6181.188</v>
+        <v>11567.6164</v>
       </c>
       <c r="G84" t="n">
-        <v>142.8983333333333</v>
+        <v>142.95</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3636,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3650,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>141.9</v>
+        <v>142</v>
       </c>
       <c r="C85" t="n">
         <v>141.9</v>
       </c>
       <c r="D85" t="n">
+        <v>142</v>
+      </c>
+      <c r="E85" t="n">
         <v>141.9</v>
       </c>
-      <c r="E85" t="n">
-        <v>140</v>
-      </c>
       <c r="F85" t="n">
-        <v>2814.2829</v>
+        <v>6181.188</v>
       </c>
       <c r="G85" t="n">
-        <v>142.8633333333333</v>
+        <v>142.8983333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3675,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3689,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>144</v>
+        <v>141.9</v>
       </c>
       <c r="C86" t="n">
-        <v>142</v>
+        <v>141.9</v>
       </c>
       <c r="D86" t="n">
-        <v>144</v>
+        <v>141.9</v>
       </c>
       <c r="E86" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F86" t="n">
-        <v>1325.1717</v>
+        <v>2814.2829</v>
       </c>
       <c r="G86" t="n">
-        <v>142.83</v>
+        <v>142.8633333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3714,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3728,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>141.8</v>
+        <v>144</v>
       </c>
       <c r="C87" t="n">
-        <v>141.8</v>
+        <v>142</v>
       </c>
       <c r="D87" t="n">
-        <v>141.8</v>
+        <v>144</v>
       </c>
       <c r="E87" t="n">
-        <v>141.8</v>
+        <v>142</v>
       </c>
       <c r="F87" t="n">
-        <v>624.371</v>
+        <v>1325.1717</v>
       </c>
       <c r="G87" t="n">
-        <v>142.7933333333333</v>
+        <v>142.83</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3753,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3767,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>140</v>
+        <v>141.8</v>
       </c>
       <c r="C88" t="n">
-        <v>140</v>
+        <v>141.8</v>
       </c>
       <c r="D88" t="n">
-        <v>140</v>
+        <v>141.8</v>
       </c>
       <c r="E88" t="n">
-        <v>139.9</v>
+        <v>141.8</v>
       </c>
       <c r="F88" t="n">
-        <v>5145.5599</v>
+        <v>624.371</v>
       </c>
       <c r="G88" t="n">
-        <v>142.7266666666666</v>
+        <v>142.7933333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3792,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3806,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>138.2</v>
+        <v>140</v>
       </c>
       <c r="C89" t="n">
+        <v>140</v>
+      </c>
+      <c r="D89" t="n">
+        <v>140</v>
+      </c>
+      <c r="E89" t="n">
         <v>139.9</v>
       </c>
-      <c r="D89" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>138.2</v>
-      </c>
       <c r="F89" t="n">
-        <v>1610.8457</v>
+        <v>5145.5599</v>
       </c>
       <c r="G89" t="n">
-        <v>142.6916666666666</v>
+        <v>142.7266666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3831,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3845,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>140</v>
+        <v>138.2</v>
       </c>
       <c r="C90" t="n">
-        <v>140</v>
+        <v>139.9</v>
       </c>
       <c r="D90" t="n">
-        <v>140</v>
+        <v>139.9</v>
       </c>
       <c r="E90" t="n">
-        <v>140</v>
+        <v>138.2</v>
       </c>
       <c r="F90" t="n">
-        <v>205.9958</v>
+        <v>1610.8457</v>
       </c>
       <c r="G90" t="n">
-        <v>142.6899999999999</v>
+        <v>142.6916666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3870,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3884,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" t="n">
-        <v>140.2</v>
+        <v>140</v>
       </c>
       <c r="D91" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" t="n">
-        <v>140.2</v>
+        <v>140</v>
       </c>
       <c r="F91" t="n">
-        <v>750</v>
+        <v>205.9958</v>
       </c>
       <c r="G91" t="n">
-        <v>142.6783333333333</v>
+        <v>142.6899999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3909,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3923,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>140.2</v>
+        <v>141</v>
       </c>
       <c r="C92" t="n">
         <v>140.2</v>
       </c>
       <c r="D92" t="n">
-        <v>140.2</v>
+        <v>141</v>
       </c>
       <c r="E92" t="n">
         <v>140.2</v>
       </c>
       <c r="F92" t="n">
-        <v>544.4734</v>
+        <v>750</v>
       </c>
       <c r="G92" t="n">
-        <v>142.7433333333333</v>
+        <v>142.6783333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3948,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3965,19 +3621,19 @@
         <v>140.2</v>
       </c>
       <c r="C93" t="n">
-        <v>140</v>
+        <v>140.2</v>
       </c>
       <c r="D93" t="n">
         <v>140.2</v>
       </c>
       <c r="E93" t="n">
-        <v>140</v>
+        <v>140.2</v>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>544.4734</v>
       </c>
       <c r="G93" t="n">
-        <v>142.7933333333333</v>
+        <v>142.7433333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3987,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4001,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>140</v>
+        <v>140.2</v>
       </c>
       <c r="C94" t="n">
         <v>140</v>
       </c>
       <c r="D94" t="n">
-        <v>140</v>
+        <v>140.2</v>
       </c>
       <c r="E94" t="n">
         <v>140</v>
       </c>
       <c r="F94" t="n">
-        <v>265.68</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>142.795</v>
+        <v>142.7933333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4026,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4040,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="C95" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="D95" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E95" t="n">
-        <v>139.9</v>
+        <v>140</v>
       </c>
       <c r="F95" t="n">
-        <v>6462.8971</v>
+        <v>265.68</v>
       </c>
       <c r="G95" t="n">
-        <v>142.875</v>
+        <v>142.795</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4065,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4079,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>143</v>
+        <v>139.9</v>
       </c>
       <c r="C96" t="n">
-        <v>143</v>
+        <v>141.1</v>
       </c>
       <c r="D96" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E96" t="n">
-        <v>143</v>
+        <v>139.9</v>
       </c>
       <c r="F96" t="n">
-        <v>1026.0139</v>
+        <v>6462.8971</v>
       </c>
       <c r="G96" t="n">
-        <v>142.945</v>
+        <v>142.875</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4104,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4118,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C97" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D97" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E97" t="n">
-        <v>141.1</v>
+        <v>143</v>
       </c>
       <c r="F97" t="n">
-        <v>2459.2454</v>
+        <v>1026.0139</v>
       </c>
       <c r="G97" t="n">
-        <v>142.9983333333334</v>
+        <v>142.945</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4143,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4166,13 +3802,13 @@
         <v>142</v>
       </c>
       <c r="E98" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="F98" t="n">
-        <v>589.7811</v>
+        <v>2459.2454</v>
       </c>
       <c r="G98" t="n">
-        <v>143.065</v>
+        <v>142.9983333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4182,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C99" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D99" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E99" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F99" t="n">
-        <v>442.3358</v>
+        <v>589.7811</v>
       </c>
       <c r="G99" t="n">
-        <v>143.115</v>
+        <v>143.065</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4221,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4247,10 +3875,10 @@
         <v>141</v>
       </c>
       <c r="F100" t="n">
-        <v>1327.0075</v>
+        <v>442.3358</v>
       </c>
       <c r="G100" t="n">
-        <v>143.165</v>
+        <v>143.115</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4260,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4274,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="C101" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="D101" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="E101" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="F101" t="n">
-        <v>434.5291</v>
+        <v>1327.0075</v>
       </c>
       <c r="G101" t="n">
-        <v>143.2466666666667</v>
+        <v>143.165</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4299,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4316,19 +3936,19 @@
         <v>142.9</v>
       </c>
       <c r="C102" t="n">
-        <v>143</v>
+        <v>142.9</v>
       </c>
       <c r="D102" t="n">
-        <v>143</v>
+        <v>142.9</v>
       </c>
       <c r="E102" t="n">
         <v>142.9</v>
       </c>
       <c r="F102" t="n">
-        <v>2363.9709</v>
+        <v>434.5291</v>
       </c>
       <c r="G102" t="n">
-        <v>143.33</v>
+        <v>143.2466666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4338,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4352,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>143</v>
+        <v>142.9</v>
       </c>
       <c r="C103" t="n">
         <v>143</v>
@@ -4361,13 +3977,13 @@
         <v>143</v>
       </c>
       <c r="E103" t="n">
-        <v>143</v>
+        <v>142.9</v>
       </c>
       <c r="F103" t="n">
-        <v>1750</v>
+        <v>2363.9709</v>
       </c>
       <c r="G103" t="n">
-        <v>143.3783333333334</v>
+        <v>143.33</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4377,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4403,10 +4015,10 @@
         <v>143</v>
       </c>
       <c r="F104" t="n">
-        <v>215.853</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="n">
-        <v>143.4116666666667</v>
+        <v>143.3783333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4416,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4430,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="C105" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="D105" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="E105" t="n">
-        <v>143.8</v>
+        <v>143</v>
       </c>
       <c r="F105" t="n">
-        <v>1500</v>
+        <v>215.853</v>
       </c>
       <c r="G105" t="n">
-        <v>143.4583333333333</v>
+        <v>143.4116666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4455,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4481,10 +4085,10 @@
         <v>143.8</v>
       </c>
       <c r="F106" t="n">
-        <v>1434.0242</v>
+        <v>1500</v>
       </c>
       <c r="G106" t="n">
-        <v>143.4883333333333</v>
+        <v>143.4583333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4494,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4508,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="C107" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="D107" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="E107" t="n">
-        <v>143</v>
+        <v>143.8</v>
       </c>
       <c r="F107" t="n">
-        <v>4158.3886</v>
+        <v>1434.0242</v>
       </c>
       <c r="G107" t="n">
-        <v>143.425</v>
+        <v>143.4883333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4533,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4559,10 +4155,10 @@
         <v>143</v>
       </c>
       <c r="F108" t="n">
-        <v>739.2551999999999</v>
+        <v>4158.3886</v>
       </c>
       <c r="G108" t="n">
-        <v>143.3933333333333</v>
+        <v>143.425</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4572,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4598,7 +4190,7 @@
         <v>143</v>
       </c>
       <c r="F109" t="n">
-        <v>1224.6473</v>
+        <v>739.2551999999999</v>
       </c>
       <c r="G109" t="n">
         <v>143.3933333333333</v>
@@ -4611,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4625,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>143.5</v>
+        <v>143</v>
       </c>
       <c r="C110" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E110" t="n">
-        <v>143.5</v>
+        <v>143</v>
       </c>
       <c r="F110" t="n">
-        <v>1447.313</v>
+        <v>1224.6473</v>
       </c>
       <c r="G110" t="n">
-        <v>143.41</v>
+        <v>143.3933333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4650,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4664,7 +4248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>144</v>
+        <v>143.5</v>
       </c>
       <c r="C111" t="n">
         <v>144</v>
@@ -4673,13 +4257,13 @@
         <v>144</v>
       </c>
       <c r="E111" t="n">
-        <v>144</v>
+        <v>143.5</v>
       </c>
       <c r="F111" t="n">
-        <v>451.6417</v>
+        <v>1447.313</v>
       </c>
       <c r="G111" t="n">
-        <v>143.425</v>
+        <v>143.41</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4689,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="C112" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="D112" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="E112" t="n">
-        <v>144.5</v>
+        <v>144</v>
       </c>
       <c r="F112" t="n">
-        <v>6.1759</v>
+        <v>451.6417</v>
       </c>
       <c r="G112" t="n">
-        <v>143.45</v>
+        <v>143.425</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4728,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4742,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>143</v>
+        <v>144.5</v>
       </c>
       <c r="C113" t="n">
-        <v>142.1</v>
+        <v>144.5</v>
       </c>
       <c r="D113" t="n">
-        <v>143</v>
+        <v>144.5</v>
       </c>
       <c r="E113" t="n">
-        <v>142.1</v>
+        <v>144.5</v>
       </c>
       <c r="F113" t="n">
-        <v>3704.4743</v>
+        <v>6.1759</v>
       </c>
       <c r="G113" t="n">
-        <v>143.435</v>
+        <v>143.45</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4767,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4781,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>142.9</v>
+        <v>143</v>
       </c>
       <c r="C114" t="n">
-        <v>142</v>
+        <v>142.1</v>
       </c>
       <c r="D114" t="n">
-        <v>142.9</v>
+        <v>143</v>
       </c>
       <c r="E114" t="n">
-        <v>142</v>
+        <v>142.1</v>
       </c>
       <c r="F114" t="n">
-        <v>8861.721600000001</v>
+        <v>3704.4743</v>
       </c>
       <c r="G114" t="n">
-        <v>143.37</v>
+        <v>143.435</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4806,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>142</v>
+        <v>142.9</v>
       </c>
       <c r="C115" t="n">
         <v>142</v>
       </c>
       <c r="D115" t="n">
-        <v>142</v>
+        <v>142.9</v>
       </c>
       <c r="E115" t="n">
         <v>142</v>
       </c>
       <c r="F115" t="n">
-        <v>2462.902</v>
+        <v>8861.721600000001</v>
       </c>
       <c r="G115" t="n">
-        <v>143.3366666666667</v>
+        <v>143.37</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4845,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4871,10 +4435,10 @@
         <v>142</v>
       </c>
       <c r="F116" t="n">
-        <v>664.1475</v>
+        <v>2462.902</v>
       </c>
       <c r="G116" t="n">
-        <v>143.32</v>
+        <v>143.3366666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4884,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4901,19 +4461,19 @@
         <v>142</v>
       </c>
       <c r="C117" t="n">
-        <v>144.5</v>
+        <v>142</v>
       </c>
       <c r="D117" t="n">
-        <v>144.5</v>
+        <v>142</v>
       </c>
       <c r="E117" t="n">
-        <v>141.1</v>
+        <v>142</v>
       </c>
       <c r="F117" t="n">
-        <v>7103.8166</v>
+        <v>664.1475</v>
       </c>
       <c r="G117" t="n">
-        <v>143.3283333333333</v>
+        <v>143.32</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4923,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4937,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>142</v>
+      </c>
+      <c r="C118" t="n">
         <v>144.5</v>
       </c>
-      <c r="C118" t="n">
-        <v>146</v>
-      </c>
       <c r="D118" t="n">
-        <v>146</v>
+        <v>144.5</v>
       </c>
       <c r="E118" t="n">
-        <v>144.5</v>
+        <v>141.1</v>
       </c>
       <c r="F118" t="n">
-        <v>5717.9488</v>
+        <v>7103.8166</v>
       </c>
       <c r="G118" t="n">
-        <v>143.3616666666667</v>
+        <v>143.3283333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4962,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4976,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="C119" t="n">
         <v>146</v>
-      </c>
-      <c r="C119" t="n">
-        <v>142.1</v>
       </c>
       <c r="D119" t="n">
         <v>146</v>
       </c>
       <c r="E119" t="n">
-        <v>142.1</v>
+        <v>144.5</v>
       </c>
       <c r="F119" t="n">
-        <v>2198.6378</v>
+        <v>5717.9488</v>
       </c>
       <c r="G119" t="n">
-        <v>143.3133333333334</v>
+        <v>143.3616666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5001,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5015,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>142.1</v>
+        <v>146</v>
       </c>
       <c r="C120" t="n">
         <v>142.1</v>
       </c>
       <c r="D120" t="n">
-        <v>142.1</v>
+        <v>146</v>
       </c>
       <c r="E120" t="n">
         <v>142.1</v>
       </c>
       <c r="F120" t="n">
-        <v>527.539</v>
+        <v>2198.6378</v>
       </c>
       <c r="G120" t="n">
-        <v>143.265</v>
+        <v>143.3133333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5040,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5057,19 +4601,19 @@
         <v>142.1</v>
       </c>
       <c r="C121" t="n">
-        <v>142</v>
+        <v>142.1</v>
       </c>
       <c r="D121" t="n">
         <v>142.1</v>
       </c>
       <c r="E121" t="n">
-        <v>142</v>
+        <v>142.1</v>
       </c>
       <c r="F121" t="n">
-        <v>521.3484999999999</v>
+        <v>527.539</v>
       </c>
       <c r="G121" t="n">
-        <v>143.2483333333334</v>
+        <v>143.265</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5079,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5093,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>143</v>
+        <v>142.1</v>
       </c>
       <c r="C122" t="n">
-        <v>141.1</v>
+        <v>142</v>
       </c>
       <c r="D122" t="n">
-        <v>143</v>
+        <v>142.1</v>
       </c>
       <c r="E122" t="n">
-        <v>141.1</v>
+        <v>142</v>
       </c>
       <c r="F122" t="n">
-        <v>600</v>
+        <v>521.3484999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>143.13</v>
+        <v>143.2483333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5118,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5132,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>141.1</v>
+        <v>143</v>
       </c>
       <c r="C123" t="n">
         <v>141.1</v>
       </c>
       <c r="D123" t="n">
-        <v>141.1</v>
+        <v>143</v>
       </c>
       <c r="E123" t="n">
         <v>141.1</v>
       </c>
       <c r="F123" t="n">
-        <v>135.2271</v>
+        <v>600</v>
       </c>
       <c r="G123" t="n">
-        <v>143.0166666666667</v>
+        <v>143.13</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5157,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5171,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>143.9</v>
+        <v>141.1</v>
       </c>
       <c r="C124" t="n">
-        <v>143.9</v>
+        <v>141.1</v>
       </c>
       <c r="D124" t="n">
-        <v>143.9</v>
+        <v>141.1</v>
       </c>
       <c r="E124" t="n">
-        <v>143.9</v>
+        <v>141.1</v>
       </c>
       <c r="F124" t="n">
-        <v>1034.482</v>
+        <v>135.2271</v>
       </c>
       <c r="G124" t="n">
-        <v>142.9983333333334</v>
+        <v>143.0166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5196,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5210,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>142.1</v>
+        <v>143.9</v>
       </c>
       <c r="C125" t="n">
-        <v>142.1</v>
+        <v>143.9</v>
       </c>
       <c r="D125" t="n">
-        <v>142.1</v>
+        <v>143.9</v>
       </c>
       <c r="E125" t="n">
-        <v>142.1</v>
+        <v>143.9</v>
       </c>
       <c r="F125" t="n">
-        <v>335.7241</v>
+        <v>1034.482</v>
       </c>
       <c r="G125" t="n">
-        <v>142.905</v>
+        <v>142.9983333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5235,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5249,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>143.9</v>
+        <v>142.1</v>
       </c>
       <c r="C126" t="n">
-        <v>144</v>
+        <v>142.1</v>
       </c>
       <c r="D126" t="n">
-        <v>144</v>
+        <v>142.1</v>
       </c>
       <c r="E126" t="n">
-        <v>143.9</v>
+        <v>142.1</v>
       </c>
       <c r="F126" t="n">
-        <v>1803.8687</v>
+        <v>335.7241</v>
       </c>
       <c r="G126" t="n">
-        <v>142.8716666666667</v>
+        <v>142.905</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5274,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5288,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="C127" t="n">
         <v>144</v>
       </c>
-      <c r="C127" t="n">
-        <v>145</v>
-      </c>
       <c r="D127" t="n">
-        <v>146.9</v>
+        <v>144</v>
       </c>
       <c r="E127" t="n">
         <v>143.9</v>
       </c>
       <c r="F127" t="n">
-        <v>17880.683</v>
+        <v>1803.8687</v>
       </c>
       <c r="G127" t="n">
-        <v>142.855</v>
+        <v>142.8716666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5313,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5327,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="C128" t="n">
         <v>145</v>
       </c>
       <c r="D128" t="n">
-        <v>145</v>
+        <v>146.9</v>
       </c>
       <c r="E128" t="n">
         <v>143.9</v>
       </c>
       <c r="F128" t="n">
-        <v>709.0038</v>
+        <v>17880.683</v>
       </c>
       <c r="G128" t="n">
-        <v>142.8366666666667</v>
+        <v>142.855</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5352,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5366,7 +4878,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>145</v>
+        <v>143.9</v>
       </c>
       <c r="C129" t="n">
         <v>145</v>
@@ -5375,13 +4887,13 @@
         <v>145</v>
       </c>
       <c r="E129" t="n">
-        <v>145</v>
+        <v>143.9</v>
       </c>
       <c r="F129" t="n">
-        <v>3469.9741</v>
+        <v>709.0038</v>
       </c>
       <c r="G129" t="n">
-        <v>142.7933333333334</v>
+        <v>142.8366666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5391,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5408,19 +4916,19 @@
         <v>145</v>
       </c>
       <c r="C130" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D130" t="n">
         <v>145</v>
       </c>
       <c r="E130" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F130" t="n">
-        <v>2110.1752</v>
+        <v>3469.9741</v>
       </c>
       <c r="G130" t="n">
-        <v>142.7766666666667</v>
+        <v>142.7933333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5430,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5444,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C131" t="n">
         <v>144</v>
       </c>
       <c r="D131" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E131" t="n">
         <v>144</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>2110.1752</v>
       </c>
       <c r="G131" t="n">
-        <v>142.7283333333334</v>
+        <v>142.7766666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5469,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5495,10 +4995,10 @@
         <v>144</v>
       </c>
       <c r="F132" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G132" t="n">
-        <v>142.6783333333333</v>
+        <v>142.7283333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5508,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5522,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>143.3</v>
+        <v>144</v>
       </c>
       <c r="C133" t="n">
-        <v>143.3</v>
+        <v>144</v>
       </c>
       <c r="D133" t="n">
-        <v>143.3</v>
+        <v>144</v>
       </c>
       <c r="E133" t="n">
-        <v>143.3</v>
+        <v>144</v>
       </c>
       <c r="F133" t="n">
-        <v>1669.6431</v>
+        <v>40</v>
       </c>
       <c r="G133" t="n">
-        <v>142.6466666666666</v>
+        <v>142.6783333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5547,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5561,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>144</v>
+        <v>143.3</v>
       </c>
       <c r="C134" t="n">
-        <v>144</v>
+        <v>143.3</v>
       </c>
       <c r="D134" t="n">
-        <v>144</v>
+        <v>143.3</v>
       </c>
       <c r="E134" t="n">
-        <v>144</v>
+        <v>143.3</v>
       </c>
       <c r="F134" t="n">
-        <v>25.9839</v>
+        <v>1669.6431</v>
       </c>
       <c r="G134" t="n">
-        <v>142.6283333333333</v>
+        <v>142.6466666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5586,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5600,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>143.1</v>
+        <v>144</v>
       </c>
       <c r="C135" t="n">
-        <v>143.1</v>
+        <v>144</v>
       </c>
       <c r="D135" t="n">
-        <v>143.1</v>
+        <v>144</v>
       </c>
       <c r="E135" t="n">
-        <v>143.1</v>
+        <v>144</v>
       </c>
       <c r="F135" t="n">
-        <v>4176.0273</v>
+        <v>25.9839</v>
       </c>
       <c r="G135" t="n">
-        <v>142.5933333333333</v>
+        <v>142.6283333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5625,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5639,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="C136" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="D136" t="n">
-        <v>143</v>
+        <v>143.1</v>
       </c>
       <c r="E136" t="n">
-        <v>142</v>
+        <v>143.1</v>
       </c>
       <c r="F136" t="n">
-        <v>5793.5885</v>
+        <v>4176.0273</v>
       </c>
       <c r="G136" t="n">
-        <v>142.5766666666667</v>
+        <v>142.5933333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5664,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5681,19 +5161,19 @@
         <v>143</v>
       </c>
       <c r="C137" t="n">
-        <v>143.1</v>
+        <v>143</v>
       </c>
       <c r="D137" t="n">
-        <v>143.1</v>
+        <v>143</v>
       </c>
       <c r="E137" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F137" t="n">
-        <v>3321.7922</v>
+        <v>5793.5885</v>
       </c>
       <c r="G137" t="n">
-        <v>142.545</v>
+        <v>142.5766666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5703,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5717,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" t="n">
-        <v>144</v>
+        <v>143.1</v>
       </c>
       <c r="D138" t="n">
-        <v>144</v>
+        <v>143.1</v>
       </c>
       <c r="E138" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F138" t="n">
-        <v>1500</v>
+        <v>3321.7922</v>
       </c>
       <c r="G138" t="n">
-        <v>142.6616666666667</v>
+        <v>142.545</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5742,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5768,10 +5240,10 @@
         <v>144</v>
       </c>
       <c r="F139" t="n">
-        <v>269.7396</v>
+        <v>1500</v>
       </c>
       <c r="G139" t="n">
-        <v>142.645</v>
+        <v>142.6616666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5781,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5795,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="C140" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="D140" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="E140" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="F140" t="n">
-        <v>778.0599999999999</v>
+        <v>269.7396</v>
       </c>
       <c r="G140" t="n">
-        <v>142.63</v>
+        <v>142.645</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5820,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5834,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>144.7</v>
+        <v>144.1</v>
       </c>
       <c r="C141" t="n">
-        <v>145</v>
+        <v>144.1</v>
       </c>
       <c r="D141" t="n">
-        <v>145</v>
+        <v>144.1</v>
       </c>
       <c r="E141" t="n">
-        <v>144.7</v>
+        <v>144.1</v>
       </c>
       <c r="F141" t="n">
-        <v>2471.1675</v>
+        <v>778.0599999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>142.6633333333333</v>
+        <v>142.63</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5859,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5873,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>145</v>
+        <v>144.7</v>
       </c>
       <c r="C142" t="n">
         <v>145</v>
@@ -5882,13 +5342,13 @@
         <v>145</v>
       </c>
       <c r="E142" t="n">
-        <v>145</v>
+        <v>144.7</v>
       </c>
       <c r="F142" t="n">
-        <v>1374.1406</v>
+        <v>2471.1675</v>
       </c>
       <c r="G142" t="n">
-        <v>142.7766666666666</v>
+        <v>142.6633333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5898,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5912,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>145.5</v>
+        <v>145</v>
       </c>
       <c r="C143" t="n">
-        <v>145.5</v>
+        <v>145</v>
       </c>
       <c r="D143" t="n">
-        <v>145.5</v>
+        <v>145</v>
       </c>
       <c r="E143" t="n">
-        <v>145.5</v>
+        <v>145</v>
       </c>
       <c r="F143" t="n">
-        <v>1667.2991</v>
+        <v>1374.1406</v>
       </c>
       <c r="G143" t="n">
-        <v>142.785</v>
+        <v>142.7766666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5937,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5954,19 +5406,19 @@
         <v>145.5</v>
       </c>
       <c r="C144" t="n">
-        <v>144.1</v>
+        <v>145.5</v>
       </c>
       <c r="D144" t="n">
         <v>145.5</v>
       </c>
       <c r="E144" t="n">
-        <v>144.1</v>
+        <v>145.5</v>
       </c>
       <c r="F144" t="n">
-        <v>2696.37</v>
+        <v>1667.2991</v>
       </c>
       <c r="G144" t="n">
-        <v>142.8216666666667</v>
+        <v>142.785</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5976,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5990,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>145</v>
+        <v>145.5</v>
       </c>
       <c r="C145" t="n">
-        <v>145</v>
+        <v>144.1</v>
       </c>
       <c r="D145" t="n">
-        <v>145</v>
+        <v>145.5</v>
       </c>
       <c r="E145" t="n">
-        <v>145</v>
+        <v>144.1</v>
       </c>
       <c r="F145" t="n">
-        <v>4</v>
+        <v>2696.37</v>
       </c>
       <c r="G145" t="n">
-        <v>142.8733333333333</v>
+        <v>142.8216666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6015,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6029,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>146.8</v>
+        <v>145</v>
       </c>
       <c r="C146" t="n">
-        <v>146.9</v>
+        <v>145</v>
       </c>
       <c r="D146" t="n">
-        <v>146.9</v>
+        <v>145</v>
       </c>
       <c r="E146" t="n">
-        <v>146.8</v>
+        <v>145</v>
       </c>
       <c r="F146" t="n">
-        <v>119.7952510551395</v>
+        <v>4</v>
       </c>
       <c r="G146" t="n">
-        <v>142.955</v>
+        <v>142.8733333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6054,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6068,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="C147" t="n">
         <v>146.9</v>
       </c>
-      <c r="C147" t="n">
-        <v>147</v>
-      </c>
       <c r="D147" t="n">
-        <v>147</v>
+        <v>146.9</v>
       </c>
       <c r="E147" t="n">
-        <v>144</v>
+        <v>146.8</v>
       </c>
       <c r="F147" t="n">
-        <v>15510.665</v>
+        <v>119.7952510551395</v>
       </c>
       <c r="G147" t="n">
-        <v>143.0416666666667</v>
+        <v>142.955</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6093,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6107,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C148" t="n">
         <v>147</v>
       </c>
-      <c r="C148" t="n">
-        <v>147.7</v>
-      </c>
       <c r="D148" t="n">
-        <v>147.8</v>
+        <v>147</v>
       </c>
       <c r="E148" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F148" t="n">
-        <v>7337.40294894486</v>
+        <v>15510.665</v>
       </c>
       <c r="G148" t="n">
-        <v>143.17</v>
+        <v>143.0416666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6132,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6146,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="n">
         <v>147.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>147.8</v>
       </c>
       <c r="D149" t="n">
         <v>147.8</v>
       </c>
       <c r="E149" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F149" t="n">
-        <v>18739.2133</v>
+        <v>7337.40294894486</v>
       </c>
       <c r="G149" t="n">
-        <v>143.3016666666667</v>
+        <v>143.17</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6171,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6185,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="C150" t="n">
         <v>147.8</v>
       </c>
-      <c r="C150" t="n">
-        <v>147.9</v>
-      </c>
       <c r="D150" t="n">
-        <v>147.9</v>
+        <v>147.8</v>
       </c>
       <c r="E150" t="n">
-        <v>147.8</v>
+        <v>146</v>
       </c>
       <c r="F150" t="n">
-        <v>10093.6106</v>
+        <v>18739.2133</v>
       </c>
       <c r="G150" t="n">
-        <v>143.4333333333333</v>
+        <v>143.3016666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6210,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6224,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>148.2</v>
+        <v>147.8</v>
       </c>
       <c r="C151" t="n">
-        <v>148.1</v>
+        <v>147.9</v>
       </c>
       <c r="D151" t="n">
-        <v>152</v>
+        <v>147.9</v>
       </c>
       <c r="E151" t="n">
         <v>147.8</v>
       </c>
       <c r="F151" t="n">
-        <v>23583.7486</v>
+        <v>10093.6106</v>
       </c>
       <c r="G151" t="n">
-        <v>143.565</v>
+        <v>143.4333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6249,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6263,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>148.5</v>
+        <v>148.2</v>
       </c>
       <c r="C152" t="n">
-        <v>151.8</v>
+        <v>148.1</v>
       </c>
       <c r="D152" t="n">
         <v>152</v>
       </c>
       <c r="E152" t="n">
-        <v>148.5</v>
+        <v>147.8</v>
       </c>
       <c r="F152" t="n">
-        <v>25698.2256</v>
+        <v>23583.7486</v>
       </c>
       <c r="G152" t="n">
-        <v>143.7583333333333</v>
+        <v>143.565</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6288,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6302,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C153" t="n">
         <v>151.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>149</v>
       </c>
       <c r="D153" t="n">
         <v>152</v>
       </c>
       <c r="E153" t="n">
-        <v>148.7</v>
+        <v>148.5</v>
       </c>
       <c r="F153" t="n">
-        <v>13139.83456382979</v>
+        <v>25698.2256</v>
       </c>
       <c r="G153" t="n">
-        <v>143.9083333333333</v>
+        <v>143.7583333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6327,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6341,59 +5753,57 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="C154" t="n">
         <v>149</v>
       </c>
-      <c r="C154" t="n">
-        <v>152.9</v>
-      </c>
       <c r="D154" t="n">
-        <v>152.9</v>
+        <v>152</v>
       </c>
       <c r="E154" t="n">
-        <v>148.9</v>
+        <v>148.7</v>
       </c>
       <c r="F154" t="n">
-        <v>8739.847139597316</v>
+        <v>13139.83456382979</v>
       </c>
       <c r="G154" t="n">
-        <v>144.1233333333333</v>
+        <v>143.9083333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>150.5</v>
+        <v>149</v>
       </c>
       <c r="C155" t="n">
-        <v>148</v>
+        <v>152.9</v>
       </c>
       <c r="D155" t="n">
-        <v>151.7</v>
+        <v>152.9</v>
       </c>
       <c r="E155" t="n">
-        <v>148</v>
+        <v>148.9</v>
       </c>
       <c r="F155" t="n">
-        <v>2669.0777</v>
+        <v>8739.847139597316</v>
       </c>
       <c r="G155" t="n">
-        <v>144.2383333333333</v>
+        <v>144.1233333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6413,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>150.6</v>
+        <v>150.5</v>
       </c>
       <c r="C156" t="n">
-        <v>150.6</v>
+        <v>148</v>
       </c>
       <c r="D156" t="n">
-        <v>150.6</v>
+        <v>151.7</v>
       </c>
       <c r="E156" t="n">
-        <v>150.6</v>
+        <v>148</v>
       </c>
       <c r="F156" t="n">
-        <v>44.5415</v>
+        <v>2669.0777</v>
       </c>
       <c r="G156" t="n">
-        <v>144.365</v>
+        <v>144.2383333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6448,28 +5858,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>150.7</v>
+        <v>150.6</v>
       </c>
       <c r="C157" t="n">
-        <v>149</v>
+        <v>150.6</v>
       </c>
       <c r="D157" t="n">
-        <v>153.9</v>
+        <v>150.6</v>
       </c>
       <c r="E157" t="n">
-        <v>149</v>
+        <v>150.6</v>
       </c>
       <c r="F157" t="n">
-        <v>1910.686289018843</v>
+        <v>44.5415</v>
       </c>
       <c r="G157" t="n">
-        <v>144.4816666666666</v>
+        <v>144.365</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6483,28 +5893,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>149</v>
+        <v>150.7</v>
       </c>
       <c r="C158" t="n">
         <v>149</v>
       </c>
       <c r="D158" t="n">
-        <v>151.8</v>
+        <v>153.9</v>
       </c>
       <c r="E158" t="n">
         <v>149</v>
       </c>
       <c r="F158" t="n">
-        <v>9120.2138</v>
+        <v>1910.686289018843</v>
       </c>
       <c r="G158" t="n">
-        <v>144.5983333333333</v>
+        <v>144.4816666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6521,19 +5931,19 @@
         <v>149</v>
       </c>
       <c r="C159" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D159" t="n">
-        <v>150</v>
+        <v>151.8</v>
       </c>
       <c r="E159" t="n">
         <v>149</v>
       </c>
       <c r="F159" t="n">
-        <v>2935.6577</v>
+        <v>9120.2138</v>
       </c>
       <c r="G159" t="n">
-        <v>144.7483333333333</v>
+        <v>144.5983333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6556,19 +5966,19 @@
         <v>149</v>
       </c>
       <c r="C160" t="n">
-        <v>152.7</v>
+        <v>150</v>
       </c>
       <c r="D160" t="n">
-        <v>152.7</v>
+        <v>150</v>
       </c>
       <c r="E160" t="n">
         <v>149</v>
       </c>
       <c r="F160" t="n">
-        <v>15499.5155</v>
+        <v>2935.6577</v>
       </c>
       <c r="G160" t="n">
-        <v>144.9433333333333</v>
+        <v>144.7483333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6591,19 +6001,19 @@
         <v>149</v>
       </c>
       <c r="C161" t="n">
-        <v>149</v>
+        <v>152.7</v>
       </c>
       <c r="D161" t="n">
-        <v>149</v>
+        <v>152.7</v>
       </c>
       <c r="E161" t="n">
         <v>149</v>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>15499.5155</v>
       </c>
       <c r="G161" t="n">
-        <v>145.045</v>
+        <v>144.9433333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6623,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>152.5</v>
+        <v>149</v>
       </c>
       <c r="C162" t="n">
         <v>149</v>
       </c>
       <c r="D162" t="n">
-        <v>152.5</v>
+        <v>149</v>
       </c>
       <c r="E162" t="n">
         <v>149</v>
       </c>
       <c r="F162" t="n">
-        <v>1088.33</v>
+        <v>500</v>
       </c>
       <c r="G162" t="n">
-        <v>145.145</v>
+        <v>145.045</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6658,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>149.1</v>
+        <v>152.5</v>
       </c>
       <c r="C163" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="D163" t="n">
-        <v>149.1</v>
+        <v>152.5</v>
       </c>
       <c r="E163" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="F163" t="n">
-        <v>1343.863</v>
+        <v>1088.33</v>
       </c>
       <c r="G163" t="n">
-        <v>145.2466666666666</v>
+        <v>145.145</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6705,16 +6115,16 @@
         <v>149.1</v>
       </c>
       <c r="F164" t="n">
-        <v>96.0125</v>
+        <v>1343.863</v>
       </c>
       <c r="G164" t="n">
-        <v>145.3483333333333</v>
+        <v>145.2466666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6728,28 +6138,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="C165" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="D165" t="n">
         <v>149.1</v>
       </c>
       <c r="E165" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="F165" t="n">
-        <v>3125.6577</v>
+        <v>96.0125</v>
       </c>
       <c r="G165" t="n">
-        <v>145.435</v>
+        <v>145.3483333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6769,22 +6179,22 @@
         <v>149</v>
       </c>
       <c r="D166" t="n">
-        <v>149</v>
+        <v>149.1</v>
       </c>
       <c r="E166" t="n">
         <v>149</v>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>3125.6577</v>
       </c>
       <c r="G166" t="n">
-        <v>145.5216666666667</v>
+        <v>145.435</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6798,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>147.8</v>
+        <v>149</v>
       </c>
       <c r="C167" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D167" t="n">
-        <v>147.8</v>
+        <v>149</v>
       </c>
       <c r="E167" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F167" t="n">
-        <v>9579.545</v>
+        <v>4</v>
       </c>
       <c r="G167" t="n">
-        <v>145.5716666666667</v>
+        <v>145.5216666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6833,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>145</v>
+        <v>147.8</v>
       </c>
       <c r="C168" t="n">
         <v>146</v>
       </c>
       <c r="D168" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="E168" t="n">
         <v>146</v>
       </c>
-      <c r="E168" t="n">
-        <v>144</v>
-      </c>
       <c r="F168" t="n">
-        <v>9771.6559</v>
+        <v>9579.545</v>
       </c>
       <c r="G168" t="n">
-        <v>145.6216666666667</v>
+        <v>145.5716666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6868,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>145</v>
+      </c>
+      <c r="C169" t="n">
+        <v>146</v>
+      </c>
+      <c r="D169" t="n">
+        <v>146</v>
+      </c>
+      <c r="E169" t="n">
         <v>144</v>
       </c>
-      <c r="C169" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>144</v>
-      </c>
-      <c r="E169" t="n">
-        <v>137.9</v>
-      </c>
       <c r="F169" t="n">
-        <v>2418.7965</v>
+        <v>9771.6559</v>
       </c>
       <c r="G169" t="n">
-        <v>145.5366666666667</v>
+        <v>145.6216666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6903,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="C170" t="n">
-        <v>143</v>
+        <v>137.9</v>
       </c>
       <c r="D170" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="E170" t="n">
-        <v>143</v>
+        <v>137.9</v>
       </c>
       <c r="F170" t="n">
-        <v>2230.353</v>
+        <v>2418.7965</v>
       </c>
       <c r="G170" t="n">
-        <v>145.52</v>
+        <v>145.5366666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6938,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>144</v>
+        <v>144.1</v>
       </c>
       <c r="C171" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D171" t="n">
-        <v>144</v>
+        <v>144.1</v>
       </c>
       <c r="E171" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F171" t="n">
-        <v>1272.2201</v>
+        <v>2230.353</v>
       </c>
       <c r="G171" t="n">
-        <v>145.4366666666667</v>
+        <v>145.52</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6973,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>142.9</v>
+        <v>144</v>
       </c>
       <c r="C172" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D172" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E172" t="n">
-        <v>137.9</v>
+        <v>139</v>
       </c>
       <c r="F172" t="n">
-        <v>3672.4355</v>
+        <v>1272.2201</v>
       </c>
       <c r="G172" t="n">
-        <v>145.4616666666667</v>
+        <v>145.4366666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7008,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>143.9</v>
+        <v>142.9</v>
       </c>
       <c r="C173" t="n">
-        <v>143.9</v>
+        <v>146</v>
       </c>
       <c r="D173" t="n">
-        <v>143.9</v>
+        <v>146</v>
       </c>
       <c r="E173" t="n">
-        <v>143.9</v>
+        <v>137.9</v>
       </c>
       <c r="F173" t="n">
-        <v>12.8823</v>
+        <v>3672.4355</v>
       </c>
       <c r="G173" t="n">
-        <v>145.4916666666667</v>
+        <v>145.4616666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7043,19 +6453,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>142</v>
+        <v>143.9</v>
       </c>
       <c r="C174" t="n">
-        <v>142</v>
+        <v>143.9</v>
       </c>
       <c r="D174" t="n">
-        <v>142</v>
+        <v>143.9</v>
       </c>
       <c r="E174" t="n">
-        <v>142</v>
+        <v>143.9</v>
       </c>
       <c r="F174" t="n">
-        <v>2394.9253</v>
+        <v>12.8823</v>
       </c>
       <c r="G174" t="n">
         <v>145.4916666666667</v>
@@ -7078,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>143.9</v>
+        <v>142</v>
       </c>
       <c r="C175" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D175" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E175" t="n">
-        <v>143.9</v>
+        <v>142</v>
       </c>
       <c r="F175" t="n">
-        <v>7408.5642</v>
+        <v>2394.9253</v>
       </c>
       <c r="G175" t="n">
-        <v>145.5583333333333</v>
+        <v>145.4916666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7113,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>146.1</v>
+        <v>143.9</v>
       </c>
       <c r="C176" t="n">
-        <v>145.1</v>
+        <v>146</v>
       </c>
       <c r="D176" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E176" t="n">
-        <v>145.1</v>
+        <v>143.9</v>
       </c>
       <c r="F176" t="n">
-        <v>14553.74074279221</v>
+        <v>7408.5642</v>
       </c>
       <c r="G176" t="n">
-        <v>145.61</v>
+        <v>145.5583333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7151,19 +6561,19 @@
         <v>146.1</v>
       </c>
       <c r="C177" t="n">
-        <v>147.9</v>
+        <v>145.1</v>
       </c>
       <c r="D177" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E177" t="n">
-        <v>146.1</v>
+        <v>145.1</v>
       </c>
       <c r="F177" t="n">
-        <v>17477.8107</v>
+        <v>14553.74074279221</v>
       </c>
       <c r="G177" t="n">
-        <v>145.6666666666667</v>
+        <v>145.61</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7183,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>148</v>
+        <v>146.1</v>
       </c>
       <c r="C178" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="D178" t="n">
         <v>149</v>
       </c>
-      <c r="D178" t="n">
-        <v>151.4</v>
-      </c>
       <c r="E178" t="n">
-        <v>140</v>
+        <v>146.1</v>
       </c>
       <c r="F178" t="n">
-        <v>22309.3551</v>
+        <v>17477.8107</v>
       </c>
       <c r="G178" t="n">
-        <v>145.7166666666667</v>
+        <v>145.6666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7221,19 +6631,19 @@
         <v>148</v>
       </c>
       <c r="C179" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D179" t="n">
-        <v>154</v>
+        <v>151.4</v>
       </c>
       <c r="E179" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F179" t="n">
-        <v>8551.032499999999</v>
+        <v>22309.3551</v>
       </c>
       <c r="G179" t="n">
-        <v>145.715</v>
+        <v>145.7166666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7253,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="C180" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D180" t="n">
-        <v>148.1</v>
+        <v>154</v>
       </c>
       <c r="E180" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F180" t="n">
-        <v>2034.488</v>
+        <v>8551.032499999999</v>
       </c>
       <c r="G180" t="n">
-        <v>145.8133333333333</v>
+        <v>145.715</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7288,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>147.9</v>
+        <v>148.1</v>
       </c>
       <c r="C181" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D181" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E181" t="n">
         <v>148</v>
       </c>
-      <c r="E181" t="n">
-        <v>145</v>
-      </c>
       <c r="F181" t="n">
-        <v>4603.6274</v>
+        <v>2034.488</v>
       </c>
       <c r="G181" t="n">
-        <v>145.8633333333333</v>
+        <v>145.8133333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7323,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>149</v>
+        <v>147.9</v>
       </c>
       <c r="C182" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D182" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E182" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F182" t="n">
-        <v>52.1762</v>
+        <v>4603.6274</v>
       </c>
       <c r="G182" t="n">
-        <v>145.995</v>
+        <v>145.8633333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7358,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>146.1</v>
+        <v>149</v>
       </c>
       <c r="C183" t="n">
-        <v>145.2</v>
+        <v>149</v>
       </c>
       <c r="D183" t="n">
-        <v>146.1</v>
+        <v>149</v>
       </c>
       <c r="E183" t="n">
-        <v>145.2</v>
+        <v>149</v>
       </c>
       <c r="F183" t="n">
-        <v>2552.4862</v>
+        <v>52.1762</v>
       </c>
       <c r="G183" t="n">
-        <v>146.0633333333333</v>
+        <v>145.995</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7393,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>145.5</v>
+        <v>146.1</v>
       </c>
       <c r="C184" t="n">
-        <v>145.4</v>
+        <v>145.2</v>
       </c>
       <c r="D184" t="n">
-        <v>145.5</v>
+        <v>146.1</v>
       </c>
       <c r="E184" t="n">
-        <v>145.4</v>
+        <v>145.2</v>
       </c>
       <c r="F184" t="n">
-        <v>500</v>
+        <v>2552.4862</v>
       </c>
       <c r="G184" t="n">
-        <v>146.0883333333333</v>
+        <v>146.0633333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7428,10 +6838,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="C185" t="n">
         <v>145.4</v>
-      </c>
-      <c r="C185" t="n">
-        <v>145.5</v>
       </c>
       <c r="D185" t="n">
         <v>145.5</v>
@@ -7440,10 +6850,10 @@
         <v>145.4</v>
       </c>
       <c r="F185" t="n">
-        <v>2814.6709</v>
+        <v>500</v>
       </c>
       <c r="G185" t="n">
-        <v>146.145</v>
+        <v>146.0883333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7463,7 +6873,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>145.2</v>
+        <v>145.4</v>
       </c>
       <c r="C186" t="n">
         <v>145.5</v>
@@ -7472,13 +6882,13 @@
         <v>145.5</v>
       </c>
       <c r="E186" t="n">
-        <v>145.2</v>
+        <v>145.4</v>
       </c>
       <c r="F186" t="n">
-        <v>1022.6732</v>
+        <v>2814.6709</v>
       </c>
       <c r="G186" t="n">
-        <v>146.17</v>
+        <v>146.145</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7498,7 +6908,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>145.5</v>
+        <v>145.2</v>
       </c>
       <c r="C187" t="n">
         <v>145.5</v>
@@ -7507,13 +6917,13 @@
         <v>145.5</v>
       </c>
       <c r="E187" t="n">
-        <v>145.5</v>
+        <v>145.2</v>
       </c>
       <c r="F187" t="n">
-        <v>3399.0469</v>
+        <v>1022.6732</v>
       </c>
       <c r="G187" t="n">
-        <v>146.1783333333333</v>
+        <v>146.17</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7533,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>145.6</v>
+        <v>145.5</v>
       </c>
       <c r="C188" t="n">
-        <v>145.6</v>
+        <v>145.5</v>
       </c>
       <c r="D188" t="n">
-        <v>145.6</v>
+        <v>145.5</v>
       </c>
       <c r="E188" t="n">
-        <v>145.6</v>
+        <v>145.5</v>
       </c>
       <c r="F188" t="n">
-        <v>1914.3647</v>
+        <v>3399.0469</v>
       </c>
       <c r="G188" t="n">
-        <v>146.1883333333333</v>
+        <v>146.1783333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7568,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>145.7</v>
+        <v>145.6</v>
       </c>
       <c r="C189" t="n">
-        <v>145.7</v>
+        <v>145.6</v>
       </c>
       <c r="D189" t="n">
-        <v>145.7</v>
+        <v>145.6</v>
       </c>
       <c r="E189" t="n">
-        <v>145.7</v>
+        <v>145.6</v>
       </c>
       <c r="F189" t="n">
-        <v>4644.0984</v>
+        <v>1914.3647</v>
       </c>
       <c r="G189" t="n">
-        <v>146.2</v>
+        <v>146.1883333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7603,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>146.9</v>
+        <v>145.7</v>
       </c>
       <c r="C190" t="n">
-        <v>146.9</v>
+        <v>145.7</v>
       </c>
       <c r="D190" t="n">
-        <v>146.9</v>
+        <v>145.7</v>
       </c>
       <c r="E190" t="n">
-        <v>146.9</v>
+        <v>145.7</v>
       </c>
       <c r="F190" t="n">
-        <v>4</v>
+        <v>4644.0984</v>
       </c>
       <c r="G190" t="n">
-        <v>146.2483333333333</v>
+        <v>146.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7638,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>146</v>
+        <v>146.9</v>
       </c>
       <c r="C191" t="n">
-        <v>148</v>
+        <v>146.9</v>
       </c>
       <c r="D191" t="n">
-        <v>148</v>
+        <v>146.9</v>
       </c>
       <c r="E191" t="n">
-        <v>146</v>
+        <v>146.9</v>
       </c>
       <c r="F191" t="n">
-        <v>3037.9385</v>
+        <v>4</v>
       </c>
       <c r="G191" t="n">
-        <v>146.315</v>
+        <v>146.2483333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7673,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C192" t="n">
+        <v>148</v>
+      </c>
+      <c r="D192" t="n">
+        <v>148</v>
+      </c>
+      <c r="E192" t="n">
         <v>146</v>
       </c>
-      <c r="D192" t="n">
-        <v>149</v>
-      </c>
-      <c r="E192" t="n">
-        <v>141.1</v>
-      </c>
       <c r="F192" t="n">
-        <v>5129.6597</v>
+        <v>3037.9385</v>
       </c>
       <c r="G192" t="n">
-        <v>146.3483333333333</v>
+        <v>146.315</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7708,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>149</v>
+      </c>
+      <c r="C193" t="n">
         <v>146</v>
       </c>
-      <c r="C193" t="n">
-        <v>147</v>
-      </c>
       <c r="D193" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E193" t="n">
-        <v>146</v>
+        <v>141.1</v>
       </c>
       <c r="F193" t="n">
-        <v>300</v>
+        <v>5129.6597</v>
       </c>
       <c r="G193" t="n">
-        <v>146.41</v>
+        <v>146.3483333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7743,7 +7153,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C194" t="n">
         <v>147</v>
@@ -7752,13 +7162,13 @@
         <v>147</v>
       </c>
       <c r="E194" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F194" t="n">
-        <v>328.8328</v>
+        <v>300</v>
       </c>
       <c r="G194" t="n">
-        <v>146.46</v>
+        <v>146.41</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7778,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>143</v>
+      </c>
+      <c r="C195" t="n">
         <v>147</v>
       </c>
-      <c r="C195" t="n">
-        <v>148</v>
-      </c>
       <c r="D195" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E195" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F195" t="n">
-        <v>50.6364</v>
+        <v>328.8328</v>
       </c>
       <c r="G195" t="n">
-        <v>146.5416666666667</v>
+        <v>146.46</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7816,19 +7226,19 @@
         <v>147</v>
       </c>
       <c r="C196" t="n">
+        <v>148</v>
+      </c>
+      <c r="D196" t="n">
+        <v>148</v>
+      </c>
+      <c r="E196" t="n">
         <v>147</v>
       </c>
-      <c r="D196" t="n">
-        <v>147</v>
-      </c>
-      <c r="E196" t="n">
-        <v>145</v>
-      </c>
       <c r="F196" t="n">
-        <v>2314.06</v>
+        <v>50.6364</v>
       </c>
       <c r="G196" t="n">
-        <v>146.6083333333333</v>
+        <v>146.5416666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7857,13 +7267,13 @@
         <v>147</v>
       </c>
       <c r="E197" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F197" t="n">
-        <v>628.8261</v>
+        <v>2314.06</v>
       </c>
       <c r="G197" t="n">
-        <v>146.6733333333333</v>
+        <v>146.6083333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7895,10 +7305,10 @@
         <v>147</v>
       </c>
       <c r="F198" t="n">
-        <v>4.1285</v>
+        <v>628.8261</v>
       </c>
       <c r="G198" t="n">
-        <v>146.7233333333333</v>
+        <v>146.6733333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7918,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="C199" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="D199" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="E199" t="n">
-        <v>147.9</v>
+        <v>147</v>
       </c>
       <c r="F199" t="n">
-        <v>4</v>
+        <v>4.1285</v>
       </c>
       <c r="G199" t="n">
-        <v>146.7883333333333</v>
+        <v>146.7233333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7953,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>146.8</v>
+        <v>147.9</v>
       </c>
       <c r="C200" t="n">
-        <v>146.8</v>
+        <v>147.9</v>
       </c>
       <c r="D200" t="n">
-        <v>146.8</v>
+        <v>147.9</v>
       </c>
       <c r="E200" t="n">
-        <v>146.8</v>
+        <v>147.9</v>
       </c>
       <c r="F200" t="n">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="G200" t="n">
-        <v>146.8333333333333</v>
+        <v>146.7883333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7988,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>148</v>
+        <v>146.8</v>
       </c>
       <c r="C201" t="n">
-        <v>148</v>
+        <v>146.8</v>
       </c>
       <c r="D201" t="n">
-        <v>148</v>
+        <v>146.8</v>
       </c>
       <c r="E201" t="n">
-        <v>148</v>
+        <v>146.8</v>
       </c>
       <c r="F201" t="n">
-        <v>4.3636</v>
+        <v>246</v>
       </c>
       <c r="G201" t="n">
-        <v>146.8833333333333</v>
+        <v>146.8333333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8023,19 +7433,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C202" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D202" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E202" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F202" t="n">
-        <v>1720</v>
+        <v>4.3636</v>
       </c>
       <c r="G202" t="n">
         <v>146.8833333333333</v>
@@ -8058,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C203" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D203" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E203" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F203" t="n">
-        <v>4</v>
+        <v>1720</v>
       </c>
       <c r="G203" t="n">
-        <v>146.9083333333333</v>
+        <v>146.8833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8108,7 +7518,7 @@
         <v>4</v>
       </c>
       <c r="G204" t="n">
-        <v>146.9566666666666</v>
+        <v>146.9083333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8128,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="C205" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="D205" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="E205" t="n">
-        <v>146.1</v>
+        <v>147</v>
       </c>
       <c r="F205" t="n">
-        <v>173.047</v>
+        <v>4</v>
       </c>
       <c r="G205" t="n">
-        <v>146.975</v>
+        <v>146.9566666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8175,10 +7585,10 @@
         <v>146.1</v>
       </c>
       <c r="F206" t="n">
-        <v>1000</v>
+        <v>173.047</v>
       </c>
       <c r="G206" t="n">
-        <v>146.9616666666666</v>
+        <v>146.975</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8198,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>147</v>
+        <v>146.1</v>
       </c>
       <c r="C207" t="n">
-        <v>148.5</v>
+        <v>146.1</v>
       </c>
       <c r="D207" t="n">
-        <v>148.5</v>
+        <v>146.1</v>
       </c>
       <c r="E207" t="n">
-        <v>141.1</v>
+        <v>146.1</v>
       </c>
       <c r="F207" t="n">
-        <v>13594.756</v>
+        <v>1000</v>
       </c>
       <c r="G207" t="n">
-        <v>146.9866666666667</v>
+        <v>146.9616666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8233,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>145.1</v>
+        <v>147</v>
       </c>
       <c r="C208" t="n">
-        <v>145.1</v>
+        <v>148.5</v>
       </c>
       <c r="D208" t="n">
-        <v>145.1</v>
+        <v>148.5</v>
       </c>
       <c r="E208" t="n">
-        <v>145.1</v>
+        <v>141.1</v>
       </c>
       <c r="F208" t="n">
-        <v>1023.432</v>
+        <v>13594.756</v>
       </c>
       <c r="G208" t="n">
-        <v>146.9433333333333</v>
+        <v>146.9866666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8271,19 +7681,19 @@
         <v>145.1</v>
       </c>
       <c r="C209" t="n">
-        <v>141</v>
+        <v>145.1</v>
       </c>
       <c r="D209" t="n">
         <v>145.1</v>
       </c>
       <c r="E209" t="n">
-        <v>141</v>
+        <v>145.1</v>
       </c>
       <c r="F209" t="n">
-        <v>21610.7937</v>
+        <v>1023.432</v>
       </c>
       <c r="G209" t="n">
-        <v>146.83</v>
+        <v>146.9433333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8303,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>145.9</v>
+        <v>145.1</v>
       </c>
       <c r="C210" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D210" t="n">
-        <v>146</v>
+        <v>145.1</v>
       </c>
       <c r="E210" t="n">
-        <v>145.9</v>
+        <v>141</v>
       </c>
       <c r="F210" t="n">
-        <v>8</v>
+        <v>21610.7937</v>
       </c>
       <c r="G210" t="n">
-        <v>146.7983333333333</v>
+        <v>146.83</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8341,19 +7751,19 @@
         <v>145.9</v>
       </c>
       <c r="C211" t="n">
-        <v>142.1</v>
+        <v>146</v>
       </c>
       <c r="D211" t="n">
+        <v>146</v>
+      </c>
+      <c r="E211" t="n">
         <v>145.9</v>
       </c>
-      <c r="E211" t="n">
-        <v>142.1</v>
-      </c>
       <c r="F211" t="n">
-        <v>3402.2234</v>
+        <v>8</v>
       </c>
       <c r="G211" t="n">
-        <v>146.6983333333333</v>
+        <v>146.7983333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8373,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>142.2</v>
+        <v>145.9</v>
       </c>
       <c r="C212" t="n">
-        <v>149</v>
+        <v>142.1</v>
       </c>
       <c r="D212" t="n">
-        <v>149</v>
+        <v>145.9</v>
       </c>
       <c r="E212" t="n">
         <v>142.1</v>
       </c>
       <c r="F212" t="n">
-        <v>30465.2144</v>
+        <v>3402.2234</v>
       </c>
       <c r="G212" t="n">
-        <v>146.6516666666667</v>
+        <v>146.6983333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8408,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C213" t="n">
         <v>149</v>
       </c>
-      <c r="C213" t="n">
-        <v>148</v>
-      </c>
       <c r="D213" t="n">
-        <v>149.9</v>
+        <v>149</v>
       </c>
       <c r="E213" t="n">
-        <v>147</v>
+        <v>142.1</v>
       </c>
       <c r="F213" t="n">
-        <v>12906.9273</v>
+        <v>30465.2144</v>
       </c>
       <c r="G213" t="n">
-        <v>146.635</v>
+        <v>146.6516666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8443,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>149</v>
+      </c>
+      <c r="C214" t="n">
         <v>148</v>
       </c>
-      <c r="C214" t="n">
-        <v>147</v>
-      </c>
       <c r="D214" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="E214" t="n">
         <v>147</v>
       </c>
       <c r="F214" t="n">
-        <v>2047.78</v>
+        <v>12906.9273</v>
       </c>
       <c r="G214" t="n">
-        <v>146.5366666666667</v>
+        <v>146.635</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8478,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>148</v>
+      </c>
+      <c r="C215" t="n">
         <v>147</v>
       </c>
-      <c r="C215" t="n">
-        <v>147.1</v>
-      </c>
       <c r="D215" t="n">
-        <v>147.1</v>
+        <v>148</v>
       </c>
       <c r="E215" t="n">
         <v>147</v>
       </c>
       <c r="F215" t="n">
-        <v>1000</v>
+        <v>2047.78</v>
       </c>
       <c r="G215" t="n">
-        <v>146.5216666666667</v>
+        <v>146.5366666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8513,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>146.8</v>
+        <v>147</v>
       </c>
       <c r="C216" t="n">
-        <v>146.8</v>
+        <v>147.1</v>
       </c>
       <c r="D216" t="n">
-        <v>146.8</v>
+        <v>147.1</v>
       </c>
       <c r="E216" t="n">
-        <v>146.8</v>
+        <v>147</v>
       </c>
       <c r="F216" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G216" t="n">
-        <v>146.4583333333333</v>
+        <v>146.5216666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8548,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>143.1</v>
+        <v>146.8</v>
       </c>
       <c r="C217" t="n">
-        <v>146.9</v>
+        <v>146.8</v>
       </c>
       <c r="D217" t="n">
-        <v>146.9</v>
+        <v>146.8</v>
       </c>
       <c r="E217" t="n">
-        <v>143.1</v>
+        <v>146.8</v>
       </c>
       <c r="F217" t="n">
-        <v>1085.6794</v>
+        <v>250</v>
       </c>
       <c r="G217" t="n">
-        <v>146.4233333333333</v>
+        <v>146.4583333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8583,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C218" t="n">
         <v>146.9</v>
       </c>
-      <c r="C218" t="n">
-        <v>147</v>
-      </c>
       <c r="D218" t="n">
-        <v>147</v>
+        <v>146.9</v>
       </c>
       <c r="E218" t="n">
-        <v>146.9</v>
+        <v>143.1</v>
       </c>
       <c r="F218" t="n">
-        <v>21638.1207</v>
+        <v>1085.6794</v>
       </c>
       <c r="G218" t="n">
-        <v>146.39</v>
+        <v>146.4233333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8618,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>147.1</v>
+        <v>146.9</v>
       </c>
       <c r="C219" t="n">
-        <v>147.1</v>
+        <v>147</v>
       </c>
       <c r="D219" t="n">
-        <v>147.2</v>
+        <v>147</v>
       </c>
       <c r="E219" t="n">
-        <v>147.1</v>
+        <v>146.9</v>
       </c>
       <c r="F219" t="n">
-        <v>2940.9591</v>
+        <v>21638.1207</v>
       </c>
       <c r="G219" t="n">
-        <v>146.3416666666667</v>
+        <v>146.39</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8653,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="C220" t="n">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="D220" t="n">
         <v>147.2</v>
       </c>
       <c r="E220" t="n">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="F220" t="n">
-        <v>895.6116</v>
+        <v>2940.9591</v>
       </c>
       <c r="G220" t="n">
-        <v>146.25</v>
+        <v>146.3416666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8691,19 +8101,19 @@
         <v>147.2</v>
       </c>
       <c r="C221" t="n">
-        <v>150.9</v>
+        <v>147.2</v>
       </c>
       <c r="D221" t="n">
-        <v>150.9</v>
+        <v>147.2</v>
       </c>
       <c r="E221" t="n">
-        <v>147.1</v>
+        <v>147.2</v>
       </c>
       <c r="F221" t="n">
-        <v>4760.426552617628</v>
+        <v>895.6116</v>
       </c>
       <c r="G221" t="n">
-        <v>146.2816666666667</v>
+        <v>146.25</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8726,19 +8136,19 @@
         <v>147.2</v>
       </c>
       <c r="C222" t="n">
-        <v>147.2</v>
+        <v>150.9</v>
       </c>
       <c r="D222" t="n">
-        <v>147.2</v>
+        <v>150.9</v>
       </c>
       <c r="E222" t="n">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="F222" t="n">
-        <v>235.338</v>
+        <v>4760.426552617628</v>
       </c>
       <c r="G222" t="n">
-        <v>146.2516666666667</v>
+        <v>146.2816666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8761,19 +8171,19 @@
         <v>147.2</v>
       </c>
       <c r="C223" t="n">
-        <v>149.9</v>
+        <v>147.2</v>
       </c>
       <c r="D223" t="n">
-        <v>149.9</v>
+        <v>147.2</v>
       </c>
       <c r="E223" t="n">
-        <v>147.1</v>
+        <v>147.2</v>
       </c>
       <c r="F223" t="n">
-        <v>12103.3167</v>
+        <v>235.338</v>
       </c>
       <c r="G223" t="n">
-        <v>146.265</v>
+        <v>146.2516666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8793,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E224" t="n">
         <v>147.1</v>
       </c>
-      <c r="C224" t="n">
-        <v>147</v>
-      </c>
-      <c r="D224" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="E224" t="n">
-        <v>147</v>
-      </c>
       <c r="F224" t="n">
-        <v>9478.184300000001</v>
+        <v>12103.3167</v>
       </c>
       <c r="G224" t="n">
-        <v>146.23</v>
+        <v>146.265</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8828,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>144</v>
+        <v>147.1</v>
       </c>
       <c r="C225" t="n">
-        <v>151.8</v>
+        <v>147</v>
       </c>
       <c r="D225" t="n">
-        <v>151.8</v>
+        <v>147.1</v>
       </c>
       <c r="E225" t="n">
-        <v>143.9</v>
+        <v>147</v>
       </c>
       <c r="F225" t="n">
-        <v>68101.0184</v>
+        <v>9478.184300000001</v>
       </c>
       <c r="G225" t="n">
-        <v>146.2766666666666</v>
+        <v>146.23</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8863,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>148.1</v>
+        <v>144</v>
       </c>
       <c r="C226" t="n">
-        <v>148.9</v>
+        <v>151.8</v>
       </c>
       <c r="D226" t="n">
-        <v>148.9</v>
+        <v>151.8</v>
       </c>
       <c r="E226" t="n">
-        <v>148.1</v>
+        <v>143.9</v>
       </c>
       <c r="F226" t="n">
-        <v>15847.7276</v>
+        <v>68101.0184</v>
       </c>
       <c r="G226" t="n">
-        <v>146.275</v>
+        <v>146.2766666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8898,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C227" t="n">
         <v>148.9</v>
       </c>
-      <c r="C227" t="n">
-        <v>145</v>
-      </c>
       <c r="D227" t="n">
-        <v>151.6</v>
+        <v>148.9</v>
       </c>
       <c r="E227" t="n">
-        <v>145</v>
+        <v>148.1</v>
       </c>
       <c r="F227" t="n">
-        <v>1575.5064</v>
+        <v>15847.7276</v>
       </c>
       <c r="G227" t="n">
-        <v>146.2583333333333</v>
+        <v>146.275</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8933,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>149.9</v>
+        <v>148.9</v>
       </c>
       <c r="C228" t="n">
-        <v>149.9</v>
+        <v>145</v>
       </c>
       <c r="D228" t="n">
-        <v>149.9</v>
+        <v>151.6</v>
       </c>
       <c r="E228" t="n">
-        <v>149.9</v>
+        <v>145</v>
       </c>
       <c r="F228" t="n">
-        <v>18.01200800533689</v>
+        <v>1575.5064</v>
       </c>
       <c r="G228" t="n">
-        <v>146.3233333333333</v>
+        <v>146.2583333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8968,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="C229" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="D229" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="E229" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="F229" t="n">
-        <v>393.5662</v>
+        <v>18.01200800533689</v>
       </c>
       <c r="G229" t="n">
-        <v>146.5083333333333</v>
+        <v>146.3233333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9003,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>150.9</v>
+        <v>149</v>
       </c>
       <c r="C230" t="n">
         <v>149</v>
       </c>
       <c r="D230" t="n">
-        <v>150.9</v>
+        <v>149</v>
       </c>
       <c r="E230" t="n">
         <v>149</v>
       </c>
       <c r="F230" t="n">
-        <v>1913.481</v>
+        <v>393.5662</v>
       </c>
       <c r="G230" t="n">
-        <v>146.6083333333333</v>
+        <v>146.5083333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9038,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="C231" t="n">
-        <v>149.1</v>
+        <v>149</v>
       </c>
       <c r="D231" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
       <c r="E231" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F231" t="n">
-        <v>506.586</v>
+        <v>1913.481</v>
       </c>
       <c r="G231" t="n">
-        <v>146.7766666666666</v>
+        <v>146.6083333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9073,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C232" t="n">
-        <v>150</v>
+        <v>149.1</v>
       </c>
       <c r="D232" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E232" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F232" t="n">
-        <v>20.0146</v>
+        <v>506.586</v>
       </c>
       <c r="G232" t="n">
-        <v>146.8433333333333</v>
+        <v>146.7766666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9111,19 +8521,19 @@
         <v>150</v>
       </c>
       <c r="C233" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D233" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E233" t="n">
         <v>150</v>
       </c>
       <c r="F233" t="n">
-        <v>1212.57883576159</v>
+        <v>20.0146</v>
       </c>
       <c r="G233" t="n">
-        <v>146.9616666666666</v>
+        <v>146.8433333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9143,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>149.2</v>
+        <v>150</v>
       </c>
       <c r="C234" t="n">
-        <v>149.2</v>
+        <v>151</v>
       </c>
       <c r="D234" t="n">
-        <v>149.2</v>
+        <v>151</v>
       </c>
       <c r="E234" t="n">
-        <v>149.2</v>
+        <v>150</v>
       </c>
       <c r="F234" t="n">
-        <v>1096.3598</v>
+        <v>1212.57883576159</v>
       </c>
       <c r="G234" t="n">
-        <v>147.0816666666666</v>
+        <v>146.9616666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9181,19 +8591,19 @@
         <v>149.2</v>
       </c>
       <c r="C235" t="n">
-        <v>147</v>
+        <v>149.2</v>
       </c>
       <c r="D235" t="n">
         <v>149.2</v>
       </c>
       <c r="E235" t="n">
-        <v>147</v>
+        <v>149.2</v>
       </c>
       <c r="F235" t="n">
-        <v>7369.1719</v>
+        <v>1096.3598</v>
       </c>
       <c r="G235" t="n">
-        <v>147.0983333333333</v>
+        <v>147.0816666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9213,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>148</v>
+        <v>149.2</v>
       </c>
       <c r="C236" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D236" t="n">
-        <v>148</v>
+        <v>149.2</v>
       </c>
       <c r="E236" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F236" t="n">
-        <v>2608.1817</v>
+        <v>7369.1719</v>
       </c>
       <c r="G236" t="n">
-        <v>147.1466666666666</v>
+        <v>147.0983333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9260,10 +8670,10 @@
         <v>148</v>
       </c>
       <c r="F237" t="n">
-        <v>235.0492</v>
+        <v>2608.1817</v>
       </c>
       <c r="G237" t="n">
-        <v>147.1483333333333</v>
+        <v>147.1466666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9295,10 +8705,10 @@
         <v>148</v>
       </c>
       <c r="F238" t="n">
-        <v>3822.3175</v>
+        <v>235.0492</v>
       </c>
       <c r="G238" t="n">
-        <v>147.1316666666667</v>
+        <v>147.1483333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9321,19 +8731,19 @@
         <v>148</v>
       </c>
       <c r="C239" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D239" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E239" t="n">
         <v>148</v>
       </c>
       <c r="F239" t="n">
-        <v>2516.9834</v>
+        <v>3822.3175</v>
       </c>
       <c r="G239" t="n">
-        <v>147.2483333333333</v>
+        <v>147.1316666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9353,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="C240" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D240" t="n">
-        <v>148.1</v>
+        <v>149</v>
       </c>
       <c r="E240" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F240" t="n">
-        <v>3770.7858</v>
+        <v>2516.9834</v>
       </c>
       <c r="G240" t="n">
-        <v>147.2316666666667</v>
+        <v>147.2483333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9388,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="C241" t="n">
         <v>147</v>
       </c>
       <c r="D241" t="n">
-        <v>147</v>
+        <v>148.1</v>
       </c>
       <c r="E241" t="n">
         <v>147</v>
       </c>
       <c r="F241" t="n">
-        <v>5034.4574</v>
+        <v>3770.7858</v>
       </c>
       <c r="G241" t="n">
-        <v>147.265</v>
+        <v>147.2316666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9435,10 +8845,10 @@
         <v>147</v>
       </c>
       <c r="F242" t="n">
-        <v>232</v>
+        <v>5034.4574</v>
       </c>
       <c r="G242" t="n">
-        <v>147.2316666666667</v>
+        <v>147.265</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9461,19 +8871,19 @@
         <v>147</v>
       </c>
       <c r="C243" t="n">
-        <v>149.9</v>
+        <v>147</v>
       </c>
       <c r="D243" t="n">
-        <v>149.9</v>
+        <v>147</v>
       </c>
       <c r="E243" t="n">
         <v>147</v>
       </c>
       <c r="F243" t="n">
-        <v>985.4443</v>
+        <v>232</v>
       </c>
       <c r="G243" t="n">
-        <v>147.31</v>
+        <v>147.2316666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9496,19 +8906,19 @@
         <v>147</v>
       </c>
       <c r="C244" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="D244" t="n">
-        <v>149</v>
+        <v>149.9</v>
       </c>
       <c r="E244" t="n">
         <v>147</v>
       </c>
       <c r="F244" t="n">
-        <v>1573.578</v>
+        <v>985.4443</v>
       </c>
       <c r="G244" t="n">
-        <v>147.37</v>
+        <v>147.31</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9528,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>148.5</v>
+        <v>147</v>
       </c>
       <c r="C245" t="n">
-        <v>148.5</v>
+        <v>149</v>
       </c>
       <c r="D245" t="n">
-        <v>148.5</v>
+        <v>149</v>
       </c>
       <c r="E245" t="n">
-        <v>148.5</v>
+        <v>147</v>
       </c>
       <c r="F245" t="n">
-        <v>7421.2818</v>
+        <v>1573.578</v>
       </c>
       <c r="G245" t="n">
-        <v>147.42</v>
+        <v>147.37</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9563,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>149</v>
+        <v>148.5</v>
       </c>
       <c r="C246" t="n">
         <v>148.5</v>
       </c>
       <c r="D246" t="n">
-        <v>151</v>
+        <v>148.5</v>
       </c>
       <c r="E246" t="n">
         <v>148.5</v>
       </c>
       <c r="F246" t="n">
-        <v>12810.0639</v>
+        <v>7421.2818</v>
       </c>
       <c r="G246" t="n">
-        <v>147.47</v>
+        <v>147.42</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9598,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>151.6</v>
+        <v>149</v>
       </c>
       <c r="C247" t="n">
-        <v>149.2</v>
+        <v>148.5</v>
       </c>
       <c r="D247" t="n">
-        <v>151.6</v>
+        <v>151</v>
       </c>
       <c r="E247" t="n">
         <v>148.5</v>
       </c>
       <c r="F247" t="n">
-        <v>11854.6518</v>
+        <v>12810.0639</v>
       </c>
       <c r="G247" t="n">
-        <v>147.5316666666667</v>
+        <v>147.47</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9633,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>149.1</v>
+        <v>151.6</v>
       </c>
       <c r="C248" t="n">
-        <v>150</v>
+        <v>149.2</v>
       </c>
       <c r="D248" t="n">
-        <v>150</v>
+        <v>151.6</v>
       </c>
       <c r="E248" t="n">
-        <v>149.1</v>
+        <v>148.5</v>
       </c>
       <c r="F248" t="n">
-        <v>1004</v>
+        <v>11854.6518</v>
       </c>
       <c r="G248" t="n">
-        <v>147.605</v>
+        <v>147.5316666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9668,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="C249" t="n">
         <v>150</v>
-      </c>
-      <c r="C249" t="n">
-        <v>149.1</v>
       </c>
       <c r="D249" t="n">
         <v>150</v>
       </c>
       <c r="E249" t="n">
-        <v>148.5</v>
+        <v>149.1</v>
       </c>
       <c r="F249" t="n">
-        <v>4668.6701</v>
+        <v>1004</v>
       </c>
       <c r="G249" t="n">
-        <v>147.6616666666667</v>
+        <v>147.605</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9712,13 +9122,13 @@
         <v>150</v>
       </c>
       <c r="E250" t="n">
-        <v>149.1</v>
+        <v>148.5</v>
       </c>
       <c r="F250" t="n">
-        <v>213.1819</v>
+        <v>4668.6701</v>
       </c>
       <c r="G250" t="n">
-        <v>147.6983333333333</v>
+        <v>147.6616666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9738,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>149.9</v>
+        <v>150</v>
       </c>
       <c r="C251" t="n">
-        <v>149.9</v>
+        <v>149.1</v>
       </c>
       <c r="D251" t="n">
-        <v>149.9</v>
+        <v>150</v>
       </c>
       <c r="E251" t="n">
-        <v>149.9</v>
+        <v>149.1</v>
       </c>
       <c r="F251" t="n">
-        <v>500</v>
+        <v>213.1819</v>
       </c>
       <c r="G251" t="n">
-        <v>147.73</v>
+        <v>147.6983333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9776,19 +9186,19 @@
         <v>149.9</v>
       </c>
       <c r="C252" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="D252" t="n">
         <v>149.9</v>
       </c>
       <c r="E252" t="n">
-        <v>148</v>
+        <v>149.9</v>
       </c>
       <c r="F252" t="n">
-        <v>4613.4011</v>
+        <v>500</v>
       </c>
       <c r="G252" t="n">
-        <v>147.7633333333333</v>
+        <v>147.73</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9808,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>148.1</v>
+        <v>149.9</v>
       </c>
       <c r="C253" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D253" t="n">
-        <v>150</v>
+        <v>149.9</v>
       </c>
       <c r="E253" t="n">
-        <v>148.1</v>
+        <v>148</v>
       </c>
       <c r="F253" t="n">
-        <v>7873.8503</v>
+        <v>4613.4011</v>
       </c>
       <c r="G253" t="n">
-        <v>147.8133333333333</v>
+        <v>147.7633333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9843,7 +9253,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>150</v>
+        <v>148.1</v>
       </c>
       <c r="C254" t="n">
         <v>150</v>
@@ -9852,13 +9262,13 @@
         <v>150</v>
       </c>
       <c r="E254" t="n">
-        <v>150</v>
+        <v>148.1</v>
       </c>
       <c r="F254" t="n">
-        <v>25.7428</v>
+        <v>7873.8503</v>
       </c>
       <c r="G254" t="n">
-        <v>147.8633333333333</v>
+        <v>147.8133333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9890,10 +9300,10 @@
         <v>150</v>
       </c>
       <c r="F255" t="n">
-        <v>1766.4953</v>
+        <v>25.7428</v>
       </c>
       <c r="G255" t="n">
-        <v>147.8966666666666</v>
+        <v>147.8633333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9925,10 +9335,10 @@
         <v>150</v>
       </c>
       <c r="F256" t="n">
-        <v>100</v>
+        <v>1766.4953</v>
       </c>
       <c r="G256" t="n">
-        <v>147.9466666666667</v>
+        <v>147.8966666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9954,16 +9364,16 @@
         <v>150</v>
       </c>
       <c r="D257" t="n">
-        <v>150.3</v>
+        <v>150</v>
       </c>
       <c r="E257" t="n">
         <v>150</v>
       </c>
       <c r="F257" t="n">
-        <v>2966</v>
+        <v>100</v>
       </c>
       <c r="G257" t="n">
-        <v>147.9966666666666</v>
+        <v>147.9466666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9986,19 +9396,19 @@
         <v>150</v>
       </c>
       <c r="C258" t="n">
-        <v>149.2</v>
+        <v>150</v>
       </c>
       <c r="D258" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="E258" t="n">
         <v>150</v>
       </c>
-      <c r="E258" t="n">
-        <v>149.2</v>
-      </c>
       <c r="F258" t="n">
-        <v>6046.8807</v>
+        <v>2966</v>
       </c>
       <c r="G258" t="n">
-        <v>148.0333333333333</v>
+        <v>147.9966666666666</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10018,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>150</v>
+      </c>
+      <c r="C259" t="n">
         <v>149.2</v>
       </c>
-      <c r="C259" t="n">
-        <v>150.5</v>
-      </c>
       <c r="D259" t="n">
-        <v>150.5</v>
+        <v>150</v>
       </c>
       <c r="E259" t="n">
-        <v>146</v>
+        <v>149.2</v>
       </c>
       <c r="F259" t="n">
-        <v>7826.8174</v>
+        <v>6046.8807</v>
       </c>
       <c r="G259" t="n">
-        <v>148.0766666666667</v>
+        <v>148.0333333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10053,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>150.3</v>
+        <v>149.2</v>
       </c>
       <c r="C260" t="n">
-        <v>150.3</v>
+        <v>150.5</v>
       </c>
       <c r="D260" t="n">
-        <v>150.3</v>
+        <v>150.5</v>
       </c>
       <c r="E260" t="n">
-        <v>150.3</v>
+        <v>146</v>
       </c>
       <c r="F260" t="n">
-        <v>18980.1601</v>
+        <v>7826.8174</v>
       </c>
       <c r="G260" t="n">
-        <v>148.135</v>
+        <v>148.0766666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10088,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>150.5</v>
+        <v>150.3</v>
       </c>
       <c r="C261" t="n">
-        <v>150.5</v>
+        <v>150.3</v>
       </c>
       <c r="D261" t="n">
-        <v>150.5</v>
+        <v>150.3</v>
       </c>
       <c r="E261" t="n">
-        <v>150.5</v>
+        <v>150.3</v>
       </c>
       <c r="F261" t="n">
-        <v>842.9707</v>
+        <v>18980.1601</v>
       </c>
       <c r="G261" t="n">
-        <v>148.1766666666667</v>
+        <v>148.135</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10123,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>150.3</v>
+        <v>150.5</v>
       </c>
       <c r="C262" t="n">
-        <v>149</v>
+        <v>150.5</v>
       </c>
       <c r="D262" t="n">
-        <v>150.3</v>
+        <v>150.5</v>
       </c>
       <c r="E262" t="n">
-        <v>149</v>
+        <v>150.5</v>
       </c>
       <c r="F262" t="n">
-        <v>127.8196</v>
+        <v>842.9707</v>
       </c>
       <c r="G262" t="n">
-        <v>148.2433333333333</v>
+        <v>148.1766666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10158,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>149</v>
+        <v>150.3</v>
       </c>
       <c r="C263" t="n">
         <v>149</v>
       </c>
       <c r="D263" t="n">
-        <v>149</v>
+        <v>150.3</v>
       </c>
       <c r="E263" t="n">
         <v>149</v>
       </c>
       <c r="F263" t="n">
-        <v>1580.4506</v>
+        <v>127.8196</v>
       </c>
       <c r="G263" t="n">
-        <v>148.2766666666667</v>
+        <v>148.2433333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10193,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>147.1</v>
+        <v>149</v>
       </c>
       <c r="C264" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D264" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E264" t="n">
-        <v>147.1</v>
+        <v>149</v>
       </c>
       <c r="F264" t="n">
-        <v>1761.5326</v>
+        <v>1580.4506</v>
       </c>
       <c r="G264" t="n">
-        <v>148.2933333333334</v>
+        <v>148.2766666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10231,19 +9641,19 @@
         <v>147.1</v>
       </c>
       <c r="C265" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D265" t="n">
+        <v>148</v>
+      </c>
+      <c r="E265" t="n">
         <v>147.1</v>
       </c>
-      <c r="E265" t="n">
-        <v>147</v>
-      </c>
       <c r="F265" t="n">
-        <v>1031.0647</v>
+        <v>1761.5326</v>
       </c>
       <c r="G265" t="n">
-        <v>148.3083333333333</v>
+        <v>148.2933333333334</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10263,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C266" t="n">
         <v>147</v>
       </c>
-      <c r="C266" t="n">
-        <v>149</v>
-      </c>
       <c r="D266" t="n">
-        <v>149</v>
+        <v>147.1</v>
       </c>
       <c r="E266" t="n">
         <v>147</v>
       </c>
       <c r="F266" t="n">
-        <v>1889.509</v>
+        <v>1031.0647</v>
       </c>
       <c r="G266" t="n">
-        <v>148.3566666666667</v>
+        <v>148.3083333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10301,19 +9711,19 @@
         <v>147</v>
       </c>
       <c r="C267" t="n">
-        <v>147.9</v>
+        <v>149</v>
       </c>
       <c r="D267" t="n">
-        <v>147.9</v>
+        <v>149</v>
       </c>
       <c r="E267" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F267" t="n">
-        <v>3652.4338</v>
+        <v>1889.509</v>
       </c>
       <c r="G267" t="n">
-        <v>148.3466666666667</v>
+        <v>148.3566666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10333,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C268" t="n">
-        <v>147</v>
+        <v>147.9</v>
       </c>
       <c r="D268" t="n">
-        <v>147</v>
+        <v>147.9</v>
       </c>
       <c r="E268" t="n">
         <v>146</v>
       </c>
       <c r="F268" t="n">
-        <v>3755.4296</v>
+        <v>3652.4338</v>
       </c>
       <c r="G268" t="n">
-        <v>148.3783333333333</v>
+        <v>148.3466666666667</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10368,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C269" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D269" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E269" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F269" t="n">
-        <v>1750</v>
+        <v>3755.4296</v>
       </c>
       <c r="G269" t="n">
-        <v>148.495</v>
+        <v>148.3783333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10415,10 +9825,10 @@
         <v>148</v>
       </c>
       <c r="F270" t="n">
-        <v>418.7313</v>
+        <v>1750</v>
       </c>
       <c r="G270" t="n">
-        <v>148.5283333333333</v>
+        <v>148.495</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10441,19 +9851,19 @@
         <v>148</v>
       </c>
       <c r="C271" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D271" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E271" t="n">
         <v>148</v>
       </c>
       <c r="F271" t="n">
-        <v>2752.7976</v>
+        <v>418.7313</v>
       </c>
       <c r="G271" t="n">
-        <v>148.6766666666666</v>
+        <v>148.5283333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10473,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="C272" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D272" t="n">
-        <v>150.5</v>
+        <v>151</v>
       </c>
       <c r="E272" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F272" t="n">
-        <v>132.1022</v>
+        <v>2752.7976</v>
       </c>
       <c r="G272" t="n">
-        <v>148.6933333333333</v>
+        <v>148.6766666666666</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10508,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>150</v>
+        <v>150.5</v>
       </c>
       <c r="C273" t="n">
         <v>150</v>
       </c>
       <c r="D273" t="n">
-        <v>150</v>
+        <v>150.5</v>
       </c>
       <c r="E273" t="n">
         <v>150</v>
       </c>
       <c r="F273" t="n">
-        <v>30</v>
+        <v>132.1022</v>
       </c>
       <c r="G273" t="n">
-        <v>148.7266666666666</v>
+        <v>148.6933333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10538,6 +9948,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>150</v>
+      </c>
+      <c r="C274" t="n">
+        <v>150</v>
+      </c>
+      <c r="D274" t="n">
+        <v>150</v>
+      </c>
+      <c r="E274" t="n">
+        <v>150</v>
+      </c>
+      <c r="F274" t="n">
+        <v>30</v>
+      </c>
+      <c r="G274" t="n">
+        <v>148.7266666666666</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-13 BackTest ABT.xlsx
+++ b/BackTest/2020-01-13 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M274"/>
+  <dimension ref="A1:N284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>16628.9257</v>
       </c>
       <c r="G2" t="n">
+        <v>145.9799999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>141.5999999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>22394.9564</v>
       </c>
       <c r="G3" t="n">
+        <v>145.4533333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>141.8016666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3698.4179</v>
       </c>
       <c r="G4" t="n">
+        <v>144.6133333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>142.0516666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5885.0471</v>
       </c>
       <c r="G5" t="n">
+        <v>144.2999999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>142.2566666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>11621.7326</v>
       </c>
       <c r="G6" t="n">
+        <v>143.8933333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>142.5049999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2254</v>
       </c>
       <c r="G7" t="n">
+        <v>143.4266666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>142.7716666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>146.3956</v>
       </c>
       <c r="G8" t="n">
+        <v>143.0933333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>143.0549999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5080.8469</v>
       </c>
       <c r="G9" t="n">
+        <v>143.3533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>143.4033333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1603.077528169979</v>
       </c>
       <c r="G10" t="n">
+        <v>143.5466666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>143.7183333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>11559.1779</v>
       </c>
       <c r="G11" t="n">
+        <v>143.7333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>144.0683333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2019.756773480663</v>
       </c>
       <c r="G12" t="n">
+        <v>143.9133333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>144.3649999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5769.6625</v>
       </c>
       <c r="G13" t="n">
+        <v>143.9133333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>144.6299999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>6448.6729</v>
       </c>
       <c r="G14" t="n">
+        <v>143.7199999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>144.8949999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>8345.9858</v>
       </c>
       <c r="G15" t="n">
+        <v>143.6133333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>145.1599999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3243.3212</v>
       </c>
       <c r="G16" t="n">
+        <v>143.2533333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>145.3283333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2735.0457</v>
       </c>
       <c r="G17" t="n">
+        <v>142.9133333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>145.4799999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3979.0508</v>
       </c>
       <c r="G18" t="n">
+        <v>143.04</v>
+      </c>
+      <c r="H18" t="n">
         <v>145.6483333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>9966.646000000001</v>
       </c>
       <c r="G19" t="n">
+        <v>143.0333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>145.8316666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>15264.21015163308</v>
       </c>
       <c r="G20" t="n">
+        <v>143.2733333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>146.0299999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2990.5973</v>
       </c>
       <c r="G21" t="n">
+        <v>143.1466666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>146.1633333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>11602.62424836692</v>
       </c>
       <c r="G22" t="n">
+        <v>143.2799999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>146.3116666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>4102.9362</v>
       </c>
       <c r="G23" t="n">
+        <v>143.48</v>
+      </c>
+      <c r="H23" t="n">
         <v>146.4949999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>6047.952</v>
       </c>
       <c r="G24" t="n">
+        <v>143.2866666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>146.5949999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3.6088</v>
       </c>
       <c r="G25" t="n">
+        <v>143.2266666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>146.7449999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1503.6105</v>
       </c>
       <c r="G26" t="n">
+        <v>143.1599999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>146.8283333333332</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1440.1685</v>
       </c>
       <c r="G27" t="n">
+        <v>143.1066666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>146.6783333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>15.2649</v>
       </c>
       <c r="G28" t="n">
+        <v>143.1799999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>146.5299999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>42</v>
       </c>
       <c r="G29" t="n">
+        <v>143.2533333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>146.3816666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>4608.6873</v>
       </c>
       <c r="G30" t="n">
+        <v>143.1933333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>146.3766666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>14981.83575163308</v>
       </c>
       <c r="G31" t="n">
+        <v>143.1933333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>146.2699999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>29313.1763</v>
       </c>
       <c r="G32" t="n">
+        <v>143.1866666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>146.0899999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>8105.5516</v>
       </c>
       <c r="G33" t="n">
+        <v>142.8066666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>145.8783333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>11304.7844</v>
       </c>
       <c r="G34" t="n">
+        <v>142.4133333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>145.7216666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>9540.160099999999</v>
       </c>
       <c r="G35" t="n">
+        <v>142.1466666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>145.5366666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>13948.9349</v>
       </c>
       <c r="G36" t="n">
+        <v>141.8333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>145.3749999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>16745.4922</v>
       </c>
       <c r="G37" t="n">
+        <v>141.4866666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>145.3383333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>8945.4573</v>
       </c>
       <c r="G38" t="n">
+        <v>141.0733333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>145.2349999999998</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1340.9062</v>
       </c>
       <c r="G39" t="n">
+        <v>140.6066666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>145.0516666666665</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1928.6782</v>
       </c>
       <c r="G40" t="n">
+        <v>140.14</v>
+      </c>
+      <c r="H40" t="n">
         <v>144.7183333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>12189.4992</v>
       </c>
       <c r="G41" t="n">
+        <v>139.74</v>
+      </c>
+      <c r="H41" t="n">
         <v>144.3516666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>830</v>
       </c>
       <c r="G42" t="n">
+        <v>139.34</v>
+      </c>
+      <c r="H42" t="n">
         <v>144.1016666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1418.3363</v>
       </c>
       <c r="G43" t="n">
+        <v>138.94</v>
+      </c>
+      <c r="H43" t="n">
         <v>143.7533333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,25 @@
         <v>1070.4032</v>
       </c>
       <c r="G44" t="n">
+        <v>138.6799999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>143.4383333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>138</v>
+      </c>
+      <c r="L44" t="n">
+        <v>138</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2091,27 @@
         <v>2735.068</v>
       </c>
       <c r="G45" t="n">
+        <v>138.6133333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>143.1733333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>138</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2135,27 @@
         <v>5100.625</v>
       </c>
       <c r="G46" t="n">
+        <v>138.6733333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>142.9716666666665</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>138</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2179,21 @@
         <v>581.0743</v>
       </c>
       <c r="G47" t="n">
+        <v>138.7466666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>142.7066666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2217,21 @@
         <v>2996.713</v>
       </c>
       <c r="G48" t="n">
+        <v>139.4466666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>142.6866666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2255,21 @@
         <v>5102.245141180508</v>
       </c>
       <c r="G49" t="n">
+        <v>139.9733333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>142.5083333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2293,21 @@
         <v>1098.9508</v>
       </c>
       <c r="G50" t="n">
+        <v>140.1799999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>142.4749999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2331,21 @@
         <v>208.6545</v>
       </c>
       <c r="G51" t="n">
+        <v>140.6266666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>142.3749999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2369,21 @@
         <v>1084.4192</v>
       </c>
       <c r="G52" t="n">
+        <v>140.9133333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>142.2766666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2407,21 @@
         <v>2936.8788</v>
       </c>
       <c r="G53" t="n">
+        <v>141.1933333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>142.2099999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2445,21 @@
         <v>80.94</v>
       </c>
       <c r="G54" t="n">
+        <v>141.5266666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>142.1933333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2483,21 @@
         <v>7245.681</v>
       </c>
       <c r="G55" t="n">
+        <v>142.0533333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>142.2416666666665</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2521,27 @@
         <v>2094.68</v>
       </c>
       <c r="G56" t="n">
+        <v>142.4533333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>142.2716666666665</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2565,25 @@
         <v>2756.483</v>
       </c>
       <c r="G57" t="n">
+        <v>142.7866666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>142.2866666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2607,27 @@
         <v>6394.4897</v>
       </c>
       <c r="G58" t="n">
+        <v>143.1866666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>142.3049999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>143</v>
+      </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2651,27 @@
         <v>36.1325</v>
       </c>
       <c r="G59" t="n">
+        <v>143.4466666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>142.2749999999998</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>144</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2695,27 @@
         <v>2097.7033</v>
       </c>
       <c r="G60" t="n">
+        <v>143.7133333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>142.2833333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>144</v>
+      </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2739,27 @@
         <v>723.1676</v>
       </c>
       <c r="G61" t="n">
+        <v>143.9799999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>142.2749999999998</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>145</v>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2783,27 @@
         <v>2500</v>
       </c>
       <c r="G62" t="n">
+        <v>144.0466666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>142.2233333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>145</v>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2827,27 @@
         <v>13361.7751</v>
       </c>
       <c r="G63" t="n">
+        <v>144.1399999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>142.3583333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>143</v>
+      </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2871,25 @@
         <v>4987.3719</v>
       </c>
       <c r="G64" t="n">
+        <v>144.3399999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>142.4399999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2913,25 @@
         <v>656.4378</v>
       </c>
       <c r="G65" t="n">
+        <v>144.4733333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>142.5183333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2955,27 @@
         <v>82.7367</v>
       </c>
       <c r="G66" t="n">
+        <v>144.7866666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>142.5983333333332</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>145</v>
+      </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2999,25 @@
         <v>4264.4398</v>
       </c>
       <c r="G67" t="n">
+        <v>144.9799999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>142.6649999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3041,25 @@
         <v>5714.5624</v>
       </c>
       <c r="G68" t="n">
+        <v>145.1799999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>142.7316666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3083,25 @@
         <v>3409.113879025711</v>
       </c>
       <c r="G69" t="n">
+        <v>145.3866666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>142.7016666666665</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3125,25 @@
         <v>2169.447</v>
       </c>
       <c r="G70" t="n">
+        <v>145.4999999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>142.7299999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3167,25 @@
         <v>8785.9494</v>
       </c>
       <c r="G71" t="n">
+        <v>145.5666666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>142.7299999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3209,25 @@
         <v>1616.3442</v>
       </c>
       <c r="G72" t="n">
+        <v>145.8266666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>142.7649999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3251,25 @@
         <v>18.1278</v>
       </c>
       <c r="G73" t="n">
+        <v>146.0266666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>142.8333333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3293,25 @@
         <v>404.222</v>
       </c>
       <c r="G74" t="n">
+        <v>146.1066666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>142.8716666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3335,25 @@
         <v>3000</v>
       </c>
       <c r="G75" t="n">
+        <v>146.1133333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>142.9083333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3377,25 @@
         <v>991.735</v>
       </c>
       <c r="G76" t="n">
+        <v>146.1266666666665</v>
+      </c>
+      <c r="H76" t="n">
         <v>142.9933333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3419,25 @@
         <v>1542.8826</v>
       </c>
       <c r="G77" t="n">
+        <v>146.1933333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>143.0433333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3461,25 @@
         <v>18460.2403</v>
       </c>
       <c r="G78" t="n">
+        <v>145.9799999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>143.0933333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3503,25 @@
         <v>66.7093</v>
       </c>
       <c r="G79" t="n">
+        <v>145.2533333333332</v>
+      </c>
+      <c r="H79" t="n">
         <v>142.9949999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3545,25 @@
         <v>2584.2955</v>
       </c>
       <c r="G80" t="n">
+        <v>145.2533333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>143.0133333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3587,25 @@
         <v>8977.004199999999</v>
       </c>
       <c r="G81" t="n">
+        <v>145.0733333333332</v>
+      </c>
+      <c r="H81" t="n">
         <v>143.08</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3629,25 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
+        <v>144.8733333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>143.0633333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3671,25 @@
         <v>1052.821</v>
       </c>
       <c r="G83" t="n">
+        <v>144.3533333333332</v>
+      </c>
+      <c r="H83" t="n">
         <v>142.95</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3713,25 @@
         <v>11567.6164</v>
       </c>
       <c r="G84" t="n">
+        <v>144.2799999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>142.95</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3755,25 @@
         <v>6181.188</v>
       </c>
       <c r="G85" t="n">
+        <v>143.8999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>142.8983333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3797,25 @@
         <v>2814.2829</v>
       </c>
       <c r="G86" t="n">
+        <v>143.6933333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>142.8633333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3839,25 @@
         <v>1325.1717</v>
       </c>
       <c r="G87" t="n">
+        <v>143.3666666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>142.83</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3881,25 @@
         <v>624.371</v>
       </c>
       <c r="G88" t="n">
+        <v>143.0199999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>142.7933333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3923,25 @@
         <v>5145.5599</v>
       </c>
       <c r="G89" t="n">
+        <v>142.6733333333332</v>
+      </c>
+      <c r="H89" t="n">
         <v>142.7266666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3965,25 @@
         <v>1610.8457</v>
       </c>
       <c r="G90" t="n">
+        <v>142.3266666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>142.6916666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4007,25 @@
         <v>205.9958</v>
       </c>
       <c r="G91" t="n">
+        <v>141.9799999999999</v>
+      </c>
+      <c r="H91" t="n">
         <v>142.6899999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4049,27 @@
         <v>750</v>
       </c>
       <c r="G92" t="n">
+        <v>141.7266666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>142.6783333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>140</v>
+      </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4093,25 @@
         <v>544.4734</v>
       </c>
       <c r="G93" t="n">
+        <v>141.4066666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>142.7433333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4135,25 @@
         <v>1000</v>
       </c>
       <c r="G94" t="n">
+        <v>141.6066666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>142.7933333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4177,27 @@
         <v>265.68</v>
       </c>
       <c r="G95" t="n">
+        <v>141.2733333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>142.795</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>140</v>
+      </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4221,27 @@
         <v>6462.8971</v>
       </c>
       <c r="G96" t="n">
+        <v>141.0133333333332</v>
+      </c>
+      <c r="H96" t="n">
         <v>142.875</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>140</v>
+      </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4265,25 @@
         <v>1026.0139</v>
       </c>
       <c r="G97" t="n">
+        <v>141.0133333333332</v>
+      </c>
+      <c r="H97" t="n">
         <v>142.945</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4307,25 @@
         <v>2459.2454</v>
       </c>
       <c r="G98" t="n">
+        <v>141.2666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>142.9983333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4349,25 @@
         <v>589.7811</v>
       </c>
       <c r="G99" t="n">
+        <v>141.0666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>143.065</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4391,25 @@
         <v>442.3358</v>
       </c>
       <c r="G100" t="n">
+        <v>141.0066666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>143.115</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4433,25 @@
         <v>1327.0075</v>
       </c>
       <c r="G101" t="n">
+        <v>140.9466666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>143.165</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4475,25 @@
         <v>434.5291</v>
       </c>
       <c r="G102" t="n">
+        <v>141.0066666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>143.2466666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4517,25 @@
         <v>2363.9709</v>
       </c>
       <c r="G103" t="n">
+        <v>141.0866666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>143.33</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4559,25 @@
         <v>1750</v>
       </c>
       <c r="G104" t="n">
+        <v>141.2866666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>143.3783333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4601,25 @@
         <v>215.853</v>
       </c>
       <c r="G105" t="n">
+        <v>141.4933333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>143.4116666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4643,25 @@
         <v>1500</v>
       </c>
       <c r="G106" t="n">
+        <v>141.7466666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>143.4583333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4685,25 @@
         <v>1434.0242</v>
       </c>
       <c r="G107" t="n">
+        <v>141.9866666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>143.4883333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4727,25 @@
         <v>4158.3886</v>
       </c>
       <c r="G108" t="n">
+        <v>142.1733333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>143.425</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4769,25 @@
         <v>739.2551999999999</v>
       </c>
       <c r="G109" t="n">
+        <v>142.3733333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>143.3933333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4811,25 @@
         <v>1224.6473</v>
       </c>
       <c r="G110" t="n">
+        <v>142.5733333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>143.3933333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4853,25 @@
         <v>1447.313</v>
       </c>
       <c r="G111" t="n">
+        <v>142.7666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>143.41</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4895,25 @@
         <v>451.6417</v>
       </c>
       <c r="G112" t="n">
+        <v>142.8333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>143.425</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4937,25 @@
         <v>6.1759</v>
       </c>
       <c r="G113" t="n">
+        <v>142.9999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>143.45</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4979,25 @@
         <v>3704.4743</v>
       </c>
       <c r="G114" t="n">
+        <v>143.0066666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>143.435</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5021,27 @@
         <v>8861.721600000001</v>
       </c>
       <c r="G115" t="n">
+        <v>143.0733333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>143.37</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>142.1</v>
+      </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5065,27 @@
         <v>2462.902</v>
       </c>
       <c r="G116" t="n">
+        <v>143.1399999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>143.3366666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>142</v>
+      </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5109,27 @@
         <v>664.1475</v>
       </c>
       <c r="G117" t="n">
+        <v>143.0799999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>143.32</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>142</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5153,27 @@
         <v>7103.8166</v>
       </c>
       <c r="G118" t="n">
+        <v>143.1799999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>143.3283333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>142</v>
+      </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5197,27 @@
         <v>5717.9488</v>
       </c>
       <c r="G119" t="n">
+        <v>143.3799999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>143.3616666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>144.5</v>
+      </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5241,27 @@
         <v>2198.6378</v>
       </c>
       <c r="G120" t="n">
+        <v>143.3199999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>143.3133333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>146</v>
+      </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5285,25 @@
         <v>527.539</v>
       </c>
       <c r="G121" t="n">
+        <v>143.2066666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>143.265</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5327,27 @@
         <v>521.3484999999999</v>
       </c>
       <c r="G122" t="n">
+        <v>143.0866666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>143.2483333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>142.1</v>
+      </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5371,27 @@
         <v>600</v>
       </c>
       <c r="G123" t="n">
+        <v>142.9599999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>143.13</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>142</v>
+      </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5415,27 @@
         <v>135.2271</v>
       </c>
       <c r="G124" t="n">
+        <v>142.8333333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>143.0166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>141.1</v>
+      </c>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5459,27 @@
         <v>1034.482</v>
       </c>
       <c r="G125" t="n">
+        <v>142.8933333333332</v>
+      </c>
+      <c r="H125" t="n">
         <v>142.9983333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>141.1</v>
+      </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5503,27 @@
         <v>335.7241</v>
       </c>
       <c r="G126" t="n">
+        <v>142.7666666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>142.905</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>143.9</v>
+      </c>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5547,27 @@
         <v>1803.8687</v>
       </c>
       <c r="G127" t="n">
+        <v>142.7666666666665</v>
+      </c>
+      <c r="H127" t="n">
         <v>142.8716666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>142.1</v>
+      </c>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5591,27 @@
         <v>17880.683</v>
       </c>
       <c r="G128" t="n">
+        <v>142.7999999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>142.855</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>144</v>
+      </c>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5635,25 @@
         <v>709.0038</v>
       </c>
       <c r="G129" t="n">
+        <v>142.9933333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>142.8366666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5677,25 @@
         <v>3469.9741</v>
       </c>
       <c r="G130" t="n">
+        <v>143.1933333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>142.7933333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5719,27 @@
         <v>2110.1752</v>
       </c>
       <c r="G131" t="n">
+        <v>143.3266666666665</v>
+      </c>
+      <c r="H131" t="n">
         <v>142.7766666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>145</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5763,27 @@
         <v>20</v>
       </c>
       <c r="G132" t="n">
+        <v>143.4599999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>142.7283333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>144</v>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5807,25 @@
         <v>40</v>
       </c>
       <c r="G133" t="n">
+        <v>143.4266666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>142.6783333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5849,27 @@
         <v>1669.6431</v>
       </c>
       <c r="G134" t="n">
+        <v>143.2466666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>142.6466666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>144</v>
+      </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5893,27 @@
         <v>25.9839</v>
       </c>
       <c r="G135" t="n">
+        <v>143.3733333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>142.6283333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>143.3</v>
+      </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5937,27 @@
         <v>4176.0273</v>
       </c>
       <c r="G136" t="n">
+        <v>143.4399999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>142.5933333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>144</v>
+      </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5981,27 @@
         <v>5793.5885</v>
       </c>
       <c r="G137" t="n">
+        <v>143.5066666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>142.5766666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>143.1</v>
+      </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6025,27 @@
         <v>3321.7922</v>
       </c>
       <c r="G138" t="n">
+        <v>143.6399999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>142.545</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>143</v>
+      </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6069,27 @@
         <v>1500</v>
       </c>
       <c r="G139" t="n">
+        <v>143.8333333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>142.6616666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>143.1</v>
+      </c>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6113,27 @@
         <v>269.7396</v>
       </c>
       <c r="G140" t="n">
+        <v>143.8399999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>142.645</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>144</v>
+      </c>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6157,27 @@
         <v>778.0599999999999</v>
       </c>
       <c r="G141" t="n">
+        <v>143.9733333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>142.63</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>144</v>
+      </c>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6201,27 @@
         <v>2471.1675</v>
       </c>
       <c r="G142" t="n">
+        <v>144.0399999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>142.6633333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>144.1</v>
+      </c>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6245,27 @@
         <v>1374.1406</v>
       </c>
       <c r="G143" t="n">
+        <v>144.0399999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>142.7766666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>145</v>
+      </c>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6289,27 @@
         <v>1667.2991</v>
       </c>
       <c r="G144" t="n">
+        <v>144.0733333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>142.785</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>145</v>
+      </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6333,27 @@
         <v>2696.37</v>
       </c>
       <c r="G145" t="n">
+        <v>144.0133333333332</v>
+      </c>
+      <c r="H145" t="n">
         <v>142.8216666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>145.5</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6377,27 @@
         <v>4</v>
       </c>
       <c r="G146" t="n">
+        <v>144.0799999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>142.8733333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>144.1</v>
+      </c>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6421,27 @@
         <v>119.7952510551395</v>
       </c>
       <c r="G147" t="n">
+        <v>144.2733333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>142.955</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>145</v>
+      </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6465,27 @@
         <v>15510.665</v>
       </c>
       <c r="G148" t="n">
+        <v>144.4733333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>143.0416666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>146.9</v>
+      </c>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6509,25 @@
         <v>7337.40294894486</v>
       </c>
       <c r="G149" t="n">
+        <v>144.7666666666665</v>
+      </c>
+      <c r="H149" t="n">
         <v>143.17</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6551,25 @@
         <v>18739.2133</v>
       </c>
       <c r="G150" t="n">
+        <v>145.0199999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>143.3016666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6593,25 @@
         <v>10093.6106</v>
       </c>
       <c r="G151" t="n">
+        <v>145.3399999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>143.4333333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6635,25 @@
         <v>23583.7486</v>
       </c>
       <c r="G152" t="n">
+        <v>145.6799999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>143.565</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6677,25 @@
         <v>25698.2256</v>
       </c>
       <c r="G153" t="n">
+        <v>146.2599999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>143.7583333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6719,25 @@
         <v>13139.83456382979</v>
       </c>
       <c r="G154" t="n">
+        <v>146.5933333333332</v>
+      </c>
+      <c r="H154" t="n">
         <v>143.9083333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6761,25 @@
         <v>8739.847139597316</v>
       </c>
       <c r="G155" t="n">
+        <v>147.1866666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>144.1233333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,20 +6803,25 @@
         <v>2669.0777</v>
       </c>
       <c r="G156" t="n">
+        <v>147.4466666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>144.2383333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5873,18 +6843,21 @@
         <v>44.5415</v>
       </c>
       <c r="G157" t="n">
+        <v>147.8199999999999</v>
+      </c>
+      <c r="H157" t="n">
         <v>144.365</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6881,21 @@
         <v>1910.686289018843</v>
       </c>
       <c r="G158" t="n">
+        <v>148.0866666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>144.4816666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6919,21 @@
         <v>9120.2138</v>
       </c>
       <c r="G159" t="n">
+        <v>148.3199999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>144.5983333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6957,21 @@
         <v>2935.6577</v>
       </c>
       <c r="G160" t="n">
+        <v>148.7133333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>144.7483333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6995,21 @@
         <v>15499.5155</v>
       </c>
       <c r="G161" t="n">
+        <v>149.2266666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>144.9433333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +7033,21 @@
         <v>500</v>
       </c>
       <c r="G162" t="n">
+        <v>149.3666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>145.045</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +7071,21 @@
         <v>1088.33</v>
       </c>
       <c r="G163" t="n">
+        <v>149.4999999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>145.145</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7109,21 @@
         <v>1343.863</v>
       </c>
       <c r="G164" t="n">
+        <v>149.5933333333332</v>
+      </c>
+      <c r="H164" t="n">
         <v>145.2466666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7147,21 @@
         <v>96.0125</v>
       </c>
       <c r="G165" t="n">
+        <v>149.6799999999999</v>
+      </c>
+      <c r="H165" t="n">
         <v>145.3483333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7185,21 @@
         <v>3125.6577</v>
       </c>
       <c r="G166" t="n">
+        <v>149.7533333333332</v>
+      </c>
+      <c r="H166" t="n">
         <v>145.435</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7223,21 @@
         <v>4</v>
       </c>
       <c r="G167" t="n">
+        <v>149.8133333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>145.5216666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7261,21 @@
         <v>9579.545</v>
       </c>
       <c r="G168" t="n">
+        <v>149.4266666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>145.5716666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7299,21 @@
         <v>9771.6559</v>
       </c>
       <c r="G169" t="n">
+        <v>149.2266666666665</v>
+      </c>
+      <c r="H169" t="n">
         <v>145.6216666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7337,21 @@
         <v>2418.7965</v>
       </c>
       <c r="G170" t="n">
+        <v>148.2266666666665</v>
+      </c>
+      <c r="H170" t="n">
         <v>145.5366666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7375,21 @@
         <v>2230.353</v>
       </c>
       <c r="G171" t="n">
+        <v>147.8933333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>145.52</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7413,21 @@
         <v>1272.2201</v>
       </c>
       <c r="G172" t="n">
+        <v>147.1199999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>145.4366666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7451,21 @@
         <v>3672.4355</v>
       </c>
       <c r="G173" t="n">
+        <v>146.9199999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>145.4616666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7489,21 @@
         <v>12.8823</v>
       </c>
       <c r="G174" t="n">
+        <v>146.5799999999999</v>
+      </c>
+      <c r="H174" t="n">
         <v>145.4916666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7527,21 @@
         <v>2394.9253</v>
       </c>
       <c r="G175" t="n">
+        <v>146.0466666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>145.4916666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7565,21 @@
         <v>7408.5642</v>
       </c>
       <c r="G176" t="n">
+        <v>145.5999999999999</v>
+      </c>
+      <c r="H176" t="n">
         <v>145.5583333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7603,21 @@
         <v>14553.74074279221</v>
       </c>
       <c r="G177" t="n">
+        <v>145.3399999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>145.61</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7641,21 @@
         <v>17477.8107</v>
       </c>
       <c r="G178" t="n">
+        <v>145.2666666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>145.6666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7679,21 @@
         <v>22309.3551</v>
       </c>
       <c r="G179" t="n">
+        <v>145.2599999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>145.7166666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7717,21 @@
         <v>8551.032499999999</v>
       </c>
       <c r="G180" t="n">
+        <v>144.7866666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>145.715</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7755,21 @@
         <v>2034.488</v>
       </c>
       <c r="G181" t="n">
+        <v>144.7199999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>145.8133333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7793,21 @@
         <v>4603.6274</v>
       </c>
       <c r="G182" t="n">
+        <v>144.4533333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>145.8633333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7831,21 @@
         <v>52.1762</v>
       </c>
       <c r="G183" t="n">
+        <v>144.6533333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>145.995</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7869,21 @@
         <v>2552.4862</v>
       </c>
       <c r="G184" t="n">
+        <v>144.5999999999999</v>
+      </c>
+      <c r="H184" t="n">
         <v>146.0633333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7907,21 @@
         <v>500</v>
       </c>
       <c r="G185" t="n">
+        <v>145.0999999999999</v>
+      </c>
+      <c r="H185" t="n">
         <v>146.0883333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7945,21 @@
         <v>2814.6709</v>
       </c>
       <c r="G186" t="n">
+        <v>145.2666666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>146.145</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7983,21 @@
         <v>1022.6732</v>
       </c>
       <c r="G187" t="n">
+        <v>145.6999999999999</v>
+      </c>
+      <c r="H187" t="n">
         <v>146.17</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +8021,21 @@
         <v>3399.0469</v>
       </c>
       <c r="G188" t="n">
+        <v>145.6666666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>146.1783333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +8059,21 @@
         <v>1914.3647</v>
       </c>
       <c r="G189" t="n">
+        <v>145.7799999999999</v>
+      </c>
+      <c r="H189" t="n">
         <v>146.1883333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +8097,21 @@
         <v>4644.0984</v>
       </c>
       <c r="G190" t="n">
+        <v>146.0266666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>146.2</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +8135,21 @@
         <v>4</v>
       </c>
       <c r="G191" t="n">
+        <v>146.0866666666666</v>
+      </c>
+      <c r="H191" t="n">
         <v>146.2483333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8173,21 @@
         <v>3037.9385</v>
       </c>
       <c r="G192" t="n">
+        <v>146.2799999999999</v>
+      </c>
+      <c r="H192" t="n">
         <v>146.315</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8211,21 @@
         <v>5129.6597</v>
       </c>
       <c r="G193" t="n">
+        <v>146.1533333333332</v>
+      </c>
+      <c r="H193" t="n">
         <v>146.3483333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8249,21 @@
         <v>300</v>
       </c>
       <c r="G194" t="n">
+        <v>146.0199999999999</v>
+      </c>
+      <c r="H194" t="n">
         <v>146.41</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8287,21 @@
         <v>328.8328</v>
       </c>
       <c r="G195" t="n">
+        <v>146.3533333333332</v>
+      </c>
+      <c r="H195" t="n">
         <v>146.46</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8325,21 @@
         <v>50.6364</v>
       </c>
       <c r="G196" t="n">
+        <v>146.3533333333332</v>
+      </c>
+      <c r="H196" t="n">
         <v>146.5416666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8363,21 @@
         <v>2314.06</v>
       </c>
       <c r="G197" t="n">
+        <v>146.4866666666666</v>
+      </c>
+      <c r="H197" t="n">
         <v>146.6083333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8401,21 @@
         <v>628.8261</v>
       </c>
       <c r="G198" t="n">
+        <v>146.3533333333332</v>
+      </c>
+      <c r="H198" t="n">
         <v>146.6733333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8439,21 @@
         <v>4.1285</v>
       </c>
       <c r="G199" t="n">
+        <v>146.4733333333332</v>
+      </c>
+      <c r="H199" t="n">
         <v>146.7233333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8477,21 @@
         <v>4</v>
       </c>
       <c r="G200" t="n">
+        <v>146.6399999999999</v>
+      </c>
+      <c r="H200" t="n">
         <v>146.7883333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8515,21 @@
         <v>246</v>
       </c>
       <c r="G201" t="n">
+        <v>146.7266666666666</v>
+      </c>
+      <c r="H201" t="n">
         <v>146.8333333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8553,21 @@
         <v>4.3636</v>
       </c>
       <c r="G202" t="n">
+        <v>146.8933333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>146.8833333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8591,21 @@
         <v>1720</v>
       </c>
       <c r="G203" t="n">
+        <v>146.8599999999999</v>
+      </c>
+      <c r="H203" t="n">
         <v>146.8833333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8629,21 @@
         <v>4</v>
       </c>
       <c r="G204" t="n">
+        <v>146.9533333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>146.9083333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8667,21 @@
         <v>4</v>
       </c>
       <c r="G205" t="n">
+        <v>147.0399999999999</v>
+      </c>
+      <c r="H205" t="n">
         <v>146.9566666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8705,21 @@
         <v>173.047</v>
       </c>
       <c r="G206" t="n">
+        <v>146.9866666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>146.975</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8743,21 @@
         <v>1000</v>
       </c>
       <c r="G207" t="n">
+        <v>146.8599999999999</v>
+      </c>
+      <c r="H207" t="n">
         <v>146.9616666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8781,21 @@
         <v>13594.756</v>
       </c>
       <c r="G208" t="n">
+        <v>147.0266666666666</v>
+      </c>
+      <c r="H208" t="n">
         <v>146.9866666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8819,21 @@
         <v>1023.432</v>
       </c>
       <c r="G209" t="n">
+        <v>146.8999999999999</v>
+      </c>
+      <c r="H209" t="n">
         <v>146.9433333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8857,21 @@
         <v>21610.7937</v>
       </c>
       <c r="G210" t="n">
+        <v>146.4999999999999</v>
+      </c>
+      <c r="H210" t="n">
         <v>146.83</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8895,21 @@
         <v>8</v>
       </c>
       <c r="G211" t="n">
+        <v>146.3666666666666</v>
+      </c>
+      <c r="H211" t="n">
         <v>146.7983333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8933,21 @@
         <v>3402.2234</v>
       </c>
       <c r="G212" t="n">
+        <v>146.0399999999999</v>
+      </c>
+      <c r="H212" t="n">
         <v>146.6983333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8971,21 @@
         <v>30465.2144</v>
       </c>
       <c r="G213" t="n">
+        <v>146.1733333333332</v>
+      </c>
+      <c r="H213" t="n">
         <v>146.6516666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +9009,21 @@
         <v>12906.9273</v>
       </c>
       <c r="G214" t="n">
+        <v>146.2399999999999</v>
+      </c>
+      <c r="H214" t="n">
         <v>146.635</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +9047,21 @@
         <v>2047.78</v>
       </c>
       <c r="G215" t="n">
+        <v>146.1799999999999</v>
+      </c>
+      <c r="H215" t="n">
         <v>146.5366666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +9085,21 @@
         <v>1000</v>
       </c>
       <c r="G216" t="n">
+        <v>146.1999999999999</v>
+      </c>
+      <c r="H216" t="n">
         <v>146.5216666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +9123,21 @@
         <v>250</v>
       </c>
       <c r="G217" t="n">
+        <v>146.1199999999999</v>
+      </c>
+      <c r="H217" t="n">
         <v>146.4583333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +9161,21 @@
         <v>1085.6794</v>
       </c>
       <c r="G218" t="n">
+        <v>146.2466666666666</v>
+      </c>
+      <c r="H218" t="n">
         <v>146.4233333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +9199,21 @@
         <v>21638.1207</v>
       </c>
       <c r="G219" t="n">
+        <v>146.2466666666666</v>
+      </c>
+      <c r="H219" t="n">
         <v>146.39</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +9237,21 @@
         <v>2940.9591</v>
       </c>
       <c r="G220" t="n">
+        <v>146.2533333333332</v>
+      </c>
+      <c r="H220" t="n">
         <v>146.3416666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +9275,21 @@
         <v>895.6116</v>
       </c>
       <c r="G221" t="n">
+        <v>146.3266666666665</v>
+      </c>
+      <c r="H221" t="n">
         <v>146.25</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +9313,21 @@
         <v>4760.426552617628</v>
       </c>
       <c r="G222" t="n">
+        <v>146.6466666666666</v>
+      </c>
+      <c r="H222" t="n">
         <v>146.2816666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9351,21 @@
         <v>235.338</v>
       </c>
       <c r="G223" t="n">
+        <v>146.5599999999999</v>
+      </c>
+      <c r="H223" t="n">
         <v>146.2516666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9389,21 @@
         <v>12103.3167</v>
       </c>
       <c r="G224" t="n">
+        <v>146.8799999999999</v>
+      </c>
+      <c r="H224" t="n">
         <v>146.265</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9427,21 @@
         <v>9478.184300000001</v>
       </c>
       <c r="G225" t="n">
+        <v>147.2799999999999</v>
+      </c>
+      <c r="H225" t="n">
         <v>146.23</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9465,21 @@
         <v>68101.0184</v>
       </c>
       <c r="G226" t="n">
+        <v>147.6666666666666</v>
+      </c>
+      <c r="H226" t="n">
         <v>146.2766666666666</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9503,21 @@
         <v>15847.7276</v>
       </c>
       <c r="G227" t="n">
+        <v>148.1199999999999</v>
+      </c>
+      <c r="H227" t="n">
         <v>146.275</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9541,21 @@
         <v>1575.5064</v>
       </c>
       <c r="G228" t="n">
+        <v>147.8533333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>146.2583333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9579,21 @@
         <v>18.01200800533689</v>
       </c>
       <c r="G229" t="n">
+        <v>147.9799999999999</v>
+      </c>
+      <c r="H229" t="n">
         <v>146.3233333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9617,21 @@
         <v>393.5662</v>
       </c>
       <c r="G230" t="n">
+        <v>148.1133333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>146.5083333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9655,21 @@
         <v>1913.481</v>
       </c>
       <c r="G231" t="n">
+        <v>148.2399999999999</v>
+      </c>
+      <c r="H231" t="n">
         <v>146.6083333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9693,21 @@
         <v>506.586</v>
       </c>
       <c r="G232" t="n">
+        <v>148.3933333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>146.7766666666666</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9731,21 @@
         <v>20.0146</v>
       </c>
       <c r="G233" t="n">
+        <v>148.5999999999999</v>
+      </c>
+      <c r="H233" t="n">
         <v>146.8433333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9769,21 @@
         <v>1212.57883576159</v>
       </c>
       <c r="G234" t="n">
+        <v>148.8666666666666</v>
+      </c>
+      <c r="H234" t="n">
         <v>146.9616666666666</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9807,21 @@
         <v>1096.3598</v>
       </c>
       <c r="G235" t="n">
+        <v>149.0066666666666</v>
+      </c>
+      <c r="H235" t="n">
         <v>147.0816666666666</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9845,21 @@
         <v>7369.1719</v>
       </c>
       <c r="G236" t="n">
+        <v>148.9933333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>147.0983333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9883,21 @@
         <v>2608.1817</v>
       </c>
       <c r="G237" t="n">
+        <v>148.7999999999999</v>
+      </c>
+      <c r="H237" t="n">
         <v>147.1466666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9921,21 @@
         <v>235.0492</v>
       </c>
       <c r="G238" t="n">
+        <v>148.8533333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>147.1483333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9959,21 @@
         <v>3822.3175</v>
       </c>
       <c r="G239" t="n">
+        <v>148.7266666666666</v>
+      </c>
+      <c r="H239" t="n">
         <v>147.1316666666667</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9997,21 @@
         <v>2516.9834</v>
       </c>
       <c r="G240" t="n">
+        <v>148.8599999999999</v>
+      </c>
+      <c r="H240" t="n">
         <v>147.2483333333333</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +10035,21 @@
         <v>3770.7858</v>
       </c>
       <c r="G241" t="n">
+        <v>148.5399999999999</v>
+      </c>
+      <c r="H241" t="n">
         <v>147.2316666666667</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +10073,21 @@
         <v>5034.4574</v>
       </c>
       <c r="G242" t="n">
+        <v>148.4133333333332</v>
+      </c>
+      <c r="H242" t="n">
         <v>147.265</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +10111,21 @@
         <v>232</v>
       </c>
       <c r="G243" t="n">
+        <v>148.5466666666666</v>
+      </c>
+      <c r="H243" t="n">
         <v>147.2316666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +10149,21 @@
         <v>985.4443</v>
       </c>
       <c r="G244" t="n">
+        <v>148.5466666666666</v>
+      </c>
+      <c r="H244" t="n">
         <v>147.31</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +10187,21 @@
         <v>1573.578</v>
       </c>
       <c r="G245" t="n">
+        <v>148.5466666666666</v>
+      </c>
+      <c r="H245" t="n">
         <v>147.37</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +10225,21 @@
         <v>7421.2818</v>
       </c>
       <c r="G246" t="n">
+        <v>148.5133333333332</v>
+      </c>
+      <c r="H246" t="n">
         <v>147.42</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +10263,21 @@
         <v>12810.0639</v>
       </c>
       <c r="G247" t="n">
+        <v>148.4733333333332</v>
+      </c>
+      <c r="H247" t="n">
         <v>147.47</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +10301,21 @@
         <v>11854.6518</v>
       </c>
       <c r="G248" t="n">
+        <v>148.4199999999999</v>
+      </c>
+      <c r="H248" t="n">
         <v>147.5316666666667</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +10339,21 @@
         <v>1004</v>
       </c>
       <c r="G249" t="n">
+        <v>148.3533333333332</v>
+      </c>
+      <c r="H249" t="n">
         <v>147.605</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +10377,21 @@
         <v>4668.6701</v>
       </c>
       <c r="G250" t="n">
+        <v>148.3466666666666</v>
+      </c>
+      <c r="H250" t="n">
         <v>147.6616666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +10415,21 @@
         <v>213.1819</v>
       </c>
       <c r="G251" t="n">
+        <v>148.4866666666666</v>
+      </c>
+      <c r="H251" t="n">
         <v>147.6983333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +10453,21 @@
         <v>500</v>
       </c>
       <c r="G252" t="n">
+        <v>148.6133333333332</v>
+      </c>
+      <c r="H252" t="n">
         <v>147.73</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +10491,21 @@
         <v>4613.4011</v>
       </c>
       <c r="G253" t="n">
+        <v>148.6133333333332</v>
+      </c>
+      <c r="H253" t="n">
         <v>147.7633333333333</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10529,21 @@
         <v>7873.8503</v>
       </c>
       <c r="G254" t="n">
+        <v>148.7466666666666</v>
+      </c>
+      <c r="H254" t="n">
         <v>147.8133333333333</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10567,21 @@
         <v>25.7428</v>
       </c>
       <c r="G255" t="n">
+        <v>148.8133333333332</v>
+      </c>
+      <c r="H255" t="n">
         <v>147.8633333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10605,21 @@
         <v>1766.4953</v>
       </c>
       <c r="G256" t="n">
+        <v>149.0133333333332</v>
+      </c>
+      <c r="H256" t="n">
         <v>147.8966666666666</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10643,21 @@
         <v>100</v>
       </c>
       <c r="G257" t="n">
+        <v>149.2133333333332</v>
+      </c>
+      <c r="H257" t="n">
         <v>147.9466666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10681,21 @@
         <v>2966</v>
       </c>
       <c r="G258" t="n">
+        <v>149.4133333333332</v>
+      </c>
+      <c r="H258" t="n">
         <v>147.9966666666666</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10719,21 @@
         <v>6046.8807</v>
       </c>
       <c r="G259" t="n">
+        <v>149.3666666666665</v>
+      </c>
+      <c r="H259" t="n">
         <v>148.0333333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10757,21 @@
         <v>7826.8174</v>
       </c>
       <c r="G260" t="n">
+        <v>149.4666666666666</v>
+      </c>
+      <c r="H260" t="n">
         <v>148.0766666666667</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10795,21 @@
         <v>18980.1601</v>
       </c>
       <c r="G261" t="n">
+        <v>149.5866666666666</v>
+      </c>
+      <c r="H261" t="n">
         <v>148.135</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10833,21 @@
         <v>842.9707</v>
       </c>
       <c r="G262" t="n">
+        <v>149.7199999999999</v>
+      </c>
+      <c r="H262" t="n">
         <v>148.1766666666667</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10871,21 @@
         <v>127.8196</v>
       </c>
       <c r="G263" t="n">
+        <v>149.7066666666666</v>
+      </c>
+      <c r="H263" t="n">
         <v>148.2433333333333</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10909,21 @@
         <v>1580.4506</v>
       </c>
       <c r="G264" t="n">
+        <v>149.6399999999999</v>
+      </c>
+      <c r="H264" t="n">
         <v>148.2766666666667</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +10947,21 @@
         <v>1761.5326</v>
       </c>
       <c r="G265" t="n">
+        <v>149.5666666666666</v>
+      </c>
+      <c r="H265" t="n">
         <v>148.2933333333334</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +10985,21 @@
         <v>1031.0647</v>
       </c>
       <c r="G266" t="n">
+        <v>149.4266666666666</v>
+      </c>
+      <c r="H266" t="n">
         <v>148.3083333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +11023,21 @@
         <v>1889.509</v>
       </c>
       <c r="G267" t="n">
+        <v>149.3666666666666</v>
+      </c>
+      <c r="H267" t="n">
         <v>148.3566666666667</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +11061,21 @@
         <v>3652.4338</v>
       </c>
       <c r="G268" t="n">
+        <v>149.3599999999999</v>
+      </c>
+      <c r="H268" t="n">
         <v>148.3466666666667</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +11099,21 @@
         <v>3755.4296</v>
       </c>
       <c r="G269" t="n">
+        <v>149.1599999999999</v>
+      </c>
+      <c r="H269" t="n">
         <v>148.3783333333333</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +11137,21 @@
         <v>1750</v>
       </c>
       <c r="G270" t="n">
+        <v>149.0266666666666</v>
+      </c>
+      <c r="H270" t="n">
         <v>148.495</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +11175,21 @@
         <v>418.7313</v>
       </c>
       <c r="G271" t="n">
+        <v>148.8933333333333</v>
+      </c>
+      <c r="H271" t="n">
         <v>148.5283333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +11213,21 @@
         <v>2752.7976</v>
       </c>
       <c r="G272" t="n">
+        <v>148.9599999999999</v>
+      </c>
+      <c r="H272" t="n">
         <v>148.6766666666666</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +11251,21 @@
         <v>132.1022</v>
       </c>
       <c r="G273" t="n">
+        <v>148.9599999999999</v>
+      </c>
+      <c r="H273" t="n">
         <v>148.6933333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +11289,401 @@
         <v>30</v>
       </c>
       <c r="G274" t="n">
+        <v>149.0133333333333</v>
+      </c>
+      <c r="H274" t="n">
         <v>148.7266666666666</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>148</v>
+      </c>
+      <c r="D275" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>148</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2160.186</v>
+      </c>
+      <c r="G275" t="n">
+        <v>148.8466666666666</v>
+      </c>
+      <c r="H275" t="n">
+        <v>148.7433333333333</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>148</v>
+      </c>
+      <c r="C276" t="n">
+        <v>148</v>
+      </c>
+      <c r="D276" t="n">
+        <v>148</v>
+      </c>
+      <c r="E276" t="n">
+        <v>148</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1620.1395</v>
+      </c>
+      <c r="G276" t="n">
+        <v>148.6933333333332</v>
+      </c>
+      <c r="H276" t="n">
+        <v>148.7583333333333</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>148</v>
+      </c>
+      <c r="C277" t="n">
+        <v>148</v>
+      </c>
+      <c r="D277" t="n">
+        <v>148</v>
+      </c>
+      <c r="E277" t="n">
+        <v>148</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1116.9644</v>
+      </c>
+      <c r="G277" t="n">
+        <v>148.5266666666666</v>
+      </c>
+      <c r="H277" t="n">
+        <v>148.7783333333333</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="F278" t="n">
+        <v>935.8635</v>
+      </c>
+      <c r="G278" t="n">
+        <v>148.3999999999999</v>
+      </c>
+      <c r="H278" t="n">
+        <v>148.7816666666667</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>149</v>
+      </c>
+      <c r="C279" t="n">
+        <v>149</v>
+      </c>
+      <c r="D279" t="n">
+        <v>149</v>
+      </c>
+      <c r="E279" t="n">
+        <v>149</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1057.9046</v>
+      </c>
+      <c r="G279" t="n">
+        <v>148.3999999999999</v>
+      </c>
+      <c r="H279" t="n">
+        <v>148.815</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>148</v>
+      </c>
+      <c r="C280" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D280" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E280" t="n">
+        <v>148</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1039.2888</v>
+      </c>
+      <c r="G280" t="n">
+        <v>148.4599999999999</v>
+      </c>
+      <c r="H280" t="n">
+        <v>148.845</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>149</v>
+      </c>
+      <c r="C281" t="n">
+        <v>149</v>
+      </c>
+      <c r="D281" t="n">
+        <v>149</v>
+      </c>
+      <c r="E281" t="n">
+        <v>149</v>
+      </c>
+      <c r="F281" t="n">
+        <v>245.51</v>
+      </c>
+      <c r="G281" t="n">
+        <v>148.5933333333332</v>
+      </c>
+      <c r="H281" t="n">
+        <v>148.875</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>149</v>
+      </c>
+      <c r="C282" t="n">
+        <v>149</v>
+      </c>
+      <c r="D282" t="n">
+        <v>149</v>
+      </c>
+      <c r="E282" t="n">
+        <v>149</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1254.49</v>
+      </c>
+      <c r="G282" t="n">
+        <v>148.5933333333332</v>
+      </c>
+      <c r="H282" t="n">
+        <v>148.8433333333333</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>148</v>
+      </c>
+      <c r="C283" t="n">
+        <v>148</v>
+      </c>
+      <c r="D283" t="n">
+        <v>148</v>
+      </c>
+      <c r="E283" t="n">
+        <v>148</v>
+      </c>
+      <c r="F283" t="n">
+        <v>6140.6187</v>
+      </c>
+      <c r="G283" t="n">
+        <v>148.5999999999999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>148.8566666666666</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C284" t="n">
+        <v>149</v>
+      </c>
+      <c r="D284" t="n">
+        <v>149</v>
+      </c>
+      <c r="E284" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G284" t="n">
+        <v>148.7333333333332</v>
+      </c>
+      <c r="H284" t="n">
+        <v>148.8416666666666</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest ABT.xlsx
+++ b/BackTest/2020-01-13 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>17376.5063</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>17376.5063</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>128</v>
@@ -521,7 +521,7 @@
         <v>17376.5063</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>128</v>
@@ -562,7 +562,7 @@
         <v>17198.7323</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>128</v>
@@ -603,7 +603,7 @@
         <v>15996.7323</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>126</v>
@@ -644,7 +644,7 @@
         <v>16384.7323</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>125</v>
@@ -685,7 +685,7 @@
         <v>16384.7323</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>127</v>
@@ -726,7 +726,7 @@
         <v>16373.7029</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>127</v>
@@ -767,7 +767,7 @@
         <v>16377.7029</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>124</v>
@@ -808,7 +808,7 @@
         <v>16377.7029</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>127</v>
@@ -849,7 +849,7 @@
         <v>16377.7029</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>127</v>
@@ -890,7 +890,7 @@
         <v>16377.7029</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>127</v>
@@ -931,7 +931,7 @@
         <v>16381.7029</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>127</v>
@@ -972,7 +972,7 @@
         <v>21795.7029</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>130</v>
@@ -1013,9 +1013,11 @@
         <v>21795.7029</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>131.9</v>
+      </c>
       <c r="J16" t="n">
         <v>128</v>
       </c>
@@ -1052,9 +1054,11 @@
         <v>21795.7029</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>131.9</v>
+      </c>
       <c r="J17" t="n">
         <v>128</v>
       </c>
@@ -1091,9 +1095,11 @@
         <v>33117.4217</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>131.9</v>
+      </c>
       <c r="J18" t="n">
         <v>128</v>
       </c>
@@ -1130,9 +1136,11 @@
         <v>35305.2561</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>132</v>
+      </c>
       <c r="J19" t="n">
         <v>128</v>
       </c>
@@ -1169,9 +1177,11 @@
         <v>44369.8255</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>133</v>
+      </c>
       <c r="J20" t="n">
         <v>128</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>56198.60659915634</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -1559,7 +1569,7 @@
         <v>57852.28909915635</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
@@ -1637,7 +1647,7 @@
         <v>48803.04521800934</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
@@ -1715,7 +1725,7 @@
         <v>-5074.880181990658</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
@@ -8579,7 +8589,7 @@
         <v>200074.2625180704</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
@@ -8587,15 +8597,13 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>1.15203125</v>
-      </c>
-      <c r="M210" t="n">
-        <v>1.015873015873016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8620,11 +8628,17 @@
         <v>225772.4881180704</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>128</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +8667,17 @@
         <v>212632.6535542406</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>128</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +8706,17 @@
         <v>221372.5006938379</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>128</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8719,11 +8745,17 @@
         <v>218703.4229938379</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>128</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +8784,17 @@
         <v>218747.9644938379</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>128</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8785,11 +8823,17 @@
         <v>216837.2782048191</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>128</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8818,11 +8862,17 @@
         <v>216837.2782048191</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>128</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8854,8 +8904,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>128</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8887,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>128</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8920,8 +8982,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>128</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8953,8 +9021,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>128</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8983,11 +9057,17 @@
         <v>236116.3144048191</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>128</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9019,8 +9099,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>128</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +9135,17 @@
         <v>232990.6567048191</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>128</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9082,11 +9174,17 @@
         <v>232990.6567048191</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>128</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9115,11 +9213,17 @@
         <v>223411.1117048191</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>128</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9151,8 +9255,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>128</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9184,8 +9294,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>128</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9217,8 +9333,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>128</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9250,8 +9372,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>128</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9283,8 +9411,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>128</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9316,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>128</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9349,8 +9489,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>128</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9382,8 +9528,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>128</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9415,8 +9567,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>128</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9448,8 +9606,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>128</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9481,8 +9645,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>128</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9514,8 +9684,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>128</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9547,8 +9723,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>128</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9577,15 +9759,23 @@
         <v>244736.8933620269</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>128</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>1.1278125</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1.015873015873016</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9610,7 +9800,7 @@
         <v>244789.0695620269</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9643,7 +9833,7 @@
         <v>242236.5833620269</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9874,7 +10064,7 @@
         <v>252113.7173620269</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9907,7 +10097,7 @@
         <v>255151.6558620269</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10072,7 +10262,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10105,7 +10295,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10138,7 +10328,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10171,7 +10361,7 @@
         <v>248062.5725620269</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10204,7 +10394,7 @@
         <v>247816.5725620269</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10237,7 +10427,7 @@
         <v>247820.9361620269</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10270,7 +10460,7 @@
         <v>246100.9361620269</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10303,7 +10493,7 @@
         <v>246104.9361620269</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10336,7 +10526,7 @@
         <v>246104.9361620269</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10369,7 +10559,7 @@
         <v>245931.8891620269</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10402,7 +10592,7 @@
         <v>245931.8891620269</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10864,7 +11054,7 @@
         <v>276319.0739620269</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10930,7 +11120,7 @@
         <v>280844.1625146445</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10963,7 +11153,7 @@
         <v>292947.4792146445</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10996,7 +11186,7 @@
         <v>283469.2949146445</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11029,7 +11219,7 @@
         <v>351570.3133146445</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11062,7 +11252,7 @@
         <v>335722.5857146445</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11095,7 +11285,7 @@
         <v>334147.0793146445</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11128,7 +11318,7 @@
         <v>334165.0913226499</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11161,7 +11351,7 @@
         <v>333771.5251226499</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11194,7 +11384,7 @@
         <v>333771.5251226499</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11227,7 +11417,7 @@
         <v>334278.1111226499</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11260,7 +11450,7 @@
         <v>334298.1257226499</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11293,7 +11483,7 @@
         <v>335510.7045584114</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11326,7 +11516,7 @@
         <v>334414.3447584115</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11359,7 +11549,7 @@
         <v>327045.1728584114</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11392,7 +11582,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11425,7 +11615,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11458,7 +11648,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11491,7 +11681,7 @@
         <v>332170.3379584115</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11524,7 +11714,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11557,7 +11747,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11590,7 +11780,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11623,7 +11813,7 @@
         <v>329384.9964584114</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11656,7 +11846,7 @@
         <v>327811.4184584115</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11689,7 +11879,7 @@
         <v>320390.1366584115</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11722,7 +11912,7 @@
         <v>320390.1366584115</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11755,7 +11945,7 @@
         <v>332244.7884584115</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11788,7 +11978,7 @@
         <v>333248.7884584115</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11821,7 +12011,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11854,7 +12044,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11887,7 +12077,7 @@
         <v>329080.1183584115</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11920,7 +12110,7 @@
         <v>324466.7172584115</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11953,7 +12143,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11986,7 +12176,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12019,7 +12209,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12052,7 +12242,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12118,7 +12308,7 @@
         <v>326293.6868584115</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12151,7 +12341,7 @@
         <v>334120.5042584115</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12184,7 +12374,7 @@
         <v>315140.3441584115</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12349,7 +12539,7 @@
         <v>313062.8979584115</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12382,7 +12572,7 @@
         <v>314952.4069584116</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12415,7 +12605,7 @@
         <v>311299.9731584116</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12448,7 +12638,7 @@
         <v>307544.5435584116</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12481,7 +12671,7 @@
         <v>309294.5435584116</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12514,7 +12704,7 @@
         <v>309294.5435584116</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12547,7 +12737,7 @@
         <v>312047.3411584116</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12580,7 +12770,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12613,7 +12803,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12646,7 +12836,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12679,7 +12869,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12712,7 +12902,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12745,7 +12935,7 @@
         <v>308819.1894584116</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12778,7 +12968,7 @@
         <v>309877.0940584116</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12811,7 +13001,7 @@
         <v>308837.8052584116</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12844,7 +13034,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12877,7 +13067,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12910,7 +13100,7 @@
         <v>302942.6965584116</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12943,7 +13133,7 @@
         <v>304442.6965584116</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12954,6 +13144,6 @@
       <c r="M342" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ABT.xlsx
+++ b/BackTest/2020-01-13 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>17376.5063</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>17376.5063</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>128</v>
-      </c>
-      <c r="J3" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>128</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,11 +554,9 @@
         <v>17198.7323</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>128</v>
       </c>
@@ -1013,11 +1003,9 @@
         <v>21795.7029</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>131.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>128</v>
       </c>
@@ -1054,11 +1042,9 @@
         <v>21795.7029</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>131.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>128</v>
       </c>
@@ -1095,11 +1081,9 @@
         <v>33117.4217</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>131.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>128</v>
       </c>
@@ -1136,11 +1120,9 @@
         <v>35305.2561</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>128</v>
       </c>
@@ -1177,11 +1159,9 @@
         <v>44369.8255</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>128</v>
       </c>
@@ -1413,7 +1393,7 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
@@ -1421,13 +1401,15 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>1.18953125</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.015873015873016</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1452,17 +1434,11 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>128</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1491,17 +1467,11 @@
         <v>56198.60659915634</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>128</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1530,17 +1500,11 @@
         <v>56438.34929915635</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>128</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1569,17 +1533,11 @@
         <v>57852.28909915635</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>128</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1608,17 +1566,11 @@
         <v>56281.11179915634</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>128</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1647,17 +1599,11 @@
         <v>48803.04521800934</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>128</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1686,17 +1632,11 @@
         <v>49504.52561800934</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>128</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1725,17 +1665,11 @@
         <v>-5074.880181990658</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>128</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1767,14 +1701,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>128</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1806,14 +1734,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>128</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1845,14 +1767,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>128</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1884,14 +1800,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>128</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1923,14 +1833,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>128</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1962,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>128</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2001,14 +1899,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>128</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2040,14 +1932,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>128</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2079,14 +1965,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>128</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2118,14 +1998,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>128</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +2031,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>128</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2196,14 +2064,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>128</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +2097,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>128</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2274,14 +2130,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>128</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2313,14 +2163,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>128</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2352,14 +2196,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>128</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2391,14 +2229,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>128</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2430,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>128</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2469,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>128</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2328,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>128</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2361,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>128</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2394,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>128</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2427,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>128</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2664,14 +2460,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>128</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2700,17 +2490,11 @@
         <v>34556.46413350889</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>128</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2739,17 +2523,11 @@
         <v>51185.38983350889</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>128</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2559,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>128</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>128</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2625,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>128</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>128</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2691,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>128</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2724,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>128</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2757,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>128</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3051,17 +2787,11 @@
         <v>39449.3062053389</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>128</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3090,17 +2820,11 @@
         <v>27890.1283053389</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>128</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3129,17 +2853,11 @@
         <v>25870.37153185824</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>128</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2889,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>128</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +2922,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>128</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2955,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>128</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3288,14 +2988,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>128</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +3021,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>128</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>128</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +3087,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>128</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +3120,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>128</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3153,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>128</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3522,14 +3186,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>128</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3561,14 +3219,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>128</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3600,14 +3252,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>128</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3285,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>128</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3678,14 +3318,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>128</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3351,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>128</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3384,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>128</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3795,14 +3417,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>128</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3834,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>128</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3483,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>128</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3516,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>128</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3549,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>128</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3990,14 +3582,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>128</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4029,14 +3615,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>128</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4068,14 +3648,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>128</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3681,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>128</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3714,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>128</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>128</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +3780,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>128</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +3813,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>128</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>128</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3879,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>128</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +3912,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>128</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +3945,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>128</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +3978,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>128</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +4011,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>128</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4536,14 +4044,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>128</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4575,14 +4077,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>128</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +4110,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>128</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4653,14 +4143,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>128</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4692,14 +4176,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>128</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4731,14 +4209,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>128</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4770,14 +4242,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>128</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4275,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>128</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4848,14 +4308,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>128</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4887,14 +4341,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>128</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4926,14 +4374,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>128</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4965,14 +4407,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>128</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4440,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>128</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5043,14 +4473,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>128</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5082,14 +4506,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>128</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5121,14 +4539,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>128</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5160,14 +4572,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>128</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5199,14 +4605,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>128</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5238,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>128</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5277,14 +4671,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>128</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +4704,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>128</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5355,14 +4737,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>128</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5394,14 +4770,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>128</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5433,14 +4803,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>128</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5472,14 +4836,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>128</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5511,14 +4869,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>128</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5550,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>128</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5589,14 +4935,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>128</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5628,14 +4968,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>128</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5667,14 +5001,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>128</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5706,14 +5034,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>128</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5067,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>128</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5784,14 +5100,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>128</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5823,14 +5133,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>128</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5862,14 +5166,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>128</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5901,14 +5199,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>128</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5940,14 +5232,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>128</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5979,14 +5265,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>128</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6018,14 +5298,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>128</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6057,14 +5331,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>128</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6096,14 +5364,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>128</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6135,14 +5397,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>128</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6174,14 +5430,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>128</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6213,14 +5463,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>128</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6252,14 +5496,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>128</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +5529,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>128</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6330,14 +5562,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>128</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6369,14 +5595,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>128</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +5628,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>128</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6447,14 +5661,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>128</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6486,14 +5694,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>128</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6525,14 +5727,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>128</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6564,14 +5760,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>128</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6603,14 +5793,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>128</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6642,14 +5826,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>128</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6681,14 +5859,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>128</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6720,14 +5892,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>128</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6759,14 +5925,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>128</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6798,14 +5958,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>128</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6837,14 +5991,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>128</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6876,14 +6024,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>128</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6915,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>128</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6954,14 +6090,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>128</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6993,14 +6123,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>128</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7032,14 +6156,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>128</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7071,14 +6189,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>128</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7110,14 +6222,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>128</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7149,14 +6255,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>128</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7188,14 +6288,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>128</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7227,14 +6321,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>128</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7266,14 +6354,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>128</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7305,14 +6387,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>128</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7344,14 +6420,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>128</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7383,14 +6453,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>128</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7422,14 +6486,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>128</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7461,14 +6519,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>128</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7500,14 +6552,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>128</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7539,14 +6585,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>128</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7578,14 +6618,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>128</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7617,14 +6651,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>128</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7656,14 +6684,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>128</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7695,14 +6717,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>128</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7734,14 +6750,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>128</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7773,14 +6783,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>128</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7812,14 +6816,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>128</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7851,14 +6849,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>128</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7890,14 +6882,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>128</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7929,14 +6915,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>128</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7968,14 +6948,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>128</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8007,14 +6981,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>128</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +7014,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>128</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8085,14 +7047,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>128</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8124,14 +7080,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>128</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8163,14 +7113,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>128</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +7146,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>128</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8241,14 +7179,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>128</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8280,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>128</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8319,14 +7245,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>128</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8358,14 +7278,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>128</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8397,14 +7311,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>128</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8436,14 +7344,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>128</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8475,14 +7377,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>128</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8514,14 +7410,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>128</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8553,14 +7443,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>128</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8592,14 +7476,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>128</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8631,14 +7509,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>128</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8670,14 +7542,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>128</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8709,14 +7575,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>128</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8748,14 +7608,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>128</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8787,14 +7641,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>128</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8826,14 +7674,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>128</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8865,14 +7707,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>128</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8904,14 +7740,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>128</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8943,14 +7773,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>128</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8982,14 +7806,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>128</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9021,14 +7839,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>128</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9060,14 +7872,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>128</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9099,14 +7905,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>128</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9138,14 +7938,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>128</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9177,14 +7971,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>128</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9216,14 +8004,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>128</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9255,14 +8037,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>128</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9294,14 +8070,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>128</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9333,14 +8103,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>128</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9372,14 +8136,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>128</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9411,14 +8169,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>128</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9450,14 +8202,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>128</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9489,14 +8235,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>128</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9528,14 +8268,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>128</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9567,14 +8301,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>128</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9606,14 +8334,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>128</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9645,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>128</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9684,14 +8400,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>128</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9723,14 +8433,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>128</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9759,23 +8463,15 @@
         <v>244736.8933620269</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>128</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
-        <v>1.1278125</v>
-      </c>
-      <c r="M240" t="n">
-        <v>1.015873015873016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9800,7 +8496,7 @@
         <v>244789.0695620269</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9833,7 +8529,7 @@
         <v>242236.5833620269</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -10064,7 +8760,7 @@
         <v>252113.7173620269</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10097,7 +8793,7 @@
         <v>255151.6558620269</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10262,7 +8958,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10295,7 +8991,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10328,7 +9024,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10361,7 +9057,7 @@
         <v>248062.5725620269</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10394,7 +9090,7 @@
         <v>247816.5725620269</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10427,7 +9123,7 @@
         <v>247820.9361620269</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10460,7 +9156,7 @@
         <v>246100.9361620269</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10493,7 +9189,7 @@
         <v>246104.9361620269</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10526,7 +9222,7 @@
         <v>246104.9361620269</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10559,7 +9255,7 @@
         <v>245931.8891620269</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10592,7 +9288,7 @@
         <v>245931.8891620269</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -11054,7 +9750,7 @@
         <v>276319.0739620269</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11120,7 +9816,7 @@
         <v>280844.1625146445</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11186,7 +9882,7 @@
         <v>283469.2949146445</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11219,7 +9915,7 @@
         <v>351570.3133146445</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11252,7 +9948,7 @@
         <v>335722.5857146445</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11285,7 +9981,7 @@
         <v>334147.0793146445</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11318,7 +10014,7 @@
         <v>334165.0913226499</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11351,7 +10047,7 @@
         <v>333771.5251226499</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11384,7 +10080,7 @@
         <v>333771.5251226499</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11417,7 +10113,7 @@
         <v>334278.1111226499</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11450,7 +10146,7 @@
         <v>334298.1257226499</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11483,7 +10179,7 @@
         <v>335510.7045584114</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11516,7 +10212,7 @@
         <v>334414.3447584115</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11549,7 +10245,7 @@
         <v>327045.1728584114</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11582,7 +10278,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11615,7 +10311,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11648,7 +10344,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11681,7 +10377,7 @@
         <v>332170.3379584115</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11714,7 +10410,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11747,7 +10443,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11780,7 +10476,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11813,7 +10509,7 @@
         <v>329384.9964584114</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11846,7 +10542,7 @@
         <v>327811.4184584115</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11879,7 +10575,7 @@
         <v>320390.1366584115</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11912,7 +10608,7 @@
         <v>320390.1366584115</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11945,7 +10641,7 @@
         <v>332244.7884584115</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11978,7 +10674,7 @@
         <v>333248.7884584115</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12011,7 +10707,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12044,7 +10740,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12077,7 +10773,7 @@
         <v>329080.1183584115</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12110,7 +10806,7 @@
         <v>324466.7172584115</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12143,7 +10839,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12176,7 +10872,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12209,7 +10905,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12242,7 +10938,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12539,7 +11235,7 @@
         <v>313062.8979584115</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12572,7 +11268,7 @@
         <v>314952.4069584116</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12605,7 +11301,7 @@
         <v>311299.9731584116</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12638,7 +11334,7 @@
         <v>307544.5435584116</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12671,7 +11367,7 @@
         <v>309294.5435584116</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12704,7 +11400,7 @@
         <v>309294.5435584116</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12737,7 +11433,7 @@
         <v>312047.3411584116</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12770,7 +11466,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12803,7 +11499,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12836,7 +11532,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12869,7 +11565,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12902,7 +11598,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12935,7 +11631,7 @@
         <v>308819.1894584116</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12968,7 +11664,7 @@
         <v>309877.0940584116</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13001,7 +11697,7 @@
         <v>308837.8052584116</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13034,7 +11730,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13067,7 +11763,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13100,7 +11796,7 @@
         <v>302942.6965584116</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13133,7 +11829,7 @@
         <v>304442.6965584116</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13144,6 +11840,6 @@
       <c r="M342" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ABT.xlsx
+++ b/BackTest/2020-01-13 BackTest ABT.xlsx
@@ -517,14 +517,10 @@
         <v>17376.5063</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>128</v>
-      </c>
-      <c r="J4" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -557,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>128</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -598,9 +588,7 @@
       <c r="I6" t="n">
         <v>126</v>
       </c>
-      <c r="J6" t="n">
-        <v>128</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -639,9 +627,7 @@
       <c r="I7" t="n">
         <v>125</v>
       </c>
-      <c r="J7" t="n">
-        <v>128</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -680,9 +666,7 @@
       <c r="I8" t="n">
         <v>127</v>
       </c>
-      <c r="J8" t="n">
-        <v>128</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -721,9 +705,7 @@
       <c r="I9" t="n">
         <v>127</v>
       </c>
-      <c r="J9" t="n">
-        <v>128</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -762,9 +744,7 @@
       <c r="I10" t="n">
         <v>124</v>
       </c>
-      <c r="J10" t="n">
-        <v>128</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -803,9 +783,7 @@
       <c r="I11" t="n">
         <v>127</v>
       </c>
-      <c r="J11" t="n">
-        <v>128</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -844,9 +822,7 @@
       <c r="I12" t="n">
         <v>127</v>
       </c>
-      <c r="J12" t="n">
-        <v>128</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -885,9 +861,7 @@
       <c r="I13" t="n">
         <v>127</v>
       </c>
-      <c r="J13" t="n">
-        <v>128</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -926,9 +900,7 @@
       <c r="I14" t="n">
         <v>127</v>
       </c>
-      <c r="J14" t="n">
-        <v>128</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -967,9 +939,7 @@
       <c r="I15" t="n">
         <v>130</v>
       </c>
-      <c r="J15" t="n">
-        <v>128</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1006,9 +976,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>128</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1045,9 +1013,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>128</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1084,9 +1050,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>128</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1123,9 +1087,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>128</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1162,9 +1124,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>128</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1201,9 +1161,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>128</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,9 +1198,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>128</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1279,9 +1235,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>128</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1318,9 +1272,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>128</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1357,9 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>128</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1393,23 +1343,19 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>128</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.18953125</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.015873015873016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1434,11 +1380,15 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1467,11 +1417,15 @@
         <v>56198.60659915634</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1500,11 +1454,15 @@
         <v>56438.34929915635</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1533,11 +1491,15 @@
         <v>57852.28909915635</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1566,11 +1528,15 @@
         <v>56281.11179915634</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1599,11 +1565,15 @@
         <v>48803.04521800934</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1632,11 +1602,15 @@
         <v>49504.52561800934</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1665,11 +1639,15 @@
         <v>-5074.880181990658</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1702,7 +1680,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1735,7 +1717,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1768,7 +1754,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1801,7 +1791,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1834,7 +1828,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1867,7 +1865,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1900,7 +1902,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,7 +1939,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1966,7 +1976,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1999,7 +2013,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2032,7 +2050,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2065,7 +2087,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2098,7 +2124,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2131,7 +2161,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2164,7 +2198,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2197,7 +2235,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2230,7 +2272,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2263,7 +2309,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2296,7 +2346,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2329,7 +2383,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2362,7 +2420,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2395,7 +2457,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2428,7 +2494,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2461,7 +2531,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2490,11 +2564,15 @@
         <v>34556.46413350889</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2523,11 +2601,15 @@
         <v>51185.38983350889</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2560,7 +2642,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2679,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2626,7 +2716,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2659,7 +2753,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2692,7 +2790,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2725,7 +2827,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2758,7 +2864,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2787,11 +2897,15 @@
         <v>39449.3062053389</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2820,11 +2934,15 @@
         <v>27890.1283053389</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2853,11 +2971,15 @@
         <v>25870.37153185824</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2890,7 +3012,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2923,7 +3049,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2956,7 +3086,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2989,7 +3123,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3022,7 +3160,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3055,7 +3197,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3088,7 +3234,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3121,7 +3271,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3154,7 +3308,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3187,7 +3345,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3220,7 +3382,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3253,7 +3419,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3286,7 +3456,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3319,7 +3493,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3352,7 +3530,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3385,7 +3567,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3418,7 +3604,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3451,7 +3641,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3484,7 +3678,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3517,7 +3715,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3550,7 +3752,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3583,7 +3789,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3616,7 +3826,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3649,7 +3863,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3682,7 +3900,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3715,7 +3937,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +3974,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3781,7 +4011,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3814,7 +4048,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3847,7 +4085,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3880,7 +4122,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3913,7 +4159,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3946,7 +4196,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3979,7 +4233,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4012,7 +4270,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4045,7 +4307,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4078,7 +4344,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4111,7 +4381,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4144,7 +4418,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4177,7 +4455,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4210,7 +4492,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4243,7 +4529,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4276,7 +4566,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4309,7 +4603,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4342,7 +4640,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4375,7 +4677,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4408,7 +4714,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4441,7 +4751,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4474,7 +4788,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4507,7 +4825,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4540,7 +4862,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4573,7 +4899,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4606,7 +4936,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4639,7 +4973,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4672,7 +5010,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4705,7 +5047,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4738,7 +5084,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4771,7 +5121,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4804,7 +5158,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4837,7 +5195,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4870,7 +5232,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5269,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4936,7 +5306,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4969,7 +5343,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5002,7 +5380,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5035,7 +5417,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5068,7 +5454,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5101,7 +5491,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5134,7 +5528,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5167,7 +5565,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5200,7 +5602,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5233,7 +5639,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5266,7 +5676,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5299,7 +5713,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5332,7 +5750,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5365,7 +5787,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5398,7 +5824,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5431,7 +5861,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5464,7 +5898,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5497,7 +5935,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5530,7 +5972,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5563,7 +6009,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5596,7 +6046,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5629,7 +6083,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5662,7 +6120,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5695,7 +6157,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5728,7 +6194,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5761,7 +6231,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5794,7 +6268,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5827,7 +6305,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5860,7 +6342,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5893,7 +6379,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5926,7 +6416,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5959,7 +6453,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5992,7 +6490,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6025,7 +6527,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6564,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6091,7 +6601,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6124,7 +6638,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6157,7 +6675,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6190,7 +6712,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6223,7 +6749,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6256,7 +6786,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6289,7 +6823,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6322,7 +6860,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6355,7 +6897,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6388,7 +6934,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6421,7 +6971,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6454,7 +7008,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6487,7 +7045,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6520,7 +7082,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6553,7 +7119,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6586,7 +7156,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6619,7 +7193,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6652,7 +7230,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6685,7 +7267,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6718,7 +7304,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6751,7 +7341,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6784,7 +7378,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6817,7 +7415,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6850,7 +7452,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6883,7 +7489,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6916,7 +7526,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6949,7 +7563,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6982,7 +7600,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7015,7 +7637,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7048,7 +7674,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7081,7 +7711,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7114,7 +7748,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7147,7 +7785,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7180,7 +7822,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7859,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7246,7 +7896,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7279,7 +7933,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7312,7 +7970,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7345,7 +8007,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7378,7 +8044,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7411,7 +8081,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7444,7 +8118,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7477,7 +8155,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7506,14 +8188,16 @@
         <v>225772.4881180704</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -7539,7 +8223,7 @@
         <v>212632.6535542406</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7572,7 +8256,7 @@
         <v>221372.5006938379</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7605,7 +8289,7 @@
         <v>218703.4229938379</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7638,7 +8322,7 @@
         <v>218747.9644938379</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7671,7 +8355,7 @@
         <v>216837.2782048191</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7704,7 +8388,7 @@
         <v>216837.2782048191</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7737,7 +8421,7 @@
         <v>219772.9359048191</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7770,7 +8454,7 @@
         <v>235272.4514048191</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7803,7 +8487,7 @@
         <v>234772.4514048191</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7836,7 +8520,7 @@
         <v>234772.4514048191</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7869,7 +8553,7 @@
         <v>236116.3144048191</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7902,7 +8586,7 @@
         <v>236116.3144048191</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7935,7 +8619,7 @@
         <v>232990.6567048191</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7968,7 +8652,7 @@
         <v>232990.6567048191</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8001,7 +8685,7 @@
         <v>223411.1117048191</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8034,7 +8718,7 @@
         <v>223411.1117048191</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8067,7 +8751,7 @@
         <v>220992.3152048191</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8298,7 +8982,7 @@
         <v>216069.8994620269</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8331,7 +9015,7 @@
         <v>233547.7101620269</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8364,7 +9048,7 @@
         <v>255857.0652620269</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8397,7 +9081,7 @@
         <v>247306.0327620269</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8430,7 +9114,7 @@
         <v>249340.5207620269</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8463,7 +9147,7 @@
         <v>244736.8933620269</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8496,7 +9180,7 @@
         <v>244789.0695620269</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8529,7 +9213,7 @@
         <v>242236.5833620269</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8562,7 +9246,7 @@
         <v>242736.5833620269</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8595,7 +9279,7 @@
         <v>245551.2542620269</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8628,7 +9312,7 @@
         <v>245551.2542620269</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8661,7 +9345,7 @@
         <v>245551.2542620269</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8694,7 +9378,7 @@
         <v>247465.6189620269</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8760,7 +9444,7 @@
         <v>252113.7173620269</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8793,7 +9477,7 @@
         <v>255151.6558620269</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8826,7 +9510,7 @@
         <v>250021.9961620269</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8892,7 +9576,7 @@
         <v>250321.9961620269</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8958,7 +9642,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9090,7 +9774,7 @@
         <v>247816.5725620269</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9156,7 +9840,7 @@
         <v>246100.9361620269</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9816,7 +10500,7 @@
         <v>280844.1625146445</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9882,7 +10566,7 @@
         <v>283469.2949146445</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9948,7 +10632,7 @@
         <v>335722.5857146445</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9981,7 +10665,7 @@
         <v>334147.0793146445</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10080,7 +10764,7 @@
         <v>333771.5251226499</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10113,7 +10797,7 @@
         <v>334278.1111226499</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10146,7 +10830,7 @@
         <v>334298.1257226499</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10179,7 +10863,7 @@
         <v>335510.7045584114</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10212,7 +10896,7 @@
         <v>334414.3447584115</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10245,7 +10929,7 @@
         <v>327045.1728584114</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10278,7 +10962,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10311,7 +10995,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10377,7 +11061,7 @@
         <v>332170.3379584115</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10410,7 +11094,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10443,7 +11127,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10641,7 +11325,7 @@
         <v>332244.7884584115</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10674,7 +11358,7 @@
         <v>333248.7884584115</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10707,7 +11391,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10740,7 +11424,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10773,7 +11457,7 @@
         <v>329080.1183584115</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10806,7 +11490,7 @@
         <v>324466.7172584115</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10839,7 +11523,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10872,7 +11556,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10905,7 +11589,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10938,7 +11622,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10971,7 +11655,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11004,7 +11688,7 @@
         <v>326293.6868584115</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11037,7 +11721,7 @@
         <v>334120.5042584115</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11070,7 +11754,7 @@
         <v>315140.3441584115</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11103,7 +11787,7 @@
         <v>315983.3148584115</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11136,7 +11820,7 @@
         <v>315855.4952584115</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11169,7 +11853,7 @@
         <v>315855.4952584115</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11202,7 +11886,7 @@
         <v>314093.9626584115</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11433,7 +12117,7 @@
         <v>312047.3411584116</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11466,7 +12150,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11499,7 +12183,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11532,7 +12216,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11565,7 +12249,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11598,7 +12282,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11631,7 +12315,7 @@
         <v>308819.1894584116</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11664,7 +12348,7 @@
         <v>309877.0940584116</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11697,7 +12381,7 @@
         <v>308837.8052584116</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11730,7 +12414,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11763,7 +12447,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11796,7 +12480,7 @@
         <v>302942.6965584116</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11829,7 +12513,7 @@
         <v>304442.6965584116</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
